--- a/口袋猫猫/工作日志.xlsx
+++ b/口袋猫猫/工作日志.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17775"/>
+    <workbookView windowWidth="22530" windowHeight="11070" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="6.8" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="6.9" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="14">
   <si>
     <t>程序策划：</t>
   </si>
@@ -62,6 +62,15 @@
   </si>
   <si>
     <t>重构各色方块</t>
+  </si>
+  <si>
+    <t>优化方块消解特效</t>
+  </si>
+  <si>
+    <t>新增3个功能方块</t>
+  </si>
+  <si>
+    <t>彩色方块</t>
   </si>
 </sst>
 </file>
@@ -1005,13 +1014,14 @@
   <sheetPr/>
   <dimension ref="A5:B20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A26" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="36.125" customWidth="1"/>
+    <col min="2" max="2" width="21" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="5" spans="1:1">
@@ -1019,19 +1029,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:1">
+      <c r="B6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="1:1">
+      <c r="B7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
         <v>3</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -1082,14 +1101,63 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A5:A16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="36.125" customWidth="1"/>
+    <col min="2" max="2" width="21" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" customFormat="1" spans="1:1">
+      <c r="A5" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" customFormat="1" spans="1:1">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" customFormat="1" spans="1:1">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" customFormat="1"/>
+    <row r="10" customFormat="1"/>
+    <row r="11" customFormat="1"/>
+    <row r="12" customFormat="1"/>
+    <row r="13" customFormat="1" spans="1:1">
+      <c r="A13" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" customFormat="1" spans="1:1">
+      <c r="A14" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" customFormat="1" spans="1:1">
+      <c r="A15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" customFormat="1" spans="1:1">
+      <c r="A16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>

--- a/口袋猫猫/工作日志.xlsx
+++ b/口袋猫猫/工作日志.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
   <si>
     <t>程序策划：</t>
   </si>
@@ -64,13 +64,26 @@
     <t>重构各色方块</t>
   </si>
   <si>
-    <t>优化方块消解特效</t>
-  </si>
-  <si>
     <t>新增3个功能方块</t>
   </si>
   <si>
+    <t>倒计时逻辑</t>
+  </si>
+  <si>
+    <t>实现广告功能</t>
+  </si>
+  <si>
+    <t>需要展示金币、体力、闯关模式、无尽模式(排名模式)、设置
+排行榜、每日任务、签到奖励</t>
+  </si>
+  <si>
     <t>彩色方块</t>
+  </si>
+  <si>
+    <t>倒计时UI</t>
+  </si>
+  <si>
+    <t>数字图集要加个冒号</t>
   </si>
 </sst>
 </file>
@@ -253,6 +266,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -362,12 +381,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -570,7 +583,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -594,16 +607,16 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -612,54 +625,54 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -694,12 +707,18 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1101,16 +1120,16 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A5:A16"/>
+  <dimension ref="A5:B16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="36.125" customWidth="1"/>
-    <col min="2" max="2" width="21" customWidth="1"/>
+    <col min="1" max="1" width="65.75" customWidth="1"/>
+    <col min="2" max="2" width="71.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="5" customFormat="1" spans="1:1">
@@ -1118,43 +1137,52 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" customFormat="1" spans="1:1">
       <c r="A6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" customFormat="1" spans="1:1">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" customFormat="1" spans="1:1">
+    <row r="7" spans="1:1">
+      <c r="A7" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" customFormat="1"/>
-    <row r="10" customFormat="1"/>
-    <row r="11" customFormat="1"/>
-    <row r="12" customFormat="1"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" customFormat="1" spans="1:1">
+      <c r="A11" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" customFormat="1" ht="76" customHeight="1" spans="1:2">
+      <c r="A12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
     <row r="13" customFormat="1" spans="1:1">
-      <c r="A13" s="1" t="s">
-        <v>6</v>
+      <c r="A13" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="14" customFormat="1" spans="1:1">
       <c r="A14" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" customFormat="1" spans="1:1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" customFormat="1" spans="1:1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/口袋猫猫/工作日志.xlsx
+++ b/口袋猫猫/工作日志.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22530" windowHeight="11070" activeTab="1"/>
+    <workbookView windowWidth="22530" windowHeight="11070" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="6.8" sheetId="1" r:id="rId1"/>
     <sheet name="6.9" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="6.10" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="19">
   <si>
     <t>程序策划：</t>
   </si>
@@ -84,6 +84,9 @@
   </si>
   <si>
     <t>数字图集要加个冒号</t>
+  </si>
+  <si>
+    <t>胜负实时检测的Bug</t>
   </si>
 </sst>
 </file>
@@ -717,7 +720,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1122,8 +1125,8 @@
   <sheetPr/>
   <dimension ref="A5:B16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
@@ -1148,7 +1151,7 @@
       </c>
     </row>
     <row r="8" spans="1:1">
-      <c r="A8" t="s">
+      <c r="A8" s="2" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1158,7 +1161,7 @@
       </c>
     </row>
     <row r="12" customFormat="1" ht="76" customHeight="1" spans="1:2">
-      <c r="A12" t="s">
+      <c r="A12" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B12" s="3" t="s">
@@ -1171,17 +1174,17 @@
       </c>
     </row>
     <row r="14" customFormat="1" spans="1:1">
-      <c r="A14" t="s">
+      <c r="A14" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:1">
-      <c r="A15" t="s">
+      <c r="A15" s="2" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:1">
-      <c r="A16" t="s">
+      <c r="A16" s="2" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1195,14 +1198,43 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A7:A18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="34.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="7" spans="1:1">
+      <c r="A7" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>

--- a/口袋猫猫/工作日志.xlsx
+++ b/口袋猫猫/工作日志.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="21">
   <si>
     <t>程序策划：</t>
   </si>
@@ -87,6 +87,13 @@
   </si>
   <si>
     <t>胜负实时检测的Bug</t>
+  </si>
+  <si>
+    <t xml:space="preserve">传送门：传送门是一对的，方块从某个方向进入，就会从另一个传送门的相同方向移出
+</t>
+  </si>
+  <si>
+    <t>调整场景切换动画和切换逻辑的关系</t>
   </si>
 </sst>
 </file>
@@ -710,7 +717,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -719,6 +726,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1164,7 +1174,7 @@
       <c r="A12" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="4" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1198,15 +1208,16 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A7:A18"/>
+  <dimension ref="A7:B18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="34.5" customWidth="1"/>
+    <col min="2" max="2" width="98" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="7" spans="1:1">
@@ -1215,13 +1226,21 @@
       </c>
     </row>
     <row r="8" spans="1:1">
-      <c r="A8" t="s">
+      <c r="A8" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" ht="70" customHeight="1" spans="1:2">
       <c r="A9" t="s">
         <v>11</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:1">

--- a/口袋猫猫/工作日志.xlsx
+++ b/口袋猫猫/工作日志.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="22">
   <si>
     <t>程序策划：</t>
   </si>
@@ -89,11 +89,14 @@
     <t>胜负实时检测的Bug</t>
   </si>
   <si>
-    <t xml:space="preserve">传送门：传送门是一对的，方块从某个方向进入，就会从另一个传送门的相同方向移出
-</t>
+    <t>传送门：传送门是一对的，方块从某个方向进入，就会从另一个传送门的相同方向移出
+bug：把a从A向上传送到B，假设B的上方刚好有方块，a会停留在B上(合理吗？)如果合理，a在B上被销毁时，会导致B的Card被置空，但实际上B的Card是传送门</t>
   </si>
   <si>
     <t>调整场景切换动画和切换逻辑的关系</t>
+  </si>
+  <si>
+    <t>看上去可以传送的方块(本质是传送门，从一个门传送到另一门)</t>
   </si>
 </sst>
 </file>
@@ -1208,7 +1211,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A7:B18"/>
+  <dimension ref="A7:B19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
@@ -1216,7 +1219,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="34.5" customWidth="1"/>
+    <col min="1" max="1" width="51.25" customWidth="1"/>
     <col min="2" max="2" width="98" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1253,6 +1256,11 @@
         <v>8</v>
       </c>
     </row>
+    <row r="19" spans="1:1">
+      <c r="A19" t="s">
+        <v>21</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/口袋猫猫/工作日志.xlsx
+++ b/口袋猫猫/工作日志.xlsx
@@ -89,8 +89,8 @@
     <t>胜负实时检测的Bug</t>
   </si>
   <si>
-    <t>传送门：传送门是一对的，方块从某个方向进入，就会从另一个传送门的相同方向移出
-bug：把a从A向上传送到B，假设B的上方刚好有方块，a会停留在B上(合理吗？)如果合理，a在B上被销毁时，会导致B的Card被置空，但实际上B的Card是传送门</t>
+    <t xml:space="preserve">传送门：传送门是一对的，方块从某个方向进入，就会从另一个传送门的相同方向移出
+</t>
   </si>
   <si>
     <t>调整场景切换动画和切换逻辑的关系</t>
@@ -1214,7 +1214,7 @@
   <dimension ref="A7:B19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>

--- a/口袋猫猫/工作日志.xlsx
+++ b/口袋猫猫/工作日志.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22530" windowHeight="11070" activeTab="2"/>
+    <workbookView windowWidth="22530" windowHeight="11070" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="6.8" sheetId="1" r:id="rId1"/>
     <sheet name="6.9" sheetId="2" r:id="rId2"/>
     <sheet name="6.10" sheetId="3" r:id="rId3"/>
+    <sheet name="6.11" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="31">
   <si>
     <t>程序策划：</t>
   </si>
@@ -97,6 +98,33 @@
   </si>
   <si>
     <t>看上去可以传送的方块(本质是传送门，从一个门传送到另一门)</t>
+  </si>
+  <si>
+    <t>方块消解时 飞向UI的特效</t>
+  </si>
+  <si>
+    <t>体力恢复逻辑</t>
+  </si>
+  <si>
+    <t>关卡设计</t>
+  </si>
+  <si>
+    <t>新的功能方块</t>
+  </si>
+  <si>
+    <t>无尽模式设计，或者先隐藏</t>
+  </si>
+  <si>
+    <t>游戏Icon</t>
+  </si>
+  <si>
+    <t>游戏标题</t>
+  </si>
+  <si>
+    <t>loading界面</t>
+  </si>
+  <si>
+    <t>设置界面</t>
   </si>
 </sst>
 </file>
@@ -1050,7 +1078,7 @@
   <dimension ref="A5:B20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A26" sqref="$A1:$XFD1048576"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
@@ -1213,8 +1241,8 @@
   <sheetPr/>
   <dimension ref="A7:B19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
@@ -1266,4 +1294,79 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A7:A18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="38.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="7" spans="1:1">
+      <c r="A7" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/口袋猫猫/工作日志.xlsx
+++ b/口袋猫猫/工作日志.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="33">
   <si>
     <t>程序策划：</t>
   </si>
@@ -103,6 +103,10 @@
     <t>方块消解时 飞向UI的特效</t>
   </si>
   <si>
+    <t>点击完成目标，场上对应的方块也要抖动
+动画队列阻塞问题</t>
+  </si>
+  <si>
     <t>体力恢复逻辑</t>
   </si>
   <si>
@@ -125,6 +129,9 @@
   </si>
   <si>
     <t>设置界面</t>
+  </si>
+  <si>
+    <t>金币、体力Icon</t>
   </si>
 </sst>
 </file>
@@ -758,10 +765,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1205,7 +1212,7 @@
       <c r="A12" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="3" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1265,7 +1272,7 @@
       <c r="A9" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="4" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1299,15 +1306,16 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A7:A18"/>
+  <dimension ref="A7:B20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="38.375" customWidth="1"/>
+    <col min="2" max="2" width="46" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="7" spans="1:1">
@@ -1315,39 +1323,40 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
-      <c r="A8" t="s">
+    <row r="8" ht="63" customHeight="1" spans="1:2">
+      <c r="A8" s="2" t="s">
         <v>22</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:1">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="1"/>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="1" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1">
-      <c r="A15" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:1">
@@ -1363,6 +1372,16 @@
     <row r="18" spans="1:1">
       <c r="A18" t="s">
         <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/口袋猫猫/工作日志.xlsx
+++ b/口袋猫猫/工作日志.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22530" windowHeight="11070" activeTab="3"/>
+    <workbookView windowWidth="26100" windowHeight="12705" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="6.8" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="34">
   <si>
     <t>程序策划：</t>
   </si>
@@ -108,6 +108,13 @@
   </si>
   <si>
     <t>体力恢复逻辑</t>
+  </si>
+  <si>
+    <t xml:space="preserve">初始30点体力
+5分钟恢复1点
+每次恢复体力，记录恢复时间
+每次启动后，根据当前时间和上一次记录的恢复时间，计算恢复了多少体力，做体力恢复处理，并记录恢复时间
+</t>
   </si>
   <si>
     <t>关卡设计</t>
@@ -755,7 +762,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -766,6 +773,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1272,7 +1282,7 @@
       <c r="A9" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="5" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1309,7 +1319,7 @@
   <dimension ref="A7:B20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
@@ -1331,24 +1341,27 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" ht="136" customHeight="1" spans="1:2">
       <c r="A9" t="s">
         <v>24</v>
       </c>
+      <c r="B9" s="4" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:1">
@@ -1361,27 +1374,27 @@
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/口袋猫猫/工作日志.xlsx
+++ b/口袋猫猫/工作日志.xlsx
@@ -110,11 +110,13 @@
     <t>体力恢复逻辑</t>
   </si>
   <si>
-    <t xml:space="preserve">初始30点体力
+    <t>初始30点体力
 5分钟恢复1点
-每次恢复体力，记录恢复时间
+每次消耗体力，记录体力
+每次获得体力，记录体力
+每次自然时间恢复体力，记录体力以及恢复时间
 每次启动后，根据当前时间和上一次记录的恢复时间，计算恢复了多少体力，做体力恢复处理，并记录恢复时间
-</t>
+切到后台后的体力恢复问题？</t>
   </si>
   <si>
     <t>关卡设计</t>
@@ -1319,13 +1321,13 @@
   <dimension ref="A7:B20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="38.375" customWidth="1"/>
-    <col min="2" max="2" width="46" customWidth="1"/>
+    <col min="2" max="2" width="140.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="7" spans="1:1">

--- a/口袋猫猫/工作日志.xlsx
+++ b/口袋猫猫/工作日志.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="38">
   <si>
     <t>程序策划：</t>
   </si>
@@ -141,6 +141,18 @@
   </si>
   <si>
     <t>金币、体力Icon</t>
+  </si>
+  <si>
+    <t>胜利界面问题</t>
+  </si>
+  <si>
+    <t>胜利界面还需要【返回】按钮，但是没法同时放下3个按钮</t>
+  </si>
+  <si>
+    <t>首页问题</t>
+  </si>
+  <si>
+    <t>需要进入下一关需要消耗的体力，以及关卡的序列</t>
   </si>
 </sst>
 </file>
@@ -764,7 +776,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -775,9 +787,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1284,7 +1293,7 @@
       <c r="A9" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="4" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1318,9 +1327,9 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A7:B20"/>
+  <dimension ref="A7:B22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
@@ -1399,6 +1408,22 @@
         <v>33</v>
       </c>
     </row>
+    <row r="21" ht="84" customHeight="1" spans="1:2">
+      <c r="A21" t="s">
+        <v>34</v>
+      </c>
+      <c r="B21" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" ht="55" customHeight="1" spans="1:2">
+      <c r="A22" t="s">
+        <v>36</v>
+      </c>
+      <c r="B22" t="s">
+        <v>37</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/口袋猫猫/工作日志.xlsx
+++ b/口袋猫猫/工作日志.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="40">
   <si>
     <t>程序策划：</t>
   </si>
@@ -146,13 +146,19 @@
     <t>胜利界面问题</t>
   </si>
   <si>
-    <t>胜利界面还需要【返回】按钮，但是没法同时放下3个按钮</t>
+    <t>重置一个播放广告的按钮</t>
   </si>
   <si>
     <t>首页问题</t>
   </si>
   <si>
     <t>需要进入下一关需要消耗的体力，以及关卡的序列</t>
+  </si>
+  <si>
+    <t>数字图集</t>
+  </si>
+  <si>
+    <t>添加一个/</t>
   </si>
 </sst>
 </file>
@@ -1327,10 +1333,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A7:B22"/>
+  <dimension ref="A7:B23"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
@@ -1353,10 +1359,10 @@
       </c>
     </row>
     <row r="9" ht="136" customHeight="1" spans="1:2">
-      <c r="A9" t="s">
+      <c r="A9" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="3" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1422,6 +1428,14 @@
       </c>
       <c r="B22" t="s">
         <v>37</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>38</v>
+      </c>
+      <c r="B23" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/口袋猫猫/工作日志.xlsx
+++ b/口袋猫猫/工作日志.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="43">
   <si>
     <t>程序策划：</t>
   </si>
@@ -126,6 +126,21 @@
   </si>
   <si>
     <t>无尽模式设计，或者先隐藏</t>
+  </si>
+  <si>
+    <t>无尽模式头脑风暴:
+1.场上每1-2回合会生成石块，直到最后无路可走。关卡有时间限制（能观看广告吗）
+2.场上每1-2回合会生成石块，直到最后无路可走。关卡有步数限制（能观看广告吗）
+3.场上每1-2回合会生成石块，直到最后无路可走。关卡无限制（需要实现对应的结束检测逻辑）
+4.场上每回合1个方块和2个木箱。关卡有时间限制，最终分数看击破了多少木箱</t>
+  </si>
+  <si>
+    <t>消除进阶逻辑</t>
+  </si>
+  <si>
+    <t xml:space="preserve">消除3个同色方块，产生一枚飞弹，推动飞弹可炸毁前进方向接触到的第一个方块（可以炸毁石块吗？）
+消除4个同色方块，在原地产生一枚炸弹，推动炸弹后，炸毁目的地及上下左右共5格的范围内的方块(可以炸毁石块吗？)
+</t>
   </si>
   <si>
     <t>游戏Icon</t>
@@ -782,7 +797,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -793,6 +808,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1299,7 +1317,7 @@
       <c r="A9" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="5" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1336,7 +1354,7 @@
   <dimension ref="A7:B23"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
@@ -1376,9 +1394,20 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
+    <row r="12" ht="126" customHeight="1" spans="1:2">
       <c r="A12" t="s">
         <v>28</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" ht="71" customHeight="1" spans="1:2">
+      <c r="A13" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:1">
@@ -1391,51 +1420,51 @@
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="21" ht="84" customHeight="1" spans="1:2">
       <c r="A21" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B21" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="22" ht="55" customHeight="1" spans="1:2">
       <c r="A22" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B22" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B23" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/口袋猫猫/工作日志.xlsx
+++ b/口袋猫猫/工作日志.xlsx
@@ -4,13 +4,14 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26100" windowHeight="12705" activeTab="3"/>
+    <workbookView windowHeight="17775" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="6.8" sheetId="1" r:id="rId1"/>
     <sheet name="6.9" sheetId="2" r:id="rId2"/>
     <sheet name="6.10" sheetId="3" r:id="rId3"/>
     <sheet name="6.11" sheetId="4" r:id="rId4"/>
+    <sheet name="6.12" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="46">
   <si>
     <t>程序策划：</t>
   </si>
@@ -174,6 +175,15 @@
   </si>
   <si>
     <t>添加一个/</t>
+  </si>
+  <si>
+    <t>无尽模式设计</t>
+  </si>
+  <si>
+    <t>无尽模式结算界面</t>
+  </si>
+  <si>
+    <t>购买道具的二级界面</t>
   </si>
 </sst>
 </file>
@@ -797,23 +807,20 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1239,12 +1246,12 @@
       </c>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="3" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:1">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="3" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1254,10 +1261,10 @@
       </c>
     </row>
     <row r="12" customFormat="1" ht="76" customHeight="1" spans="1:2">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="4" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1267,17 +1274,17 @@
       </c>
     </row>
     <row r="14" customFormat="1" spans="1:1">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:1">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="3" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:1">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="3" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1309,7 +1316,7 @@
       </c>
     </row>
     <row r="8" spans="1:1">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="3" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1317,12 +1324,12 @@
       <c r="A9" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="2" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:1">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="3" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1353,8 +1360,8 @@
   <sheetPr/>
   <dimension ref="A7:B23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12:B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
@@ -1369,18 +1376,18 @@
       </c>
     </row>
     <row r="8" ht="63" customHeight="1" spans="1:2">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="4" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="9" ht="136" customHeight="1" spans="1:2">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="4" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1398,7 +1405,7 @@
       <c r="A12" t="s">
         <v>28</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="2" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1406,7 +1413,7 @@
       <c r="A13" t="s">
         <v>30</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="2" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1465,6 +1472,112 @@
       </c>
       <c r="B23" t="s">
         <v>42</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A9:B34"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="65.5" customWidth="1"/>
+    <col min="2" max="2" width="84.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="9" spans="1:1">
+      <c r="A9" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" ht="187" customHeight="1" spans="1:2">
+      <c r="A10" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" ht="67.5" spans="1:2">
+      <c r="A11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" t="s">
+        <v>37</v>
+      </c>
+      <c r="B30" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" t="s">
+        <v>41</v>
+      </c>
+      <c r="B32" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/口袋猫猫/工作日志.xlsx
+++ b/口袋猫猫/工作日志.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="47">
   <si>
     <t>程序策划：</t>
   </si>
@@ -178,6 +178,9 @@
   </si>
   <si>
     <t>无尽模式设计</t>
+  </si>
+  <si>
+    <t>引导界面</t>
   </si>
   <si>
     <t>无尽模式结算界面</t>
@@ -1486,7 +1489,7 @@
   <dimension ref="A9:B34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
@@ -1500,7 +1503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" ht="187" customHeight="1" spans="1:2">
+    <row r="10" ht="117" customHeight="1" spans="1:2">
       <c r="A10" t="s">
         <v>43</v>
       </c>
@@ -1516,6 +1519,16 @@
         <v>31</v>
       </c>
     </row>
+    <row r="12" spans="1:1">
+      <c r="A12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" t="s">
+        <v>35</v>
+      </c>
+    </row>
     <row r="24" spans="1:1">
       <c r="A24" s="1" t="s">
         <v>6</v>
@@ -1572,12 +1585,12 @@
     </row>
     <row r="33" spans="1:1">
       <c r="A33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/口袋猫猫/工作日志.xlsx
+++ b/口袋猫猫/工作日志.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17775" activeTab="4"/>
+    <workbookView windowWidth="25290" windowHeight="12990" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="6.8" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="50">
   <si>
     <t>程序策划：</t>
   </si>
@@ -180,7 +180,21 @@
     <t>无尽模式设计</t>
   </si>
   <si>
+    <t>无尽解锁条件：通过第10关
+无尽模式头脑风暴:
+1.场上每1-2回合会生成石块，直到最后无路可走。关卡有时间限制（能观看广告吗）
+2.场上每1-2回合会生成石块，直到最后无路可走。关卡有步数限制（能观看广告吗）
+3.场上每1-2回合会生成石块，直到最后无路可走。关卡无限制（需要实现对应的结束检测逻辑）
+4.场上每回合1个方块和2个木箱。关卡有时间限制，最终分数看击破了多少木箱</t>
+  </si>
+  <si>
+    <t>消除进阶逻辑（15关开放）</t>
+  </si>
+  <si>
     <t>引导界面</t>
+  </si>
+  <si>
+    <t>飞弹、炸弹方块</t>
   </si>
   <si>
     <t>无尽模式结算界面</t>
@@ -360,7 +374,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -369,12 +383,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -460,12 +486,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -686,7 +706,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -710,16 +730,16 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -728,89 +748,89 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -824,6 +844,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1249,12 +1278,12 @@
       </c>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:1">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="5" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1264,10 +1293,10 @@
       </c>
     </row>
     <row r="12" customFormat="1" ht="76" customHeight="1" spans="1:2">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="7" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1277,17 +1306,17 @@
       </c>
     </row>
     <row r="14" customFormat="1" spans="1:1">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="5" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:1">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="5" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:1">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="5" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1319,7 +1348,7 @@
       </c>
     </row>
     <row r="8" spans="1:1">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="5" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1332,7 +1361,7 @@
       </c>
     </row>
     <row r="10" spans="1:1">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="5" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1379,18 +1408,18 @@
       </c>
     </row>
     <row r="8" ht="63" customHeight="1" spans="1:2">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="7" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="9" ht="136" customHeight="1" spans="1:2">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="7" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1486,10 +1515,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A9:B34"/>
+  <dimension ref="A9:B35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
@@ -1508,24 +1537,24 @@
         <v>43</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" ht="67.5" spans="1:2">
-      <c r="A11" t="s">
-        <v>30</v>
-      </c>
-      <c r="B11" s="2" t="s">
+      <c r="A11" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:1">
-      <c r="A12" t="s">
-        <v>44</v>
+      <c r="A12" s="5" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:1">
-      <c r="A13" t="s">
+      <c r="A13" s="6" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1559,38 +1588,43 @@
         <v>36</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30" spans="1:1">
       <c r="A30" t="s">
-        <v>37</v>
-      </c>
-      <c r="B30" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B31" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
+        <v>39</v>
+      </c>
+      <c r="B32" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" t="s">
         <v>41</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B33" t="s">
         <v>42</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1">
-      <c r="A33" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" t="s">
-        <v>46</v>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/口袋猫猫/工作日志.xlsx
+++ b/口袋猫猫/工作日志.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25290" windowHeight="12990" activeTab="4"/>
+    <workbookView windowWidth="27810" windowHeight="12990" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="6.8" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="51">
   <si>
     <t>程序策划：</t>
   </si>
@@ -192,6 +192,9 @@
   </si>
   <si>
     <t>引导界面</t>
+  </si>
+  <si>
+    <t>木箱产生的方块有bug</t>
   </si>
   <si>
     <t>飞弹、炸弹方块</t>
@@ -1518,7 +1521,7 @@
   <dimension ref="A9:B35"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
@@ -1558,6 +1561,11 @@
         <v>35</v>
       </c>
     </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
     <row r="24" spans="1:1">
       <c r="A24" s="1" t="s">
         <v>6</v>
@@ -1590,7 +1598,7 @@
     </row>
     <row r="30" spans="1:1">
       <c r="A30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -1619,12 +1627,12 @@
     </row>
     <row r="34" spans="1:1">
       <c r="A34" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/口袋猫猫/工作日志.xlsx
+++ b/口袋猫猫/工作日志.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27810" windowHeight="12990" activeTab="4"/>
+    <workbookView windowWidth="27810" windowHeight="12990" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="6.8" sheetId="1" r:id="rId1"/>
@@ -12,6 +12,7 @@
     <sheet name="6.10" sheetId="3" r:id="rId3"/>
     <sheet name="6.11" sheetId="4" r:id="rId4"/>
     <sheet name="6.12" sheetId="5" r:id="rId5"/>
+    <sheet name="6.13" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="52">
   <si>
     <t>程序策划：</t>
   </si>
@@ -195,6 +196,9 @@
   </si>
   <si>
     <t>木箱产生的方块有bug</t>
+  </si>
+  <si>
+    <t>飞弹炸木箱，疑似又有card =null的问题</t>
   </si>
   <si>
     <t>飞弹、炸弹方块</t>
@@ -386,13 +390,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -796,7 +800,7 @@
     <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -840,22 +844,22 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1281,12 +1285,12 @@
       </c>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:1">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="2" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1296,7 +1300,7 @@
       </c>
     </row>
     <row r="12" customFormat="1" ht="76" customHeight="1" spans="1:2">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B12" s="7" t="s">
@@ -1309,17 +1313,17 @@
       </c>
     </row>
     <row r="14" customFormat="1" spans="1:1">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:1">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="2" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:1">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="2" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1351,7 +1355,7 @@
       </c>
     </row>
     <row r="8" spans="1:1">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="2" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1359,12 +1363,12 @@
       <c r="A9" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="3" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:1">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="2" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1411,7 +1415,7 @@
       </c>
     </row>
     <row r="8" ht="63" customHeight="1" spans="1:2">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B8" s="7" t="s">
@@ -1419,7 +1423,7 @@
       </c>
     </row>
     <row r="9" ht="136" customHeight="1" spans="1:2">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B9" s="7" t="s">
@@ -1440,7 +1444,7 @@
       <c r="A12" t="s">
         <v>28</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="3" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1448,7 +1452,7 @@
       <c r="A13" t="s">
         <v>30</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="3" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1520,8 +1524,8 @@
   <sheetPr/>
   <dimension ref="A9:B35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
@@ -1539,20 +1543,20 @@
       <c r="A10" t="s">
         <v>43</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="3" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="11" ht="67.5" spans="1:2">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="5" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:1">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="2" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1562,8 +1566,13 @@
       </c>
     </row>
     <row r="14" spans="1:1">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="2" t="s">
         <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="24" spans="1:1">
@@ -1598,7 +1607,7 @@
     </row>
     <row r="30" spans="1:1">
       <c r="A30" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -1627,12 +1636,120 @@
     </row>
     <row r="34" spans="1:1">
       <c r="A34" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" t="s">
+        <v>51</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A8:B37"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="94" customWidth="1"/>
+    <col min="2" max="2" width="69.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="8" spans="1:1">
+      <c r="A8" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" ht="123" customHeight="1" spans="1:2">
+      <c r="A10" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" t="s">
+        <v>37</v>
+      </c>
+      <c r="B33" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" t="s">
+        <v>39</v>
+      </c>
+      <c r="B34" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" t="s">
+        <v>41</v>
+      </c>
+      <c r="B35" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" t="s">
         <v>50</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/口袋猫猫/工作日志.xlsx
+++ b/口袋猫猫/工作日志.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27810" windowHeight="12990" activeTab="5"/>
+    <workbookView windowWidth="27810" windowHeight="14190" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="6.8" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="66">
   <si>
     <t>程序策划：</t>
   </si>
@@ -145,19 +145,25 @@
 </t>
   </si>
   <si>
+    <t>游戏标题</t>
+  </si>
+  <si>
+    <t>loading界面</t>
+  </si>
+  <si>
+    <t>金币、体力Icon</t>
+  </si>
+  <si>
+    <t>道具按钮及对应二级弹窗</t>
+  </si>
+  <si>
     <t>游戏Icon</t>
   </si>
   <si>
-    <t>游戏标题</t>
-  </si>
-  <si>
-    <t>loading界面</t>
+    <t>无尽模式结算界面</t>
   </si>
   <si>
     <t>设置界面</t>
-  </si>
-  <si>
-    <t>金币、体力Icon</t>
   </si>
   <si>
     <t>胜利界面问题</t>
@@ -204,10 +210,58 @@
     <t>飞弹、炸弹方块</t>
   </si>
   <si>
-    <t>无尽模式结算界面</t>
-  </si>
-  <si>
     <t>购买道具的二级界面</t>
+  </si>
+  <si>
+    <t>关卡调整</t>
+  </si>
+  <si>
+    <t xml:space="preserve">移除14关
+15=》11
+16-》12
+17-》13
+11-》14
+12-》15
+13-》16
+18-》17
+19-》18
+</t>
+  </si>
+  <si>
+    <t>设计19、20关</t>
+  </si>
+  <si>
+    <t>传送门需要有一个指示，让玩家知道对应的门是哪一个</t>
+  </si>
+  <si>
+    <t>时间方块</t>
+  </si>
+  <si>
+    <t>关卡有时间限制，每次消除时间方块，可以增加关卡的时间</t>
+  </si>
+  <si>
+    <t>可以与任何方块相邻并消除</t>
+  </si>
+  <si>
+    <t>功能按钮及对应二级界面</t>
+  </si>
+  <si>
+    <t>二级界面介绍此按钮的功能
+玩家可以花费金币或看广告来使用此功能</t>
+  </si>
+  <si>
+    <t>重置一个播放广告的按钮
+金币、体力Icon</t>
+  </si>
+  <si>
+    <t>新玩法介绍界面</t>
+  </si>
+  <si>
+    <t>新玩法开放时，比如多个合成产生炸弹
+传送门等玩法，需要有个二级界面来介绍以下</t>
+  </si>
+  <si>
+    <t>表情包重新导出尺寸并去掉脸部背景</t>
   </si>
 </sst>
 </file>
@@ -837,7 +891,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -846,6 +900,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1303,7 +1363,7 @@
       <c r="A12" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="9" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1397,10 +1457,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A7:B23"/>
+  <dimension ref="A7:B26"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:B13"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15:B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
@@ -1418,7 +1478,7 @@
       <c r="A8" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="9" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1426,7 +1486,7 @@
       <c r="A9" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="9" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1489,28 +1549,38 @@
         <v>36</v>
       </c>
     </row>
-    <row r="21" ht="84" customHeight="1" spans="1:2">
+    <row r="21" spans="1:1">
       <c r="A21" t="s">
         <v>37</v>
       </c>
-      <c r="B21" t="s">
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="22" ht="55" customHeight="1" spans="1:2">
-      <c r="A22" t="s">
+    <row r="24" ht="84" customHeight="1" spans="1:2">
+      <c r="A24" t="s">
         <v>39</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B24" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
-      <c r="A23" t="s">
+    <row r="25" ht="55" customHeight="1" spans="1:2">
+      <c r="A25" t="s">
         <v>41</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B25" t="s">
         <v>42</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
+        <v>43</v>
+      </c>
+      <c r="B26" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -1541,38 +1611,38 @@
     </row>
     <row r="10" ht="117" customHeight="1" spans="1:2">
       <c r="A10" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" ht="67.5" spans="1:2">
-      <c r="A11" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="B11" s="5" t="s">
+      <c r="A11" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" s="7" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:1">
-      <c r="A13" s="6" t="s">
-        <v>35</v>
+      <c r="A13" s="8" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24" spans="1:1">
@@ -1582,66 +1652,66 @@
     </row>
     <row r="25" spans="1:1">
       <c r="A25" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B31" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B32" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B33" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -1653,7 +1723,7 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A8:B37"/>
+  <dimension ref="A8:B32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
@@ -1661,7 +1731,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="94" customWidth="1"/>
+    <col min="1" max="1" width="58.125" customWidth="1"/>
     <col min="2" max="2" width="69.875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1672,84 +1742,129 @@
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="10" ht="123" customHeight="1" spans="1:2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" ht="204" customHeight="1" spans="1:2">
       <c r="A10" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" ht="103" customHeight="1" spans="1:2">
+      <c r="A11" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12" ht="38" customHeight="1" spans="1:1">
+      <c r="A12" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="14" ht="49" customHeight="1" spans="1:2">
+      <c r="A14" t="s">
+        <v>57</v>
+      </c>
+      <c r="B14" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="15" ht="61" customHeight="1" spans="1:2">
+      <c r="A15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="26" ht="38" customHeight="1" spans="1:2">
+      <c r="A26" t="s">
+        <v>60</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="27" ht="54" customHeight="1" spans="1:2">
+      <c r="A27" t="s">
+        <v>39</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="28" ht="26" customHeight="1" spans="1:2">
+      <c r="A28" t="s">
+        <v>41</v>
+      </c>
+      <c r="B28" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="29" ht="42" customHeight="1" spans="1:2">
+      <c r="A29" t="s">
         <v>43</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B29" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
-      <c r="A26" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1">
-      <c r="A27" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1">
-      <c r="A28" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1">
-      <c r="A29" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1">
+    <row r="30" ht="27" spans="1:2">
       <c r="A30" t="s">
-        <v>35</v>
+        <v>63</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" t="s">
-        <v>37</v>
-      </c>
-      <c r="B33" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34" t="s">
-        <v>39</v>
-      </c>
-      <c r="B34" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="A35" t="s">
-        <v>41</v>
-      </c>
-      <c r="B35" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1">
-      <c r="A36" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1">
-      <c r="A37" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>

--- a/口袋猫猫/工作日志.xlsx
+++ b/口袋猫猫/工作日志.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="67">
   <si>
     <t>程序策划：</t>
   </si>
@@ -262,6 +262,9 @@
   </si>
   <si>
     <t>表情包重新导出尺寸并去掉脸部背景</t>
+  </si>
+  <si>
+    <t>无尽二级弹窗，介绍无尽的规则</t>
   </si>
 </sst>
 </file>
@@ -1723,10 +1726,10 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A8:B32"/>
+  <dimension ref="A8:B33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
@@ -1740,12 +1743,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" ht="36" customHeight="1" spans="1:1">
       <c r="A9" s="2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="10" ht="204" customHeight="1" spans="1:2">
+    <row r="10" ht="155" customHeight="1" spans="1:2">
       <c r="A10" t="s">
         <v>45</v>
       </c>
@@ -1865,6 +1868,11 @@
     <row r="32" spans="1:1">
       <c r="A32" t="s">
         <v>65</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>

--- a/口袋猫猫/工作日志.xlsx
+++ b/口袋猫猫/工作日志.xlsx
@@ -4,15 +4,17 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27810" windowHeight="14190" activeTab="5"/>
+    <workbookView windowWidth="27810" windowHeight="14190" activeTab="7"/>
   </bookViews>
   <sheets>
-    <sheet name="6.8" sheetId="1" r:id="rId1"/>
-    <sheet name="6.9" sheetId="2" r:id="rId2"/>
-    <sheet name="6.10" sheetId="3" r:id="rId3"/>
-    <sheet name="6.11" sheetId="4" r:id="rId4"/>
-    <sheet name="6.12" sheetId="5" r:id="rId5"/>
-    <sheet name="6.13" sheetId="6" r:id="rId6"/>
+    <sheet name="方块设计" sheetId="8" r:id="rId1"/>
+    <sheet name="无尽模式设计" sheetId="7" r:id="rId2"/>
+    <sheet name="6.8" sheetId="1" r:id="rId3"/>
+    <sheet name="6.9" sheetId="2" r:id="rId4"/>
+    <sheet name="6.10" sheetId="3" r:id="rId5"/>
+    <sheet name="6.11" sheetId="4" r:id="rId6"/>
+    <sheet name="6.12" sheetId="5" r:id="rId7"/>
+    <sheet name="6.13" sheetId="6" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +34,30 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="68">
+  <si>
+    <t>时间方块</t>
+  </si>
+  <si>
+    <t>关卡有时间限制，每次消除时间方块，可以增加关卡的时间</t>
+  </si>
+  <si>
+    <t>彩色方块</t>
+  </si>
+  <si>
+    <t>可以与任何方块相邻并消除</t>
+  </si>
+  <si>
+    <t>无尽模式</t>
+  </si>
+  <si>
+    <t>无尽解锁条件：通过第10关
+无尽模式头脑风暴:
+1.场上每1-2回合会生成石块，直到最后无路可走。关卡有时间限制（能观看广告吗）
+2.场上每1-2回合会生成石块，直到最后无路可走。关卡有步数限制（能观看广告吗）
+3.场上每1-2回合会生成石块，直到最后无路可走。关卡无限制（需要实现对应的结束检测逻辑）
+4.场上每回合1个方块和2个木箱。关卡有时间限制，最终分数看击破了多少木箱</t>
+  </si>
   <si>
     <t>程序策划：</t>
   </si>
@@ -78,9 +103,6 @@
   <si>
     <t>需要展示金币、体力、闯关模式、无尽模式(排名模式)、设置
 排行榜、每日任务、签到奖励</t>
-  </si>
-  <si>
-    <t>彩色方块</t>
   </si>
   <si>
     <t>倒计时UI</t>
@@ -185,14 +207,6 @@
   </si>
   <si>
     <t>无尽模式设计</t>
-  </si>
-  <si>
-    <t>无尽解锁条件：通过第10关
-无尽模式头脑风暴:
-1.场上每1-2回合会生成石块，直到最后无路可走。关卡有时间限制（能观看广告吗）
-2.场上每1-2回合会生成石块，直到最后无路可走。关卡有步数限制（能观看广告吗）
-3.场上每1-2回合会生成石块，直到最后无路可走。关卡无限制（需要实现对应的结束检测逻辑）
-4.场上每回合1个方块和2个木箱。关卡有时间限制，最终分数看击破了多少木箱</t>
   </si>
   <si>
     <t>消除进阶逻辑（15关开放）</t>
@@ -232,15 +246,6 @@
   </si>
   <si>
     <t>传送门需要有一个指示，让玩家知道对应的门是哪一个</t>
-  </si>
-  <si>
-    <t>时间方块</t>
-  </si>
-  <si>
-    <t>关卡有时间限制，每次消除时间方块，可以增加关卡的时间</t>
-  </si>
-  <si>
-    <t>可以与任何方块相邻并消除</t>
   </si>
   <si>
     <t>功能按钮及对应二级界面</t>
@@ -894,7 +899,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -903,16 +908,13 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
@@ -921,9 +923,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1236,6 +1235,72 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
+  <dimension ref="C9:D10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <cols>
+    <col min="3" max="3" width="23.875" customWidth="1"/>
+    <col min="4" max="4" width="38.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="9" spans="3:4">
+      <c r="C9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D9" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="3:4">
+      <c r="C10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="B6:C6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="2"/>
+  <cols>
+    <col min="2" max="2" width="28.875" customWidth="1"/>
+    <col min="3" max="3" width="69.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="6" ht="409.5" spans="2:3">
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A5:B20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1250,12 +1315,12 @@
   <sheetData>
     <row r="5" spans="1:1">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -1263,7 +1328,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -1271,7 +1336,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -1279,7 +1344,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -1287,32 +1352,32 @@
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="1" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -1322,7 +1387,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A5:B16"/>
@@ -1339,55 +1404,55 @@
   <sheetData>
     <row r="5" customFormat="1" spans="1:1">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" customFormat="1" spans="1:1">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="2" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="2" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" customFormat="1" spans="1:1">
       <c r="A11" s="1" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" customFormat="1" ht="76" customHeight="1" spans="1:2">
       <c r="A12" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="13" customFormat="1" spans="1:1">
       <c r="A13" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" customFormat="1" spans="1:1">
       <c r="A14" s="2" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="2" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="2" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -1397,7 +1462,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A7:B19"/>
@@ -1414,40 +1479,40 @@
   <sheetData>
     <row r="7" spans="1:1">
       <c r="A7" s="1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="2" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" ht="70" customHeight="1" spans="1:2">
       <c r="A9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="2" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="1" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -1457,7 +1522,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A7:B26"/>
@@ -1474,49 +1539,49 @@
   <sheetData>
     <row r="7" spans="1:1">
       <c r="A7" s="1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" ht="63" customHeight="1" spans="1:2">
       <c r="A8" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>23</v>
+        <v>27</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="9" ht="136" customHeight="1" spans="1:2">
       <c r="A9" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>25</v>
+        <v>29</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" ht="126" customHeight="1" spans="1:2">
       <c r="A12" t="s">
-        <v>28</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>29</v>
+        <v>33</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="13" ht="71" customHeight="1" spans="1:2">
       <c r="A13" t="s">
-        <v>30</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>31</v>
+        <v>35</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:1">
@@ -1524,66 +1589,66 @@
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="1" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="24" ht="84" customHeight="1" spans="1:2">
       <c r="A24" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B24" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="25" ht="55" customHeight="1" spans="1:2">
       <c r="A25" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B25" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B26" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -1592,7 +1657,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A9:B35"/>
@@ -1609,112 +1674,112 @@
   <sheetData>
     <row r="9" spans="1:1">
       <c r="A9" s="1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" ht="117" customHeight="1" spans="1:2">
       <c r="A10" t="s">
-        <v>45</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>46</v>
+        <v>50</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="11" ht="67.5" spans="1:2">
-      <c r="A11" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>31</v>
+      <c r="A11" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="2" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:1">
-      <c r="A13" s="8" t="s">
-        <v>38</v>
+      <c r="A13" s="7" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="2" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" s="1" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B31" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B32" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B33" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -1723,13 +1788,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A8:B33"/>
+  <dimension ref="A8:B30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
@@ -1740,139 +1805,115 @@
   <sheetData>
     <row r="8" spans="1:1">
       <c r="A8" s="1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" ht="36" customHeight="1" spans="1:1">
       <c r="A9" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="10" ht="155" customHeight="1" spans="1:2">
-      <c r="A10" t="s">
-        <v>45</v>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10" ht="103" customHeight="1" spans="1:2">
+      <c r="A10" s="2" t="s">
+        <v>57</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="11" ht="103" customHeight="1" spans="1:2">
-      <c r="A11" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="12" ht="38" customHeight="1" spans="1:1">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" ht="38" customHeight="1" spans="1:1">
+      <c r="A11" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
       <c r="A12" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" t="s">
         <v>55</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1">
-      <c r="A13" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="14" ht="49" customHeight="1" spans="1:2">
-      <c r="A14" t="s">
-        <v>57</v>
-      </c>
-      <c r="B14" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="15" ht="61" customHeight="1" spans="1:2">
-      <c r="A15" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19" s="1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" ht="38" customHeight="1" spans="1:2">
       <c r="A23" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1">
+        <v>61</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="24" ht="54" customHeight="1" spans="1:2">
       <c r="A24" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1">
+        <v>44</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="25" ht="26" customHeight="1" spans="1:2">
       <c r="A25" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="26" ht="38" customHeight="1" spans="1:2">
+        <v>46</v>
+      </c>
+      <c r="B25" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="26" ht="42" customHeight="1" spans="1:2">
       <c r="A26" t="s">
-        <v>60</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="27" ht="54" customHeight="1" spans="1:2">
+        <v>48</v>
+      </c>
+      <c r="B26" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="27" ht="27" spans="1:2">
       <c r="A27" t="s">
-        <v>39</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="28" ht="26" customHeight="1" spans="1:2">
+        <v>64</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
       <c r="A28" t="s">
-        <v>41</v>
-      </c>
-      <c r="B28" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="29" ht="42" customHeight="1" spans="1:2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
       <c r="A29" t="s">
-        <v>43</v>
-      </c>
-      <c r="B29" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="30" ht="27" spans="1:2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
       <c r="A30" t="s">
-        <v>63</v>
-      </c>
-      <c r="B30" s="5" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1">
-      <c r="A31" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1">
-      <c r="A32" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1">
-      <c r="A33" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>

--- a/口袋猫猫/工作日志.xlsx
+++ b/口袋猫猫/工作日志.xlsx
@@ -4,10 +4,10 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27810" windowHeight="14190" activeTab="7"/>
+    <workbookView windowHeight="17775"/>
   </bookViews>
   <sheets>
-    <sheet name="方块设计" sheetId="8" r:id="rId1"/>
+    <sheet name="玩法设计" sheetId="8" r:id="rId1"/>
     <sheet name="无尽模式设计" sheetId="7" r:id="rId2"/>
     <sheet name="6.8" sheetId="1" r:id="rId3"/>
     <sheet name="6.9" sheetId="2" r:id="rId4"/>
@@ -15,6 +15,7 @@
     <sheet name="6.11" sheetId="4" r:id="rId6"/>
     <sheet name="6.12" sheetId="5" r:id="rId7"/>
     <sheet name="6.13" sheetId="6" r:id="rId8"/>
+    <sheet name="6.14" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="78">
+  <si>
+    <t>方块设计：</t>
+  </si>
   <si>
     <t>时间方块</t>
   </si>
@@ -45,7 +49,34 @@
     <t>彩色方块</t>
   </si>
   <si>
-    <t>可以与任何方块相邻并消除</t>
+    <t>给场上所有方块随机换个颜色</t>
+  </si>
+  <si>
+    <t>引爆方块</t>
+  </si>
+  <si>
+    <t>引爆场上某个颜色的所有方块</t>
+  </si>
+  <si>
+    <t>玩法设计：</t>
+  </si>
+  <si>
+    <t>场景旋转</t>
+  </si>
+  <si>
+    <t>旋转后场上的方块受到重力影响</t>
+  </si>
+  <si>
+    <t>暂停格子</t>
+  </si>
+  <si>
+    <t>前进时遇到此格子则停留</t>
+  </si>
+  <si>
+    <t>天寒地冻</t>
+  </si>
+  <si>
+    <t>每次方块只能移动一个格子</t>
   </si>
   <si>
     <t>无尽模式</t>
@@ -282,7 +313,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -297,6 +328,18 @@
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="方正粗黑宋简体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="方正粗黑宋简体"/>
+      <charset val="134"/>
     </font>
     <font>
       <u/>
@@ -769,142 +812,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
@@ -912,9 +958,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
@@ -922,6 +965,12 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1235,10 +1284,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C9:D10"/>
+  <dimension ref="C8:D22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1247,20 +1296,62 @@
     <col min="4" max="4" width="38.125" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="8" ht="27" spans="3:3">
+      <c r="C8" s="8" t="s">
+        <v>0</v>
+      </c>
+    </row>
     <row r="9" spans="3:4">
       <c r="C9" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="3:4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" ht="48" customHeight="1" spans="3:4">
       <c r="C10" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D10" t="s">
-        <v>3</v>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="3:4">
+      <c r="C11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" ht="24" spans="3:3">
+      <c r="C19" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" ht="75" customHeight="1" spans="3:4">
+      <c r="C20" t="s">
+        <v>8</v>
+      </c>
+      <c r="D20" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" ht="91" customHeight="1" spans="3:4">
+      <c r="C21" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" ht="80" customHeight="1" spans="3:4">
+      <c r="C22" t="s">
+        <v>12</v>
+      </c>
+      <c r="D22" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -1284,12 +1375,12 @@
     <col min="3" max="3" width="69.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" ht="409.5" spans="2:3">
+    <row r="6" ht="135" spans="2:3">
       <c r="B6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>5</v>
+        <v>14</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -1315,12 +1406,12 @@
   <sheetData>
     <row r="5" spans="1:1">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -1328,7 +1419,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -1336,7 +1427,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -1344,7 +1435,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -1352,32 +1443,32 @@
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="1" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -1404,55 +1495,55 @@
   <sheetData>
     <row r="5" customFormat="1" spans="1:1">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" customFormat="1" spans="1:1">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7" s="2" t="s">
-        <v>18</v>
+      <c r="A7" s="3" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:1">
-      <c r="A8" s="2" t="s">
-        <v>19</v>
+      <c r="A8" s="3" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="11" customFormat="1" spans="1:1">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" customFormat="1" ht="76" customHeight="1" spans="1:2">
-      <c r="A12" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>20</v>
+      <c r="A12" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="13" customFormat="1" spans="1:1">
       <c r="A13" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" customFormat="1" spans="1:1">
-      <c r="A14" s="2" t="s">
-        <v>2</v>
+      <c r="A14" s="3" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:1">
-      <c r="A15" s="2" t="s">
-        <v>21</v>
+      <c r="A15" s="3" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:1">
-      <c r="A16" s="2" t="s">
-        <v>22</v>
+      <c r="A16" s="3" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -1479,40 +1570,40 @@
   <sheetData>
     <row r="7" spans="1:1">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:1">
-      <c r="A8" s="2" t="s">
-        <v>23</v>
+      <c r="A8" s="3" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="9" ht="70" customHeight="1" spans="1:2">
       <c r="A9" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>24</v>
+        <v>27</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:1">
-      <c r="A10" s="2" t="s">
-        <v>25</v>
+      <c r="A10" s="3" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="1" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -1539,49 +1630,49 @@
   <sheetData>
     <row r="7" spans="1:1">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" ht="63" customHeight="1" spans="1:2">
-      <c r="A8" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>28</v>
+      <c r="A8" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="9" ht="136" customHeight="1" spans="1:2">
-      <c r="A9" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>30</v>
+      <c r="A9" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" ht="126" customHeight="1" spans="1:2">
       <c r="A12" t="s">
-        <v>33</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>34</v>
+        <v>43</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="13" ht="71" customHeight="1" spans="1:2">
       <c r="A13" t="s">
-        <v>35</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>36</v>
+        <v>45</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:1">
@@ -1589,66 +1680,66 @@
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="1" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
     </row>
     <row r="24" ht="84" customHeight="1" spans="1:2">
       <c r="A24" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="B24" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
     </row>
     <row r="25" ht="55" customHeight="1" spans="1:2">
       <c r="A25" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="B25" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="B26" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -1674,112 +1765,112 @@
   <sheetData>
     <row r="9" spans="1:1">
       <c r="A9" s="1" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" ht="117" customHeight="1" spans="1:2">
       <c r="A10" t="s">
-        <v>50</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>5</v>
+        <v>60</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="11" ht="67.5" spans="1:2">
       <c r="A11" s="5" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:1">
-      <c r="A12" s="2" t="s">
-        <v>52</v>
+      <c r="A12" s="3" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="7" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
     </row>
     <row r="14" spans="1:1">
-      <c r="A14" s="2" t="s">
-        <v>53</v>
+      <c r="A14" s="3" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" s="1" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="B31" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="B32" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="B33" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -1793,8 +1884,8 @@
   <sheetPr/>
   <dimension ref="A8:B30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16:B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
@@ -1805,115 +1896,231 @@
   <sheetData>
     <row r="8" spans="1:1">
       <c r="A8" s="1" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" ht="36" customHeight="1" spans="1:1">
-      <c r="A9" s="2" t="s">
-        <v>54</v>
+      <c r="A9" s="3" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="10" ht="103" customHeight="1" spans="1:2">
-      <c r="A10" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>58</v>
+      <c r="A10" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="11" ht="38" customHeight="1" spans="1:1">
       <c r="A11" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="1" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
     </row>
     <row r="23" ht="38" customHeight="1" spans="1:2">
       <c r="A23" t="s">
-        <v>61</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>62</v>
+        <v>71</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="24" ht="54" customHeight="1" spans="1:2">
       <c r="A24" t="s">
-        <v>44</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>63</v>
+        <v>54</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="25" ht="26" customHeight="1" spans="1:2">
       <c r="A25" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="B25" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
     </row>
     <row r="26" ht="42" customHeight="1" spans="1:2">
       <c r="A26" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="B26" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
     </row>
     <row r="27" ht="27" spans="1:2">
       <c r="A27" t="s">
-        <v>64</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>65</v>
+        <v>74</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" t="s">
-        <v>67</v>
+        <v>77</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="B9:C31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
+  <cols>
+    <col min="2" max="2" width="44.125" customWidth="1"/>
+    <col min="3" max="3" width="79" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="9" spans="2:2">
+      <c r="B9" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" ht="74" customHeight="1" spans="2:2">
+      <c r="B10" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="11" ht="91" customHeight="1" spans="2:2">
+      <c r="B11" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2">
+      <c r="B19" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2">
+      <c r="B20" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2">
+      <c r="B21" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2">
+      <c r="B22" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2">
+      <c r="B23" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="24" ht="108" spans="2:3">
+      <c r="B24" t="s">
+        <v>71</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="25" ht="67.5" spans="2:3">
+      <c r="B25" t="s">
+        <v>54</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3">
+      <c r="B26" t="s">
+        <v>56</v>
+      </c>
+      <c r="C26" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3">
+      <c r="B27" t="s">
+        <v>58</v>
+      </c>
+      <c r="C27" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="28" ht="135" spans="2:3">
+      <c r="B28" t="s">
+        <v>74</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2">
+      <c r="B29" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2">
+      <c r="B30" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2">
+      <c r="B31" t="s">
+        <v>77</v>
       </c>
     </row>
   </sheetData>

--- a/口袋猫猫/工作日志.xlsx
+++ b/口袋猫猫/工作日志.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17775"/>
+    <workbookView windowWidth="28530" windowHeight="15945" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="玩法设计" sheetId="8" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="79">
   <si>
     <t>方块设计：</t>
   </si>
@@ -301,6 +301,12 @@
   </si>
   <si>
     <t>无尽二级弹窗，介绍无尽的规则</t>
+  </si>
+  <si>
+    <t xml:space="preserve">新玩法开放时，比如多个合成产生炸弹
+传送门等玩法，需要有个二级界面来介绍以下
+无尽二级弹窗，介绍无尽的规则
+</t>
   </si>
 </sst>
 </file>
@@ -949,11 +955,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1286,7 +1292,7 @@
   <sheetPr/>
   <dimension ref="C8:D22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
@@ -1379,7 +1385,7 @@
       <c r="B6" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="3" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1504,12 +1510,12 @@
       </c>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="2" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:1">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="2" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1519,7 +1525,7 @@
       </c>
     </row>
     <row r="12" customFormat="1" ht="76" customHeight="1" spans="1:2">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B12" s="4" t="s">
@@ -1532,17 +1538,17 @@
       </c>
     </row>
     <row r="14" customFormat="1" spans="1:1">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:1">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="2" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:1">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="2" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1574,7 +1580,7 @@
       </c>
     </row>
     <row r="8" spans="1:1">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="2" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1582,12 +1588,12 @@
       <c r="A9" t="s">
         <v>27</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="3" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:1">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="2" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1634,7 +1640,7 @@
       </c>
     </row>
     <row r="8" ht="63" customHeight="1" spans="1:2">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="2" t="s">
         <v>37</v>
       </c>
       <c r="B8" s="4" t="s">
@@ -1642,7 +1648,7 @@
       </c>
     </row>
     <row r="9" ht="136" customHeight="1" spans="1:2">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="2" t="s">
         <v>39</v>
       </c>
       <c r="B9" s="4" t="s">
@@ -1663,7 +1669,7 @@
       <c r="A12" t="s">
         <v>43</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="3" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1671,7 +1677,7 @@
       <c r="A13" t="s">
         <v>45</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="3" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1772,7 +1778,7 @@
       <c r="A10" t="s">
         <v>60</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="3" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1785,7 +1791,7 @@
       </c>
     </row>
     <row r="12" spans="1:1">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="2" t="s">
         <v>62</v>
       </c>
     </row>
@@ -1795,7 +1801,7 @@
       </c>
     </row>
     <row r="14" spans="1:1">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="2" t="s">
         <v>63</v>
       </c>
     </row>
@@ -1900,12 +1906,12 @@
       </c>
     </row>
     <row r="9" ht="36" customHeight="1" spans="1:1">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="2" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="10" ht="103" customHeight="1" spans="1:2">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="2" t="s">
         <v>67</v>
       </c>
       <c r="B10" s="4" t="s">
@@ -1956,7 +1962,7 @@
       <c r="A23" t="s">
         <v>71</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="3" t="s">
         <v>72</v>
       </c>
     </row>
@@ -1964,7 +1970,7 @@
       <c r="A24" t="s">
         <v>54</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="3" t="s">
         <v>73</v>
       </c>
     </row>
@@ -1988,7 +1994,7 @@
       <c r="A27" t="s">
         <v>74</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B27" s="3" t="s">
         <v>75</v>
       </c>
     </row>
@@ -2016,15 +2022,15 @@
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B9:C31"/>
+  <dimension ref="B9:C30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
   <cols>
-    <col min="2" max="2" width="44.125" customWidth="1"/>
+    <col min="2" max="2" width="57.875" customWidth="1"/>
     <col min="3" max="3" width="79" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2039,7 +2045,7 @@
       </c>
     </row>
     <row r="11" ht="91" customHeight="1" spans="2:2">
-      <c r="B11" t="s">
+      <c r="B11" s="2" t="s">
         <v>70</v>
       </c>
     </row>
@@ -2049,7 +2055,7 @@
       </c>
     </row>
     <row r="20" spans="2:2">
-      <c r="B20" t="s">
+      <c r="B20" s="2" t="s">
         <v>48</v>
       </c>
     </row>
@@ -2063,24 +2069,24 @@
         <v>51</v>
       </c>
     </row>
-    <row r="23" spans="2:2">
-      <c r="B23" t="s">
+    <row r="23" ht="34" customHeight="1" spans="2:2">
+      <c r="B23" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="24" ht="108" spans="2:3">
+    <row r="24" ht="49" customHeight="1" spans="2:3">
       <c r="B24" t="s">
         <v>71</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C24" s="3" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="25" ht="67.5" spans="2:3">
+    <row r="25" ht="27" spans="2:3">
       <c r="B25" t="s">
         <v>54</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C25" s="3" t="s">
         <v>73</v>
       </c>
     </row>
@@ -2100,12 +2106,12 @@
         <v>59</v>
       </c>
     </row>
-    <row r="28" ht="135" spans="2:3">
+    <row r="28" ht="54" spans="2:3">
       <c r="B28" t="s">
         <v>74</v>
       </c>
-      <c r="C28" s="2" t="s">
-        <v>75</v>
+      <c r="C28" s="3" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="29" spans="2:2">
@@ -2116,11 +2122,6 @@
     <row r="30" spans="2:2">
       <c r="B30" t="s">
         <v>76</v>
-      </c>
-    </row>
-    <row r="31" spans="2:2">
-      <c r="B31" t="s">
-        <v>77</v>
       </c>
     </row>
   </sheetData>

--- a/口袋猫猫/工作日志.xlsx
+++ b/口袋猫猫/工作日志.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28530" windowHeight="15945" activeTab="8"/>
+    <workbookView windowWidth="28530" windowHeight="13920" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="玩法设计" sheetId="8" r:id="rId1"/>
@@ -16,6 +16,7 @@
     <sheet name="6.12" sheetId="5" r:id="rId7"/>
     <sheet name="6.13" sheetId="6" r:id="rId8"/>
     <sheet name="6.14" sheetId="9" r:id="rId9"/>
+    <sheet name="6.15" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="80">
   <si>
     <t>方块设计：</t>
   </si>
@@ -307,6 +308,9 @@
 传送门等玩法，需要有个二级界面来介绍以下
 无尽二级弹窗，介绍无尽的规则
 </t>
+  </si>
+  <si>
+    <t>设计20关</t>
   </si>
 </sst>
 </file>
@@ -955,11 +959,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1366,6 +1370,102 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="B7:C26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
+  <cols>
+    <col min="2" max="2" width="30.875" customWidth="1"/>
+    <col min="3" max="3" width="45.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="7" spans="2:2">
+      <c r="B7" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2">
+      <c r="B8" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2">
+      <c r="B18" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="19" ht="69" customHeight="1" spans="2:2">
+      <c r="B19" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="20" ht="27" spans="2:3">
+      <c r="B20" t="s">
+        <v>71</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3">
+      <c r="B21" t="s">
+        <v>54</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3">
+      <c r="B22" t="s">
+        <v>56</v>
+      </c>
+      <c r="C22" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3">
+      <c r="B23" t="s">
+        <v>58</v>
+      </c>
+      <c r="C23" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="24" ht="54" spans="2:3">
+      <c r="B24" t="s">
+        <v>74</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2">
+      <c r="B25" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2">
+      <c r="B26" t="s">
+        <v>76</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
@@ -1385,7 +1485,7 @@
       <c r="B6" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="2" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1510,12 +1610,12 @@
       </c>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="3" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:1">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="3" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1525,7 +1625,7 @@
       </c>
     </row>
     <row r="12" customFormat="1" ht="76" customHeight="1" spans="1:2">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="3" t="s">
         <v>23</v>
       </c>
       <c r="B12" s="4" t="s">
@@ -1538,17 +1638,17 @@
       </c>
     </row>
     <row r="14" customFormat="1" spans="1:1">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:1">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="3" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:1">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="3" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1580,7 +1680,7 @@
       </c>
     </row>
     <row r="8" spans="1:1">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="3" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1588,12 +1688,12 @@
       <c r="A9" t="s">
         <v>27</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="2" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:1">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="3" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1640,7 +1740,7 @@
       </c>
     </row>
     <row r="8" ht="63" customHeight="1" spans="1:2">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="3" t="s">
         <v>37</v>
       </c>
       <c r="B8" s="4" t="s">
@@ -1648,7 +1748,7 @@
       </c>
     </row>
     <row r="9" ht="136" customHeight="1" spans="1:2">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="3" t="s">
         <v>39</v>
       </c>
       <c r="B9" s="4" t="s">
@@ -1669,7 +1769,7 @@
       <c r="A12" t="s">
         <v>43</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="2" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1677,7 +1777,7 @@
       <c r="A13" t="s">
         <v>45</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="2" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1778,7 +1878,7 @@
       <c r="A10" t="s">
         <v>60</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="2" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1791,7 +1891,7 @@
       </c>
     </row>
     <row r="12" spans="1:1">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="3" t="s">
         <v>62</v>
       </c>
     </row>
@@ -1801,7 +1901,7 @@
       </c>
     </row>
     <row r="14" spans="1:1">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="3" t="s">
         <v>63</v>
       </c>
     </row>
@@ -1906,12 +2006,12 @@
       </c>
     </row>
     <row r="9" ht="36" customHeight="1" spans="1:1">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="3" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="10" ht="103" customHeight="1" spans="1:2">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="3" t="s">
         <v>67</v>
       </c>
       <c r="B10" s="4" t="s">
@@ -1962,7 +2062,7 @@
       <c r="A23" t="s">
         <v>71</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="2" t="s">
         <v>72</v>
       </c>
     </row>
@@ -1970,7 +2070,7 @@
       <c r="A24" t="s">
         <v>54</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="2" t="s">
         <v>73</v>
       </c>
     </row>
@@ -1994,7 +2094,7 @@
       <c r="A27" t="s">
         <v>74</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B27" s="2" t="s">
         <v>75</v>
       </c>
     </row>
@@ -2024,8 +2124,8 @@
   <sheetPr/>
   <dimension ref="B9:C30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24:C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -2045,7 +2145,7 @@
       </c>
     </row>
     <row r="11" ht="91" customHeight="1" spans="2:2">
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="3" t="s">
         <v>70</v>
       </c>
     </row>
@@ -2055,7 +2155,7 @@
       </c>
     </row>
     <row r="20" spans="2:2">
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="3" t="s">
         <v>48</v>
       </c>
     </row>
@@ -2070,7 +2170,7 @@
       </c>
     </row>
     <row r="23" ht="34" customHeight="1" spans="2:2">
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="3" t="s">
         <v>52</v>
       </c>
     </row>
@@ -2078,7 +2178,7 @@
       <c r="B24" t="s">
         <v>71</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C24" s="2" t="s">
         <v>72</v>
       </c>
     </row>
@@ -2086,7 +2186,7 @@
       <c r="B25" t="s">
         <v>54</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C25" s="2" t="s">
         <v>73</v>
       </c>
     </row>
@@ -2110,7 +2210,7 @@
       <c r="B28" t="s">
         <v>74</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="C28" s="2" t="s">
         <v>78</v>
       </c>
     </row>

--- a/口袋猫猫/工作日志.xlsx
+++ b/口袋猫猫/工作日志.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="82">
   <si>
     <t>方块设计：</t>
   </si>
@@ -311,6 +311,13 @@
   </si>
   <si>
     <t>设计20关</t>
+  </si>
+  <si>
+    <t>音效补充</t>
+  </si>
+  <si>
+    <t xml:space="preserve">缺失败音效
+</t>
   </si>
 </sst>
 </file>
@@ -952,12 +959,15 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1307,7 +1317,7 @@
   </cols>
   <sheetData>
     <row r="8" ht="27" spans="3:3">
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="9" t="s">
         <v>0</v>
       </c>
     </row>
@@ -1336,7 +1346,7 @@
       </c>
     </row>
     <row r="19" ht="24" spans="3:3">
-      <c r="C19" s="9" t="s">
+      <c r="C19" s="10" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1375,8 +1385,8 @@
   <sheetPr/>
   <dimension ref="B7:C26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -1395,6 +1405,14 @@
         <v>79</v>
       </c>
     </row>
+    <row r="9" ht="110" customHeight="1" spans="2:3">
+      <c r="B9" t="s">
+        <v>80</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
     <row r="17" spans="2:2">
       <c r="B17" s="1" t="s">
         <v>22</v>
@@ -1410,23 +1428,23 @@
         <v>51</v>
       </c>
     </row>
-    <row r="20" ht="27" spans="2:3">
+    <row r="20" ht="38" customHeight="1" spans="2:3">
       <c r="B20" t="s">
         <v>71</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C20" s="3" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="21" spans="2:3">
+    <row r="21" ht="48" customHeight="1" spans="2:3">
       <c r="B21" t="s">
         <v>54</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C21" s="3" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="22" spans="2:3">
+    <row r="22" ht="42" customHeight="1" spans="2:3">
       <c r="B22" t="s">
         <v>56</v>
       </c>
@@ -1434,7 +1452,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="23" spans="2:3">
+    <row r="23" ht="51" customHeight="1" spans="2:3">
       <c r="B23" t="s">
         <v>58</v>
       </c>
@@ -1446,7 +1464,7 @@
       <c r="B24" t="s">
         <v>74</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C24" s="3" t="s">
         <v>78</v>
       </c>
     </row>
@@ -1485,7 +1503,7 @@
       <c r="B6" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="3" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1610,12 +1628,12 @@
       </c>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="4" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:1">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="4" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1625,10 +1643,10 @@
       </c>
     </row>
     <row r="12" customFormat="1" ht="76" customHeight="1" spans="1:2">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="5" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1638,17 +1656,17 @@
       </c>
     </row>
     <row r="14" customFormat="1" spans="1:1">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:1">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="4" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:1">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="4" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1680,7 +1698,7 @@
       </c>
     </row>
     <row r="8" spans="1:1">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="4" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1688,12 +1706,12 @@
       <c r="A9" t="s">
         <v>27</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="3" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:1">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="4" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1740,18 +1758,18 @@
       </c>
     </row>
     <row r="8" ht="63" customHeight="1" spans="1:2">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="5" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="9" ht="136" customHeight="1" spans="1:2">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="5" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1769,7 +1787,7 @@
       <c r="A12" t="s">
         <v>43</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="3" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1777,7 +1795,7 @@
       <c r="A13" t="s">
         <v>45</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="3" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1878,30 +1896,30 @@
       <c r="A10" t="s">
         <v>60</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="11" ht="67.5" spans="1:2">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="7" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:1">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="4" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="13" spans="1:1">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="8" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="14" spans="1:1">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="4" t="s">
         <v>63</v>
       </c>
     </row>
@@ -2006,15 +2024,15 @@
       </c>
     </row>
     <row r="9" ht="36" customHeight="1" spans="1:1">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="4" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="10" ht="103" customHeight="1" spans="1:2">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="5" t="s">
         <v>68</v>
       </c>
     </row>
@@ -2062,7 +2080,7 @@
       <c r="A23" t="s">
         <v>71</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="3" t="s">
         <v>72</v>
       </c>
     </row>
@@ -2070,7 +2088,7 @@
       <c r="A24" t="s">
         <v>54</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="3" t="s">
         <v>73</v>
       </c>
     </row>
@@ -2094,7 +2112,7 @@
       <c r="A27" t="s">
         <v>74</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B27" s="3" t="s">
         <v>75</v>
       </c>
     </row>
@@ -2145,7 +2163,7 @@
       </c>
     </row>
     <row r="11" ht="91" customHeight="1" spans="2:2">
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="4" t="s">
         <v>70</v>
       </c>
     </row>
@@ -2155,7 +2173,7 @@
       </c>
     </row>
     <row r="20" spans="2:2">
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="4" t="s">
         <v>48</v>
       </c>
     </row>
@@ -2170,7 +2188,7 @@
       </c>
     </row>
     <row r="23" ht="34" customHeight="1" spans="2:2">
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="4" t="s">
         <v>52</v>
       </c>
     </row>
@@ -2178,7 +2196,7 @@
       <c r="B24" t="s">
         <v>71</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C24" s="3" t="s">
         <v>72</v>
       </c>
     </row>
@@ -2186,7 +2204,7 @@
       <c r="B25" t="s">
         <v>54</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C25" s="3" t="s">
         <v>73</v>
       </c>
     </row>
@@ -2210,7 +2228,7 @@
       <c r="B28" t="s">
         <v>74</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="C28" s="3" t="s">
         <v>78</v>
       </c>
     </row>

--- a/口袋猫猫/工作日志.xlsx
+++ b/口袋猫猫/工作日志.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="85">
   <si>
     <t>方块设计：</t>
   </si>
@@ -310,14 +310,24 @@
 </t>
   </si>
   <si>
-    <t>设计20关</t>
+    <t>设计19关</t>
+  </si>
+  <si>
+    <t>上方是传送门和一排木箱，木箱堵塞传送门
+在下方区域想办法合出炸弹，然后通过炸弹穿越传送门来引爆木箱</t>
   </si>
   <si>
     <t>音效补充</t>
   </si>
   <si>
-    <t xml:space="preserve">缺失败音效
+    <t xml:space="preserve">
 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">传送门特效 </t>
+  </si>
+  <si>
+    <t>需要显示进入下一关需要消耗的体力，以及关卡的序列</t>
   </si>
 </sst>
 </file>
@@ -1386,7 +1396,7 @@
   <dimension ref="B7:C26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -1400,17 +1410,25 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="2:2">
+    <row r="8" ht="91" customHeight="1" spans="2:3">
       <c r="B8" t="s">
         <v>79</v>
       </c>
+      <c r="C8" s="2" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="9" ht="110" customHeight="1" spans="2:3">
       <c r="B9" t="s">
-        <v>80</v>
-      </c>
-      <c r="C9" s="2" t="s">
         <v>81</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2">
+      <c r="B10" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="17" spans="2:2">
@@ -1449,7 +1467,7 @@
         <v>56</v>
       </c>
       <c r="C22" t="s">
-        <v>57</v>
+        <v>84</v>
       </c>
     </row>
     <row r="23" ht="51" customHeight="1" spans="2:3">

--- a/口袋猫猫/工作日志.xlsx
+++ b/口袋猫猫/工作日志.xlsx
@@ -1396,7 +1396,7 @@
   <dimension ref="B7:C26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -1447,10 +1447,10 @@
       </c>
     </row>
     <row r="20" ht="38" customHeight="1" spans="2:3">
-      <c r="B20" t="s">
+      <c r="B20" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C20" s="5" t="s">
         <v>72</v>
       </c>
     </row>

--- a/口袋猫猫/工作日志.xlsx
+++ b/口袋猫猫/工作日志.xlsx
@@ -314,7 +314,8 @@
   </si>
   <si>
     <t>上方是传送门和一排木箱，木箱堵塞传送门
-在下方区域想办法合出炸弹，然后通过炸弹穿越传送门来引爆木箱</t>
+在下方区域想办法合出炸弹，然后通过炸弹穿越传送门来引爆木箱
+为了防止炸弹，一定要把生成区域限制在下面</t>
   </si>
   <si>
     <t>音效补充</t>
@@ -1395,8 +1396,8 @@
   <sheetPr/>
   <dimension ref="B7:C26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>

--- a/口袋猫猫/工作日志.xlsx
+++ b/口袋猫猫/工作日志.xlsx
@@ -310,7 +310,7 @@
 </t>
   </si>
   <si>
-    <t>设计19关</t>
+    <t>设计20关</t>
   </si>
   <si>
     <t>上方是传送门和一排木箱，木箱堵塞传送门
@@ -529,6 +529,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -602,12 +608,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -846,7 +846,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -870,16 +870,16 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -888,30 +888,30 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -921,7 +921,7 @@
     <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -970,32 +970,35 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -1318,7 +1321,7 @@
   <dimension ref="C8:D22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1328,7 +1331,7 @@
   </cols>
   <sheetData>
     <row r="8" ht="27" spans="3:3">
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="10" t="s">
         <v>0</v>
       </c>
     </row>
@@ -1357,7 +1360,7 @@
       </c>
     </row>
     <row r="19" ht="24" spans="3:3">
-      <c r="C19" s="10" t="s">
+      <c r="C19" s="11" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1397,7 +1400,7 @@
   <dimension ref="B7:C26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -1412,18 +1415,18 @@
       </c>
     </row>
     <row r="8" ht="91" customHeight="1" spans="2:3">
-      <c r="B8" t="s">
+      <c r="B8" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="3" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="9" ht="110" customHeight="1" spans="2:3">
-      <c r="B9" t="s">
+      <c r="B9" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="5" t="s">
         <v>82</v>
       </c>
     </row>
@@ -1448,10 +1451,10 @@
       </c>
     </row>
     <row r="20" ht="38" customHeight="1" spans="2:3">
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C20" s="6" t="s">
         <v>72</v>
       </c>
     </row>
@@ -1459,7 +1462,7 @@
       <c r="B21" t="s">
         <v>54</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C21" s="5" t="s">
         <v>55</v>
       </c>
     </row>
@@ -1483,7 +1486,7 @@
       <c r="B24" t="s">
         <v>74</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C24" s="5" t="s">
         <v>78</v>
       </c>
     </row>
@@ -1522,7 +1525,7 @@
       <c r="B6" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="5" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1647,12 +1650,12 @@
       </c>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="2" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:1">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="2" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1662,10 +1665,10 @@
       </c>
     </row>
     <row r="12" customFormat="1" ht="76" customHeight="1" spans="1:2">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="6" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1675,17 +1678,17 @@
       </c>
     </row>
     <row r="14" customFormat="1" spans="1:1">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:1">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="2" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:1">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="2" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1717,7 +1720,7 @@
       </c>
     </row>
     <row r="8" spans="1:1">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="2" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1725,12 +1728,12 @@
       <c r="A9" t="s">
         <v>27</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="5" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:1">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="2" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1777,18 +1780,18 @@
       </c>
     </row>
     <row r="8" ht="63" customHeight="1" spans="1:2">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="6" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="9" ht="136" customHeight="1" spans="1:2">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="6" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1806,7 +1809,7 @@
       <c r="A12" t="s">
         <v>43</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="5" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1814,7 +1817,7 @@
       <c r="A13" t="s">
         <v>45</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="5" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1915,30 +1918,30 @@
       <c r="A10" t="s">
         <v>60</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="5" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="11" ht="67.5" spans="1:2">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="8" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:1">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="2" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="13" spans="1:1">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="9" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="14" spans="1:1">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="2" t="s">
         <v>63</v>
       </c>
     </row>
@@ -2043,15 +2046,15 @@
       </c>
     </row>
     <row r="9" ht="36" customHeight="1" spans="1:1">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="2" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="10" ht="103" customHeight="1" spans="1:2">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="6" t="s">
         <v>68</v>
       </c>
     </row>
@@ -2099,7 +2102,7 @@
       <c r="A23" t="s">
         <v>71</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="5" t="s">
         <v>72</v>
       </c>
     </row>
@@ -2107,7 +2110,7 @@
       <c r="A24" t="s">
         <v>54</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="5" t="s">
         <v>73</v>
       </c>
     </row>
@@ -2131,7 +2134,7 @@
       <c r="A27" t="s">
         <v>74</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B27" s="5" t="s">
         <v>75</v>
       </c>
     </row>
@@ -2182,7 +2185,7 @@
       </c>
     </row>
     <row r="11" ht="91" customHeight="1" spans="2:2">
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="2" t="s">
         <v>70</v>
       </c>
     </row>
@@ -2192,7 +2195,7 @@
       </c>
     </row>
     <row r="20" spans="2:2">
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="2" t="s">
         <v>48</v>
       </c>
     </row>
@@ -2207,7 +2210,7 @@
       </c>
     </row>
     <row r="23" ht="34" customHeight="1" spans="2:2">
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="2" t="s">
         <v>52</v>
       </c>
     </row>
@@ -2215,7 +2218,7 @@
       <c r="B24" t="s">
         <v>71</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C24" s="5" t="s">
         <v>72</v>
       </c>
     </row>
@@ -2223,7 +2226,7 @@
       <c r="B25" t="s">
         <v>54</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C25" s="5" t="s">
         <v>73</v>
       </c>
     </row>
@@ -2247,7 +2250,7 @@
       <c r="B28" t="s">
         <v>74</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="C28" s="5" t="s">
         <v>78</v>
       </c>
     </row>

--- a/口袋猫猫/工作日志.xlsx
+++ b/口袋猫猫/工作日志.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28530" windowHeight="13920" activeTab="9"/>
+    <workbookView windowWidth="28530" windowHeight="13920" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="玩法设计" sheetId="8" r:id="rId1"/>
@@ -17,6 +17,7 @@
     <sheet name="6.13" sheetId="6" r:id="rId8"/>
     <sheet name="6.14" sheetId="9" r:id="rId9"/>
     <sheet name="6.15" sheetId="10" r:id="rId10"/>
+    <sheet name="6.16" sheetId="11" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="86">
   <si>
     <t>方块设计：</t>
   </si>
@@ -329,6 +330,9 @@
   </si>
   <si>
     <t>需要显示进入下一关需要消耗的体力，以及关卡的序列</t>
+  </si>
+  <si>
+    <t>21-25关卡设计</t>
   </si>
 </sst>
 </file>
@@ -970,12 +974,15 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
@@ -985,12 +992,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
@@ -1331,7 +1332,7 @@
   </cols>
   <sheetData>
     <row r="8" ht="27" spans="3:3">
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="9" t="s">
         <v>0</v>
       </c>
     </row>
@@ -1360,7 +1361,7 @@
       </c>
     </row>
     <row r="19" ht="24" spans="3:3">
-      <c r="C19" s="11" t="s">
+      <c r="C19" s="10" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1399,8 +1400,8 @@
   <sheetPr/>
   <dimension ref="B7:C26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -1415,18 +1416,18 @@
       </c>
     </row>
     <row r="8" ht="91" customHeight="1" spans="2:3">
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="4" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="9" ht="110" customHeight="1" spans="2:3">
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="2" t="s">
         <v>82</v>
       </c>
     </row>
@@ -1451,34 +1452,34 @@
       </c>
     </row>
     <row r="20" ht="38" customHeight="1" spans="2:3">
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C20" s="4" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="21" ht="48" customHeight="1" spans="2:3">
-      <c r="B21" t="s">
+      <c r="B21" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C21" s="4" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="22" ht="42" customHeight="1" spans="2:3">
-      <c r="B22" t="s">
+      <c r="B22" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="3" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="23" ht="51" customHeight="1" spans="2:3">
-      <c r="B23" t="s">
+      <c r="B23" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="3" t="s">
         <v>59</v>
       </c>
     </row>
@@ -1486,7 +1487,7 @@
       <c r="B24" t="s">
         <v>74</v>
       </c>
-      <c r="C24" s="5" t="s">
+      <c r="C24" s="2" t="s">
         <v>78</v>
       </c>
     </row>
@@ -1498,6 +1499,75 @@
     <row r="26" spans="2:2">
       <c r="B26" t="s">
         <v>76</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A9:B25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="40" customWidth="1"/>
+    <col min="2" max="2" width="62" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="9" spans="1:1">
+      <c r="A9" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="24" ht="111" customHeight="1" spans="1:2">
+      <c r="A24" t="s">
+        <v>74</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -1525,7 +1595,7 @@
       <c r="B6" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="2" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1650,12 +1720,12 @@
       </c>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="3" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:1">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="3" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1665,10 +1735,10 @@
       </c>
     </row>
     <row r="12" customFormat="1" ht="76" customHeight="1" spans="1:2">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="4" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1678,17 +1748,17 @@
       </c>
     </row>
     <row r="14" customFormat="1" spans="1:1">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:1">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="3" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:1">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="3" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1720,7 +1790,7 @@
       </c>
     </row>
     <row r="8" spans="1:1">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="3" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1728,12 +1798,12 @@
       <c r="A9" t="s">
         <v>27</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="2" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:1">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="3" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1780,18 +1850,18 @@
       </c>
     </row>
     <row r="8" ht="63" customHeight="1" spans="1:2">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="4" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="9" ht="136" customHeight="1" spans="1:2">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="4" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1809,7 +1879,7 @@
       <c r="A12" t="s">
         <v>43</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="2" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1817,7 +1887,7 @@
       <c r="A13" t="s">
         <v>45</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="2" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1918,30 +1988,30 @@
       <c r="A10" t="s">
         <v>60</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="11" ht="67.5" spans="1:2">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="7" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:1">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="3" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="13" spans="1:1">
-      <c r="A13" s="9" t="s">
+      <c r="A13" s="8" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="14" spans="1:1">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="3" t="s">
         <v>63</v>
       </c>
     </row>
@@ -2046,15 +2116,15 @@
       </c>
     </row>
     <row r="9" ht="36" customHeight="1" spans="1:1">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="3" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="10" ht="103" customHeight="1" spans="1:2">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="4" t="s">
         <v>68</v>
       </c>
     </row>
@@ -2102,7 +2172,7 @@
       <c r="A23" t="s">
         <v>71</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B23" s="2" t="s">
         <v>72</v>
       </c>
     </row>
@@ -2110,7 +2180,7 @@
       <c r="A24" t="s">
         <v>54</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="B24" s="2" t="s">
         <v>73</v>
       </c>
     </row>
@@ -2134,7 +2204,7 @@
       <c r="A27" t="s">
         <v>74</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="B27" s="2" t="s">
         <v>75</v>
       </c>
     </row>
@@ -2185,7 +2255,7 @@
       </c>
     </row>
     <row r="11" ht="91" customHeight="1" spans="2:2">
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="3" t="s">
         <v>70</v>
       </c>
     </row>
@@ -2195,7 +2265,7 @@
       </c>
     </row>
     <row r="20" spans="2:2">
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="3" t="s">
         <v>48</v>
       </c>
     </row>
@@ -2210,7 +2280,7 @@
       </c>
     </row>
     <row r="23" ht="34" customHeight="1" spans="2:2">
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="3" t="s">
         <v>52</v>
       </c>
     </row>
@@ -2218,7 +2288,7 @@
       <c r="B24" t="s">
         <v>71</v>
       </c>
-      <c r="C24" s="5" t="s">
+      <c r="C24" s="2" t="s">
         <v>72</v>
       </c>
     </row>
@@ -2226,7 +2296,7 @@
       <c r="B25" t="s">
         <v>54</v>
       </c>
-      <c r="C25" s="5" t="s">
+      <c r="C25" s="2" t="s">
         <v>73</v>
       </c>
     </row>
@@ -2250,7 +2320,7 @@
       <c r="B28" t="s">
         <v>74</v>
       </c>
-      <c r="C28" s="5" t="s">
+      <c r="C28" s="2" t="s">
         <v>78</v>
       </c>
     </row>

--- a/口袋猫猫/工作日志.xlsx
+++ b/口袋猫猫/工作日志.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="92">
   <si>
     <t>方块设计：</t>
   </si>
@@ -81,15 +81,28 @@
     <t>每次方块只能移动一个格子</t>
   </si>
   <si>
+    <t>转弯格子</t>
+  </si>
+  <si>
+    <t>前进时遇到此格子则转弯</t>
+  </si>
+  <si>
     <t>无尽模式</t>
   </si>
   <si>
-    <t>无尽解锁条件：通过第10关
-无尽模式头脑风暴:
-1.场上每1-2回合会生成石块，直到最后无路可走。关卡有时间限制（能观看广告吗）
-2.场上每1-2回合会生成石块，直到最后无路可走。关卡有步数限制（能观看广告吗）
-3.场上每1-2回合会生成石块，直到最后无路可走。关卡无限制（需要实现对应的结束检测逻辑）
-4.场上每回合1个方块和2个木箱。关卡有时间限制，最终分数看击破了多少木箱</t>
+    <t xml:space="preserve">无尽解锁条件：通过第10关
+</t>
+  </si>
+  <si>
+    <t>场上每1-2回合会生成石块，直到最后无路可走。关卡无限制（需要实现对应的结束检测逻辑）</t>
+  </si>
+  <si>
+    <t>场上每回合1个方块和2个木箱。关卡有时间限制，最终分数看击破了多少木箱</t>
+  </si>
+  <si>
+    <t>场上生成好N个方块，玩家消除，看消到最后场上剩余多少方块，剩的越少越好，得分就是消除方块的数量。
+比如生成各色方块各4个，有可能同时消除了3个，则剩下的那个就没法被消除了。
+结束条件就是，场上没有相同颜色的方块了。</t>
   </si>
   <si>
     <t>程序策划：</t>
@@ -240,6 +253,14 @@
   </si>
   <si>
     <t>无尽模式设计</t>
+  </si>
+  <si>
+    <t>无尽解锁条件：通过第10关
+无尽模式头脑风暴:
+1.场上每1-2回合会生成石块，直到最后无路可走。关卡有时间限制（能观看广告吗）
+2.场上每1-2回合会生成石块，直到最后无路可走。关卡有步数限制（能观看广告吗）
+3.场上每1-2回合会生成石块，直到最后无路可走。关卡无限制（需要实现对应的结束检测逻辑）
+4.场上每回合1个方块和2个木箱。关卡有时间限制，最终分数看击破了多少木箱</t>
   </si>
   <si>
     <t>消除进阶逻辑（15关开放）</t>
@@ -345,7 +366,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -360,6 +381,12 @@
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="方正粗黑宋简体"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="20"/>
@@ -844,137 +871,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1005,7 +1032,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1319,10 +1352,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C8:D22"/>
+  <dimension ref="C8:D23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1332,7 +1365,7 @@
   </cols>
   <sheetData>
     <row r="8" ht="27" spans="3:3">
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="11" t="s">
         <v>0</v>
       </c>
     </row>
@@ -1361,7 +1394,7 @@
       </c>
     </row>
     <row r="19" ht="24" spans="3:3">
-      <c r="C19" s="10" t="s">
+      <c r="C19" s="12" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1387,6 +1420,14 @@
       </c>
       <c r="D22" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="3:4">
+      <c r="C23" t="s">
+        <v>14</v>
+      </c>
+      <c r="D23" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -1412,93 +1453,93 @@
   <sheetData>
     <row r="7" spans="2:2">
       <c r="B7" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" ht="91" customHeight="1" spans="2:3">
       <c r="B8" s="3" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
     </row>
     <row r="9" ht="110" customHeight="1" spans="2:3">
       <c r="B9" s="5" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
     </row>
     <row r="10" spans="2:2">
       <c r="B10" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18" spans="2:2">
       <c r="B18" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
     </row>
     <row r="19" ht="69" customHeight="1" spans="2:2">
       <c r="B19" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
     </row>
     <row r="20" ht="38" customHeight="1" spans="2:3">
       <c r="B20" s="3" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
     </row>
     <row r="21" ht="48" customHeight="1" spans="2:3">
       <c r="B21" s="3" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" ht="42" customHeight="1" spans="2:3">
       <c r="B22" s="3" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
     </row>
     <row r="23" ht="51" customHeight="1" spans="2:3">
       <c r="B23" s="3" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
     </row>
     <row r="24" ht="54" spans="2:3">
       <c r="B24" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
     </row>
     <row r="25" spans="2:2">
       <c r="B25" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
     </row>
     <row r="26" spans="2:2">
       <c r="B26" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -1513,7 +1554,7 @@
   <dimension ref="A9:B25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
@@ -1524,50 +1565,50 @@
   <sheetData>
     <row r="9" spans="1:1">
       <c r="A9" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
     </row>
     <row r="24" ht="111" customHeight="1" spans="1:2">
       <c r="A24" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -1579,24 +1620,39 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B6:C6"/>
+  <dimension ref="B6:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
   <cols>
     <col min="2" max="2" width="28.875" customWidth="1"/>
-    <col min="3" max="3" width="69.5" customWidth="1"/>
+    <col min="3" max="3" width="112.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" ht="135" spans="2:3">
-      <c r="B6" t="s">
-        <v>14</v>
+    <row r="6" ht="78" customHeight="1" spans="2:3">
+      <c r="B6" s="9" t="s">
+        <v>16</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" ht="81" customHeight="1" spans="3:3">
+      <c r="C7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" ht="77" customHeight="1" spans="3:3">
+      <c r="C8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" ht="135" customHeight="1" spans="3:3">
+      <c r="C9" s="10" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -1622,12 +1678,12 @@
   <sheetData>
     <row r="5" spans="1:1">
       <c r="A5" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -1635,7 +1691,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -1643,7 +1699,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -1651,7 +1707,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -1659,32 +1715,32 @@
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -1711,40 +1767,40 @@
   <sheetData>
     <row r="5" customFormat="1" spans="1:1">
       <c r="A5" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" customFormat="1" spans="1:1">
       <c r="A6" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="3" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="3" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" customFormat="1" spans="1:1">
       <c r="A11" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" customFormat="1" ht="76" customHeight="1" spans="1:2">
       <c r="A12" s="3" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" customFormat="1" spans="1:1">
       <c r="A13" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" customFormat="1" spans="1:1">
@@ -1754,12 +1810,12 @@
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="3" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="3" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -1786,40 +1842,40 @@
   <sheetData>
     <row r="7" spans="1:1">
       <c r="A7" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="3" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" ht="70" customHeight="1" spans="1:2">
       <c r="A9" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="3" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -1846,49 +1902,49 @@
   <sheetData>
     <row r="7" spans="1:1">
       <c r="A7" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" ht="63" customHeight="1" spans="1:2">
       <c r="A8" s="3" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" ht="136" customHeight="1" spans="1:2">
       <c r="A9" s="3" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" ht="126" customHeight="1" spans="1:2">
       <c r="A12" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
     </row>
     <row r="13" ht="71" customHeight="1" spans="1:2">
       <c r="A13" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:1">
@@ -1896,66 +1952,66 @@
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
     </row>
     <row r="24" ht="84" customHeight="1" spans="1:2">
       <c r="A24" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B24" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="25" ht="55" customHeight="1" spans="1:2">
       <c r="A25" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B25" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B26" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -1981,112 +2037,112 @@
   <sheetData>
     <row r="9" spans="1:1">
       <c r="A9" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" ht="117" customHeight="1" spans="1:2">
       <c r="A10" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>15</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" ht="67.5" spans="1:2">
       <c r="A11" s="6" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="3" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="8" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="3" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B31" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B32" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B33" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -2112,115 +2168,115 @@
   <sheetData>
     <row r="8" spans="1:1">
       <c r="A8" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" ht="36" customHeight="1" spans="1:1">
       <c r="A9" s="3" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10" ht="103" customHeight="1" spans="1:2">
       <c r="A10" s="3" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11" ht="38" customHeight="1" spans="1:1">
       <c r="A11" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
     </row>
     <row r="23" ht="38" customHeight="1" spans="1:2">
       <c r="A23" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
     </row>
     <row r="24" ht="54" customHeight="1" spans="1:2">
       <c r="A24" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
     </row>
     <row r="25" ht="26" customHeight="1" spans="1:2">
       <c r="A25" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B25" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
     </row>
     <row r="26" ht="42" customHeight="1" spans="1:2">
       <c r="A26" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B26" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
     </row>
     <row r="27" ht="27" spans="1:2">
       <c r="A27" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -2246,92 +2302,92 @@
   <sheetData>
     <row r="9" spans="2:2">
       <c r="B9" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" ht="74" customHeight="1" spans="2:2">
       <c r="B10" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11" ht="91" customHeight="1" spans="2:2">
       <c r="B11" s="3" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
     </row>
     <row r="19" spans="2:2">
       <c r="B19" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="20" spans="2:2">
       <c r="B20" s="3" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
     </row>
     <row r="21" spans="2:2">
       <c r="B21" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
     </row>
     <row r="22" spans="2:2">
       <c r="B22" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
     </row>
     <row r="23" ht="34" customHeight="1" spans="2:2">
       <c r="B23" s="3" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
     </row>
     <row r="24" ht="49" customHeight="1" spans="2:3">
       <c r="B24" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
     </row>
     <row r="25" ht="27" spans="2:3">
       <c r="B25" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
     </row>
     <row r="26" spans="2:3">
       <c r="B26" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C26" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
     </row>
     <row r="27" spans="2:3">
       <c r="B27" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="C27" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
     </row>
     <row r="28" ht="54" spans="2:3">
       <c r="B28" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
     </row>
     <row r="29" spans="2:2">
       <c r="B29" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
     </row>
     <row r="30" spans="2:2">
       <c r="B30" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>

--- a/口袋猫猫/工作日志.xlsx
+++ b/口袋猫猫/工作日志.xlsx
@@ -1001,19 +1001,19 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1031,9 +1031,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
@@ -1365,7 +1362,7 @@
   </cols>
   <sheetData>
     <row r="8" ht="27" spans="3:3">
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="10" t="s">
         <v>0</v>
       </c>
     </row>
@@ -1394,7 +1391,7 @@
       </c>
     </row>
     <row r="19" ht="24" spans="3:3">
-      <c r="C19" s="12" t="s">
+      <c r="C19" s="11" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1457,7 +1454,7 @@
       </c>
     </row>
     <row r="8" ht="91" customHeight="1" spans="2:3">
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="2" t="s">
         <v>85</v>
       </c>
       <c r="C8" s="4" t="s">
@@ -1468,7 +1465,7 @@
       <c r="B9" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="3" t="s">
         <v>88</v>
       </c>
     </row>
@@ -1493,7 +1490,7 @@
       </c>
     </row>
     <row r="20" ht="38" customHeight="1" spans="2:3">
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="2" t="s">
         <v>77</v>
       </c>
       <c r="C20" s="4" t="s">
@@ -1501,7 +1498,7 @@
       </c>
     </row>
     <row r="21" ht="48" customHeight="1" spans="2:3">
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="2" t="s">
         <v>59</v>
       </c>
       <c r="C21" s="4" t="s">
@@ -1509,18 +1506,18 @@
       </c>
     </row>
     <row r="22" ht="42" customHeight="1" spans="2:3">
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C22" s="2" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="23" ht="51" customHeight="1" spans="2:3">
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C23" s="2" t="s">
         <v>64</v>
       </c>
     </row>
@@ -1528,7 +1525,7 @@
       <c r="B24" t="s">
         <v>80</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C24" s="3" t="s">
         <v>84</v>
       </c>
     </row>
@@ -1554,7 +1551,7 @@
   <dimension ref="A9:B25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
@@ -1584,7 +1581,7 @@
       </c>
     </row>
     <row r="21" spans="1:1">
-      <c r="A21" t="s">
+      <c r="A21" s="2" t="s">
         <v>71</v>
       </c>
     </row>
@@ -1602,12 +1599,12 @@
       <c r="A24" t="s">
         <v>80</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="3" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="25" spans="1:1">
-      <c r="A25" t="s">
+      <c r="A25" s="2" t="s">
         <v>58</v>
       </c>
     </row>
@@ -1636,7 +1633,7 @@
       <c r="B6" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="3" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1651,7 +1648,7 @@
       </c>
     </row>
     <row r="9" ht="135" customHeight="1" spans="3:3">
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="3" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1776,12 +1773,12 @@
       </c>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="2" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:1">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="2" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1791,7 +1788,7 @@
       </c>
     </row>
     <row r="12" customFormat="1" ht="76" customHeight="1" spans="1:2">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="2" t="s">
         <v>28</v>
       </c>
       <c r="B12" s="4" t="s">
@@ -1804,17 +1801,17 @@
       </c>
     </row>
     <row r="14" customFormat="1" spans="1:1">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:1">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="2" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:1">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="2" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1846,7 +1843,7 @@
       </c>
     </row>
     <row r="8" spans="1:1">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="2" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1854,12 +1851,12 @@
       <c r="A9" t="s">
         <v>32</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="3" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:1">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="2" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1906,7 +1903,7 @@
       </c>
     </row>
     <row r="8" ht="63" customHeight="1" spans="1:2">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="2" t="s">
         <v>42</v>
       </c>
       <c r="B8" s="4" t="s">
@@ -1914,7 +1911,7 @@
       </c>
     </row>
     <row r="9" ht="136" customHeight="1" spans="1:2">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="2" t="s">
         <v>44</v>
       </c>
       <c r="B9" s="4" t="s">
@@ -1935,7 +1932,7 @@
       <c r="A12" t="s">
         <v>48</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="3" t="s">
         <v>49</v>
       </c>
     </row>
@@ -1943,7 +1940,7 @@
       <c r="A13" t="s">
         <v>50</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="3" t="s">
         <v>51</v>
       </c>
     </row>
@@ -2044,7 +2041,7 @@
       <c r="A10" t="s">
         <v>65</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="3" t="s">
         <v>66</v>
       </c>
     </row>
@@ -2057,7 +2054,7 @@
       </c>
     </row>
     <row r="12" spans="1:1">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="2" t="s">
         <v>68</v>
       </c>
     </row>
@@ -2067,7 +2064,7 @@
       </c>
     </row>
     <row r="14" spans="1:1">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="2" t="s">
         <v>69</v>
       </c>
     </row>
@@ -2172,12 +2169,12 @@
       </c>
     </row>
     <row r="9" ht="36" customHeight="1" spans="1:1">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="2" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="10" ht="103" customHeight="1" spans="1:2">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="2" t="s">
         <v>73</v>
       </c>
       <c r="B10" s="4" t="s">
@@ -2228,7 +2225,7 @@
       <c r="A23" t="s">
         <v>77</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="3" t="s">
         <v>78</v>
       </c>
     </row>
@@ -2236,7 +2233,7 @@
       <c r="A24" t="s">
         <v>59</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="3" t="s">
         <v>79</v>
       </c>
     </row>
@@ -2260,7 +2257,7 @@
       <c r="A27" t="s">
         <v>80</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B27" s="3" t="s">
         <v>81</v>
       </c>
     </row>
@@ -2311,7 +2308,7 @@
       </c>
     </row>
     <row r="11" ht="91" customHeight="1" spans="2:2">
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="2" t="s">
         <v>76</v>
       </c>
     </row>
@@ -2321,7 +2318,7 @@
       </c>
     </row>
     <row r="20" spans="2:2">
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="2" t="s">
         <v>53</v>
       </c>
     </row>
@@ -2336,7 +2333,7 @@
       </c>
     </row>
     <row r="23" ht="34" customHeight="1" spans="2:2">
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="2" t="s">
         <v>57</v>
       </c>
     </row>
@@ -2344,7 +2341,7 @@
       <c r="B24" t="s">
         <v>77</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C24" s="3" t="s">
         <v>78</v>
       </c>
     </row>
@@ -2352,7 +2349,7 @@
       <c r="B25" t="s">
         <v>59</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C25" s="3" t="s">
         <v>79</v>
       </c>
     </row>
@@ -2376,7 +2373,7 @@
       <c r="B28" t="s">
         <v>80</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="C28" s="3" t="s">
         <v>84</v>
       </c>
     </row>

--- a/口袋猫猫/工作日志.xlsx
+++ b/口袋猫猫/工作日志.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28530" windowHeight="13920" activeTab="10"/>
+    <workbookView windowWidth="28530" windowHeight="13920"/>
   </bookViews>
   <sheets>
     <sheet name="玩法设计" sheetId="8" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="90">
   <si>
     <t>方块设计：</t>
   </si>
@@ -45,7 +45,7 @@
     <t>时间方块</t>
   </si>
   <si>
-    <t>关卡有时间限制，每次消除时间方块，可以增加关卡的时间</t>
+    <t>关卡有时间限制，每次消除时间方块，可以增加关卡的时间（做成无尽？）</t>
   </si>
   <si>
     <t>彩色方块</t>
@@ -73,12 +73,6 @@
   </si>
   <si>
     <t>前进时遇到此格子则停留</t>
-  </si>
-  <si>
-    <t>天寒地冻</t>
-  </si>
-  <si>
-    <t>每次方块只能移动一个格子</t>
   </si>
   <si>
     <t>转弯格子</t>
@@ -1349,16 +1343,16 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C8:D23"/>
+  <dimension ref="C8:D22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
     <col min="3" max="3" width="23.875" customWidth="1"/>
-    <col min="4" max="4" width="38.125" customWidth="1"/>
+    <col min="4" max="4" width="81.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="8" ht="27" spans="3:3">
@@ -1411,20 +1405,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="22" ht="80" customHeight="1" spans="3:4">
+    <row r="22" spans="3:4">
       <c r="C22" t="s">
         <v>12</v>
       </c>
       <c r="D22" t="s">
         <v>13</v>
-      </c>
-    </row>
-    <row r="23" spans="3:4">
-      <c r="C23" t="s">
-        <v>14</v>
-      </c>
-      <c r="D23" t="s">
-        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -1450,93 +1436,93 @@
   <sheetData>
     <row r="7" spans="2:2">
       <c r="B7" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" ht="91" customHeight="1" spans="2:3">
       <c r="B8" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9" ht="110" customHeight="1" spans="2:3">
       <c r="B9" s="5" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="10" spans="2:2">
       <c r="B10" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18" spans="2:2">
       <c r="B18" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="19" ht="69" customHeight="1" spans="2:2">
       <c r="B19" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="20" ht="38" customHeight="1" spans="2:3">
       <c r="B20" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="21" ht="48" customHeight="1" spans="2:3">
       <c r="B21" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="22" ht="42" customHeight="1" spans="2:3">
       <c r="B22" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="23" ht="51" customHeight="1" spans="2:3">
       <c r="B23" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="24" ht="54" spans="2:3">
       <c r="B24" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="25" spans="2:2">
       <c r="B25" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="26" spans="2:2">
       <c r="B26" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -1550,7 +1536,7 @@
   <sheetPr/>
   <dimension ref="A9:B25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
@@ -1562,50 +1548,50 @@
   <sheetData>
     <row r="9" spans="1:1">
       <c r="A9" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="24" ht="111" customHeight="1" spans="1:2">
       <c r="A24" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -1631,25 +1617,25 @@
   <sheetData>
     <row r="6" ht="78" customHeight="1" spans="2:3">
       <c r="B6" s="9" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" ht="81" customHeight="1" spans="3:3">
       <c r="C7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" ht="77" customHeight="1" spans="3:3">
       <c r="C8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" ht="135" customHeight="1" spans="3:3">
       <c r="C9" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -1675,12 +1661,12 @@
   <sheetData>
     <row r="5" spans="1:1">
       <c r="A5" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -1688,7 +1674,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -1696,7 +1682,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -1704,7 +1690,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -1712,32 +1698,32 @@
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -1764,40 +1750,40 @@
   <sheetData>
     <row r="5" customFormat="1" spans="1:1">
       <c r="A5" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" customFormat="1" spans="1:1">
       <c r="A6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" customFormat="1" spans="1:1">
       <c r="A11" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" customFormat="1" ht="76" customHeight="1" spans="1:2">
       <c r="A12" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" customFormat="1" spans="1:1">
       <c r="A13" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" customFormat="1" spans="1:1">
@@ -1807,12 +1793,12 @@
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -1839,40 +1825,40 @@
   <sheetData>
     <row r="7" spans="1:1">
       <c r="A7" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" ht="70" customHeight="1" spans="1:2">
       <c r="A9" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -1899,49 +1885,49 @@
   <sheetData>
     <row r="7" spans="1:1">
       <c r="A7" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" ht="63" customHeight="1" spans="1:2">
       <c r="A8" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" ht="136" customHeight="1" spans="1:2">
       <c r="A9" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" ht="126" customHeight="1" spans="1:2">
       <c r="A12" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13" ht="71" customHeight="1" spans="1:2">
       <c r="A13" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:1">
@@ -1949,66 +1935,66 @@
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="24" ht="84" customHeight="1" spans="1:2">
       <c r="A24" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B24" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="25" ht="55" customHeight="1" spans="1:2">
       <c r="A25" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B25" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B26" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -2034,112 +2020,112 @@
   <sheetData>
     <row r="9" spans="1:1">
       <c r="A9" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" ht="117" customHeight="1" spans="1:2">
       <c r="A10" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" ht="67.5" spans="1:2">
       <c r="A11" s="6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="8" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B31" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B32" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B33" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -2165,115 +2151,115 @@
   <sheetData>
     <row r="8" spans="1:1">
       <c r="A8" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" ht="36" customHeight="1" spans="1:1">
       <c r="A9" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10" ht="103" customHeight="1" spans="1:2">
       <c r="A10" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11" ht="38" customHeight="1" spans="1:1">
       <c r="A11" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="23" ht="38" customHeight="1" spans="1:2">
       <c r="A23" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="24" ht="54" customHeight="1" spans="1:2">
       <c r="A24" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="25" ht="26" customHeight="1" spans="1:2">
       <c r="A25" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B25" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="26" ht="42" customHeight="1" spans="1:2">
       <c r="A26" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B26" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="27" ht="27" spans="1:2">
       <c r="A27" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -2299,92 +2285,92 @@
   <sheetData>
     <row r="9" spans="2:2">
       <c r="B9" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" ht="74" customHeight="1" spans="2:2">
       <c r="B10" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="11" ht="91" customHeight="1" spans="2:2">
       <c r="B11" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="19" spans="2:2">
       <c r="B19" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20" spans="2:2">
       <c r="B20" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="21" spans="2:2">
       <c r="B21" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="22" spans="2:2">
       <c r="B22" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="23" ht="34" customHeight="1" spans="2:2">
       <c r="B23" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="24" ht="49" customHeight="1" spans="2:3">
       <c r="B24" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="25" ht="27" spans="2:3">
       <c r="B25" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="26" spans="2:3">
       <c r="B26" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C26" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="27" spans="2:3">
       <c r="B27" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C27" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="28" ht="54" spans="2:3">
       <c r="B28" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="29" spans="2:2">
       <c r="B29" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="30" spans="2:2">
       <c r="B30" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>

--- a/口袋猫猫/工作日志.xlsx
+++ b/口袋猫猫/工作日志.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28530" windowHeight="13920"/>
+    <workbookView windowWidth="28530" windowHeight="13920" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="玩法设计" sheetId="8" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="6.14" sheetId="9" r:id="rId9"/>
     <sheet name="6.15" sheetId="10" r:id="rId10"/>
     <sheet name="6.16" sheetId="11" r:id="rId11"/>
+    <sheet name="6.17" sheetId="12" r:id="rId12"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="93">
   <si>
     <t>方块设计：</t>
   </si>
@@ -348,6 +349,15 @@
   </si>
   <si>
     <t>21-25关卡设计</t>
+  </si>
+  <si>
+    <t>音效优化</t>
+  </si>
+  <si>
+    <t>方块消除和木箱爆炸的音效还是换一下把</t>
+  </si>
+  <si>
+    <t>传送带的效果设计</t>
   </si>
 </sst>
 </file>
@@ -548,6 +558,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -555,12 +571,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -934,31 +944,31 @@
     <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1002,22 +1012,22 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
@@ -1345,7 +1355,7 @@
   <sheetPr/>
   <dimension ref="C8:D22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
@@ -1440,18 +1450,18 @@
       </c>
     </row>
     <row r="8" ht="91" customHeight="1" spans="2:3">
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="5" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="9" ht="110" customHeight="1" spans="2:3">
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="2" t="s">
         <v>86</v>
       </c>
     </row>
@@ -1476,34 +1486,34 @@
       </c>
     </row>
     <row r="20" ht="38" customHeight="1" spans="2:3">
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C20" s="5" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="21" ht="48" customHeight="1" spans="2:3">
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="C21" s="5" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="22" ht="42" customHeight="1" spans="2:3">
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C22" s="4" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="23" ht="51" customHeight="1" spans="2:3">
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C23" s="4" t="s">
         <v>62</v>
       </c>
     </row>
@@ -1511,7 +1521,7 @@
       <c r="B24" t="s">
         <v>78</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C24" s="2" t="s">
         <v>82</v>
       </c>
     </row>
@@ -1537,7 +1547,7 @@
   <dimension ref="A9:B25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="A9" sqref="A9:B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
@@ -1561,13 +1571,21 @@
         <v>89</v>
       </c>
     </row>
+    <row r="12" ht="61" customHeight="1" spans="1:2">
+      <c r="A12" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
     <row r="20" spans="1:1">
       <c r="A20" s="1" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="21" spans="1:1">
-      <c r="A21" s="2" t="s">
+      <c r="A21" s="4" t="s">
         <v>69</v>
       </c>
     </row>
@@ -1585,13 +1603,77 @@
       <c r="A24" t="s">
         <v>78</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="2" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="25" spans="1:1">
-      <c r="A25" s="2" t="s">
+      <c r="A25" s="4" t="s">
         <v>56</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A4:B22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="19" customWidth="1"/>
+    <col min="2" max="2" width="67.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="1:1">
+      <c r="A4" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" ht="23" customHeight="1" spans="1:1">
+      <c r="A20" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="21" ht="30" customHeight="1" spans="1:1">
+      <c r="A21" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="22" ht="135" customHeight="1" spans="1:2">
+      <c r="A22" t="s">
+        <v>78</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -1619,7 +1701,7 @@
       <c r="B6" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="2" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1634,7 +1716,7 @@
       </c>
     </row>
     <row r="9" ht="135" customHeight="1" spans="3:3">
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="2" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1759,12 +1841,12 @@
       </c>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="4" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:1">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="4" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1774,10 +1856,10 @@
       </c>
     </row>
     <row r="12" customFormat="1" ht="76" customHeight="1" spans="1:2">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="5" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1787,17 +1869,17 @@
       </c>
     </row>
     <row r="14" customFormat="1" spans="1:1">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:1">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="4" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:1">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="4" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1829,7 +1911,7 @@
       </c>
     </row>
     <row r="8" spans="1:1">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="4" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1837,12 +1919,12 @@
       <c r="A9" t="s">
         <v>30</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="2" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:1">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="4" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1889,18 +1971,18 @@
       </c>
     </row>
     <row r="8" ht="63" customHeight="1" spans="1:2">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="5" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="9" ht="136" customHeight="1" spans="1:2">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="5" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1918,7 +2000,7 @@
       <c r="A12" t="s">
         <v>46</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="2" t="s">
         <v>47</v>
       </c>
     </row>
@@ -1926,7 +2008,7 @@
       <c r="A13" t="s">
         <v>48</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="2" t="s">
         <v>49</v>
       </c>
     </row>
@@ -2027,12 +2109,12 @@
       <c r="A10" t="s">
         <v>63</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="2" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="11" ht="67.5" spans="1:2">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="3" t="s">
         <v>65</v>
       </c>
       <c r="B11" s="7" t="s">
@@ -2040,7 +2122,7 @@
       </c>
     </row>
     <row r="12" spans="1:1">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="4" t="s">
         <v>66</v>
       </c>
     </row>
@@ -2050,7 +2132,7 @@
       </c>
     </row>
     <row r="14" spans="1:1">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="4" t="s">
         <v>67</v>
       </c>
     </row>
@@ -2155,15 +2237,15 @@
       </c>
     </row>
     <row r="9" ht="36" customHeight="1" spans="1:1">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="4" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="10" ht="103" customHeight="1" spans="1:2">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="5" t="s">
         <v>72</v>
       </c>
     </row>
@@ -2211,7 +2293,7 @@
       <c r="A23" t="s">
         <v>75</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="2" t="s">
         <v>76</v>
       </c>
     </row>
@@ -2219,7 +2301,7 @@
       <c r="A24" t="s">
         <v>57</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="2" t="s">
         <v>77</v>
       </c>
     </row>
@@ -2243,7 +2325,7 @@
       <c r="A27" t="s">
         <v>78</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B27" s="2" t="s">
         <v>79</v>
       </c>
     </row>
@@ -2294,7 +2376,7 @@
       </c>
     </row>
     <row r="11" ht="91" customHeight="1" spans="2:2">
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="4" t="s">
         <v>74</v>
       </c>
     </row>
@@ -2304,7 +2386,7 @@
       </c>
     </row>
     <row r="20" spans="2:2">
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="4" t="s">
         <v>51</v>
       </c>
     </row>
@@ -2319,7 +2401,7 @@
       </c>
     </row>
     <row r="23" ht="34" customHeight="1" spans="2:2">
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="4" t="s">
         <v>55</v>
       </c>
     </row>
@@ -2327,7 +2409,7 @@
       <c r="B24" t="s">
         <v>75</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C24" s="2" t="s">
         <v>76</v>
       </c>
     </row>
@@ -2335,7 +2417,7 @@
       <c r="B25" t="s">
         <v>57</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C25" s="2" t="s">
         <v>77</v>
       </c>
     </row>
@@ -2359,7 +2441,7 @@
       <c r="B28" t="s">
         <v>78</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="C28" s="2" t="s">
         <v>82</v>
       </c>
     </row>

--- a/口袋猫猫/工作日志.xlsx
+++ b/口袋猫猫/工作日志.xlsx
@@ -558,13 +558,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -968,7 +968,7 @@
     <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1012,22 +1012,22 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
@@ -1450,7 +1450,7 @@
       </c>
     </row>
     <row r="8" ht="91" customHeight="1" spans="2:3">
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="2" t="s">
         <v>83</v>
       </c>
       <c r="C8" s="5" t="s">
@@ -1461,7 +1461,7 @@
       <c r="B9" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="3" t="s">
         <v>86</v>
       </c>
     </row>
@@ -1486,7 +1486,7 @@
       </c>
     </row>
     <row r="20" ht="38" customHeight="1" spans="2:3">
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="2" t="s">
         <v>75</v>
       </c>
       <c r="C20" s="5" t="s">
@@ -1494,7 +1494,7 @@
       </c>
     </row>
     <row r="21" ht="48" customHeight="1" spans="2:3">
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="2" t="s">
         <v>57</v>
       </c>
       <c r="C21" s="5" t="s">
@@ -1502,18 +1502,18 @@
       </c>
     </row>
     <row r="22" ht="42" customHeight="1" spans="2:3">
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="C22" s="2" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="23" ht="51" customHeight="1" spans="2:3">
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="C23" s="2" t="s">
         <v>62</v>
       </c>
     </row>
@@ -1521,7 +1521,7 @@
       <c r="B24" t="s">
         <v>78</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C24" s="3" t="s">
         <v>82</v>
       </c>
     </row>
@@ -1572,10 +1572,10 @@
       </c>
     </row>
     <row r="12" ht="61" customHeight="1" spans="1:2">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="4" t="s">
         <v>91</v>
       </c>
     </row>
@@ -1585,7 +1585,7 @@
       </c>
     </row>
     <row r="21" spans="1:1">
-      <c r="A21" s="4" t="s">
+      <c r="A21" s="2" t="s">
         <v>69</v>
       </c>
     </row>
@@ -1603,12 +1603,12 @@
       <c r="A24" t="s">
         <v>78</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="3" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="25" spans="1:1">
-      <c r="A25" s="4" t="s">
+      <c r="A25" s="2" t="s">
         <v>56</v>
       </c>
     </row>
@@ -1624,12 +1624,12 @@
   <dimension ref="A4:B22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="19" customWidth="1"/>
+    <col min="1" max="1" width="39.375" customWidth="1"/>
     <col min="2" max="2" width="67.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1659,7 +1659,7 @@
       </c>
     </row>
     <row r="20" ht="23" customHeight="1" spans="1:1">
-      <c r="A20" t="s">
+      <c r="A20" s="2" t="s">
         <v>80</v>
       </c>
     </row>
@@ -1672,7 +1672,7 @@
       <c r="A22" t="s">
         <v>78</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="3" t="s">
         <v>82</v>
       </c>
     </row>
@@ -1701,7 +1701,7 @@
       <c r="B6" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="3" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1716,7 +1716,7 @@
       </c>
     </row>
     <row r="9" ht="135" customHeight="1" spans="3:3">
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="3" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1841,12 +1841,12 @@
       </c>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="2" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:1">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="2" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1856,7 +1856,7 @@
       </c>
     </row>
     <row r="12" customFormat="1" ht="76" customHeight="1" spans="1:2">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B12" s="5" t="s">
@@ -1869,17 +1869,17 @@
       </c>
     </row>
     <row r="14" customFormat="1" spans="1:1">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:1">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="2" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:1">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="2" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1911,7 +1911,7 @@
       </c>
     </row>
     <row r="8" spans="1:1">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="2" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1919,12 +1919,12 @@
       <c r="A9" t="s">
         <v>30</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="3" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:1">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="2" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1971,7 +1971,7 @@
       </c>
     </row>
     <row r="8" ht="63" customHeight="1" spans="1:2">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="2" t="s">
         <v>40</v>
       </c>
       <c r="B8" s="5" t="s">
@@ -1979,7 +1979,7 @@
       </c>
     </row>
     <row r="9" ht="136" customHeight="1" spans="1:2">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="2" t="s">
         <v>42</v>
       </c>
       <c r="B9" s="5" t="s">
@@ -2000,7 +2000,7 @@
       <c r="A12" t="s">
         <v>46</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="3" t="s">
         <v>47</v>
       </c>
     </row>
@@ -2008,7 +2008,7 @@
       <c r="A13" t="s">
         <v>48</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="3" t="s">
         <v>49</v>
       </c>
     </row>
@@ -2109,12 +2109,12 @@
       <c r="A10" t="s">
         <v>63</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="3" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="11" ht="67.5" spans="1:2">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="4" t="s">
         <v>65</v>
       </c>
       <c r="B11" s="7" t="s">
@@ -2122,7 +2122,7 @@
       </c>
     </row>
     <row r="12" spans="1:1">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="2" t="s">
         <v>66</v>
       </c>
     </row>
@@ -2132,7 +2132,7 @@
       </c>
     </row>
     <row r="14" spans="1:1">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="2" t="s">
         <v>67</v>
       </c>
     </row>
@@ -2237,12 +2237,12 @@
       </c>
     </row>
     <row r="9" ht="36" customHeight="1" spans="1:1">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="2" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="10" ht="103" customHeight="1" spans="1:2">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="2" t="s">
         <v>71</v>
       </c>
       <c r="B10" s="5" t="s">
@@ -2293,7 +2293,7 @@
       <c r="A23" t="s">
         <v>75</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="3" t="s">
         <v>76</v>
       </c>
     </row>
@@ -2301,7 +2301,7 @@
       <c r="A24" t="s">
         <v>57</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="3" t="s">
         <v>77</v>
       </c>
     </row>
@@ -2325,7 +2325,7 @@
       <c r="A27" t="s">
         <v>78</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B27" s="3" t="s">
         <v>79</v>
       </c>
     </row>
@@ -2376,7 +2376,7 @@
       </c>
     </row>
     <row r="11" ht="91" customHeight="1" spans="2:2">
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="2" t="s">
         <v>74</v>
       </c>
     </row>
@@ -2386,7 +2386,7 @@
       </c>
     </row>
     <row r="20" spans="2:2">
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="2" t="s">
         <v>51</v>
       </c>
     </row>
@@ -2401,7 +2401,7 @@
       </c>
     </row>
     <row r="23" ht="34" customHeight="1" spans="2:2">
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="2" t="s">
         <v>55</v>
       </c>
     </row>
@@ -2409,7 +2409,7 @@
       <c r="B24" t="s">
         <v>75</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C24" s="3" t="s">
         <v>76</v>
       </c>
     </row>
@@ -2417,7 +2417,7 @@
       <c r="B25" t="s">
         <v>57</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C25" s="3" t="s">
         <v>77</v>
       </c>
     </row>
@@ -2441,7 +2441,7 @@
       <c r="B28" t="s">
         <v>78</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="C28" s="3" t="s">
         <v>82</v>
       </c>
     </row>

--- a/口袋猫猫/工作日志.xlsx
+++ b/口袋猫猫/工作日志.xlsx
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="94">
   <si>
     <t>方块设计：</t>
   </si>
@@ -358,6 +358,9 @@
   </si>
   <si>
     <t>传送带的效果设计</t>
+  </si>
+  <si>
+    <t>方块音效优化</t>
   </si>
 </sst>
 </file>
@@ -1624,7 +1627,7 @@
   <dimension ref="A4:B22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
@@ -1649,8 +1652,13 @@
       </c>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7" t="s">
+      <c r="A7" s="2" t="s">
         <v>92</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="19" spans="1:1">

--- a/口袋猫猫/工作日志.xlsx
+++ b/口袋猫猫/工作日志.xlsx
@@ -4,21 +4,23 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28530" windowHeight="13920" activeTab="11"/>
+    <workbookView windowWidth="28530" windowHeight="13920" activeTab="13"/>
   </bookViews>
   <sheets>
-    <sheet name="玩法设计" sheetId="8" r:id="rId1"/>
-    <sheet name="无尽模式设计" sheetId="7" r:id="rId2"/>
-    <sheet name="6.8" sheetId="1" r:id="rId3"/>
-    <sheet name="6.9" sheetId="2" r:id="rId4"/>
-    <sheet name="6.10" sheetId="3" r:id="rId5"/>
-    <sheet name="6.11" sheetId="4" r:id="rId6"/>
-    <sheet name="6.12" sheetId="5" r:id="rId7"/>
-    <sheet name="6.13" sheetId="6" r:id="rId8"/>
-    <sheet name="6.14" sheetId="9" r:id="rId9"/>
-    <sheet name="6.15" sheetId="10" r:id="rId10"/>
-    <sheet name="6.16" sheetId="11" r:id="rId11"/>
-    <sheet name="6.17" sheetId="12" r:id="rId12"/>
+    <sheet name="系统模块" sheetId="14" r:id="rId1"/>
+    <sheet name="玩法设计" sheetId="8" r:id="rId2"/>
+    <sheet name="无尽模式设计" sheetId="7" r:id="rId3"/>
+    <sheet name="6.8" sheetId="1" r:id="rId4"/>
+    <sheet name="6.9" sheetId="2" r:id="rId5"/>
+    <sheet name="6.10" sheetId="3" r:id="rId6"/>
+    <sheet name="6.11" sheetId="4" r:id="rId7"/>
+    <sheet name="6.12" sheetId="5" r:id="rId8"/>
+    <sheet name="6.13" sheetId="6" r:id="rId9"/>
+    <sheet name="6.14" sheetId="9" r:id="rId10"/>
+    <sheet name="6.15" sheetId="10" r:id="rId11"/>
+    <sheet name="6.16" sheetId="11" r:id="rId12"/>
+    <sheet name="6.17" sheetId="12" r:id="rId13"/>
+    <sheet name="6.18" sheetId="13" r:id="rId14"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +40,37 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="111">
+  <si>
+    <t>关卡模式</t>
+  </si>
+  <si>
+    <t>关卡模块目前逐步开放的玩法：
+石块：阻止方块位移
+木箱：相邻方块被消除时爆炸，在原地产生新的方块
+多消：同时消除3个方块，产生飞弹；消除3个以上，产生炸弹
+传送门：方块可以在传送门之间传送，传送方向和位移方向一致
+传送带：传送带上的物体每回合会朝着传送带的方向移动1格</t>
+  </si>
+  <si>
+    <t>每日挑战（原无尽模式）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">解锁条件：通过第10关
+分数每日凌晨4点清空
+每天的地图都不相同，根据星期几，在7张？地图间做循环？
+</t>
+  </si>
+  <si>
+    <t>每日任务</t>
+  </si>
+  <si>
+    <t>每日登录 20G
+每日分享 30G
+使用1次道具 50G
+挑战1次无尽 50G
+挑战1次关卡(要是打通关了就没办法完成了，如果通关了则自动完成？) 20G</t>
+  </si>
   <si>
     <t>方块设计：</t>
   </si>
@@ -361,6 +393,51 @@
   </si>
   <si>
     <t>方块音效优化</t>
+  </si>
+  <si>
+    <t>体力系统，在切进切除时，记录时间点</t>
+  </si>
+  <si>
+    <t>切进游戏后计算体力回复量</t>
+  </si>
+  <si>
+    <t>排行榜</t>
+  </si>
+  <si>
+    <t>排行榜分为两个，关卡排行榜和无尽分数排行榜</t>
+  </si>
+  <si>
+    <t>也是类似成就的一个列表</t>
+  </si>
+  <si>
+    <t>用一个数组存储每日完成的任务ID，每天早上4点在云开发中清空此数组
+任务列表：
+每日登录 20G
+每日分享 30G
+使用1次道具 50G
+挑战1次无尽 50G
+挑战1次关卡(要是打通关了就没办法完成了) 20G</t>
+  </si>
+  <si>
+    <t>主界面按钮调整</t>
+  </si>
+  <si>
+    <t xml:space="preserve">无尽模式 改成 每日挑战？
+每日任务按钮
+排行榜按钮
+邀请好友按钮
+游戏圈按钮
+其他作品按钮
+</t>
+  </si>
+  <si>
+    <t>体力倒计时恢复窗口</t>
+  </si>
+  <si>
+    <t>金币体力条加个+号按钮</t>
+  </si>
+  <si>
+    <t>点击后出2级弹窗，描述看广告可以获得多少体力</t>
   </si>
 </sst>
 </file>
@@ -1008,7 +1085,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1017,6 +1094,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1356,74 +1436,41 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C8:D22"/>
+  <dimension ref="A3:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
   <cols>
-    <col min="3" max="3" width="23.875" customWidth="1"/>
-    <col min="4" max="4" width="81.625" customWidth="1"/>
+    <col min="1" max="1" width="52.375" customWidth="1"/>
+    <col min="2" max="2" width="80.25" customWidth="1"/>
+    <col min="3" max="3" width="38" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="8" ht="27" spans="3:3">
-      <c r="C8" s="10" t="s">
+    <row r="3" ht="180" customHeight="1" spans="1:2">
+      <c r="A3" s="10" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="3:4">
-      <c r="C9" t="s">
+      <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D9" t="s">
+    </row>
+    <row r="7" ht="141" customHeight="1" spans="1:2">
+      <c r="A7" s="10" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="10" ht="48" customHeight="1" spans="3:4">
-      <c r="C10" t="s">
+      <c r="B7" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D10" t="s">
+    </row>
+    <row r="11" ht="124" customHeight="1" spans="1:2">
+      <c r="A11" s="10" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="3:4">
-      <c r="C11" t="s">
+      <c r="B11" s="3" t="s">
         <v>5</v>
-      </c>
-      <c r="D11" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19" ht="24" spans="3:3">
-      <c r="C19" s="11" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="20" ht="75" customHeight="1" spans="3:4">
-      <c r="C20" t="s">
-        <v>8</v>
-      </c>
-      <c r="D20" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21" ht="91" customHeight="1" spans="3:4">
-      <c r="C21" t="s">
-        <v>10</v>
-      </c>
-      <c r="D21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="22" spans="3:4">
-      <c r="C22" t="s">
-        <v>12</v>
-      </c>
-      <c r="D22" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -1433,6 +1480,117 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="B9:C30"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24:C31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
+  <cols>
+    <col min="2" max="2" width="57.875" customWidth="1"/>
+    <col min="3" max="3" width="79" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="9" spans="2:2">
+      <c r="B9" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" ht="74" customHeight="1" spans="2:2">
+      <c r="B10" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="11" ht="91" customHeight="1" spans="2:2">
+      <c r="B11" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2">
+      <c r="B19" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2">
+      <c r="B20" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2">
+      <c r="B21" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2">
+      <c r="B22" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="23" ht="34" customHeight="1" spans="2:2">
+      <c r="B23" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="24" ht="49" customHeight="1" spans="2:3">
+      <c r="B24" t="s">
+        <v>81</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="25" ht="27" spans="2:3">
+      <c r="B25" t="s">
+        <v>63</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3">
+      <c r="B26" t="s">
+        <v>65</v>
+      </c>
+      <c r="C26" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3">
+      <c r="B27" t="s">
+        <v>67</v>
+      </c>
+      <c r="C27" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="28" ht="54" spans="2:3">
+      <c r="B28" t="s">
+        <v>84</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2">
+      <c r="B29" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2">
+      <c r="B30" t="s">
+        <v>86</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="B7:C26"/>
@@ -1449,93 +1607,93 @@
   <sheetData>
     <row r="7" spans="2:2">
       <c r="B7" s="1" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" ht="91" customHeight="1" spans="2:3">
       <c r="B8" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>84</v>
+        <v>89</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="9" ht="110" customHeight="1" spans="2:3">
-      <c r="B9" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>86</v>
+      <c r="B9" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="10" spans="2:2">
       <c r="B10" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" s="1" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="2:2">
       <c r="B18" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
     </row>
     <row r="19" ht="69" customHeight="1" spans="2:2">
       <c r="B19" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
     </row>
     <row r="20" ht="38" customHeight="1" spans="2:3">
       <c r="B20" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>76</v>
+        <v>81</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="21" ht="48" customHeight="1" spans="2:3">
       <c r="B21" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>58</v>
+        <v>63</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="22" ht="42" customHeight="1" spans="2:3">
       <c r="B22" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
     </row>
     <row r="23" ht="51" customHeight="1" spans="2:3">
       <c r="B23" s="2" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
     </row>
     <row r="24" ht="54" spans="2:3">
       <c r="B24" t="s">
-        <v>78</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>82</v>
+        <v>84</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="25" spans="2:2">
       <c r="B25" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
     </row>
     <row r="26" spans="2:2">
       <c r="B26" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -1544,7 +1702,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A9:B25"/>
@@ -1561,58 +1719,58 @@
   <sheetData>
     <row r="9" spans="1:1">
       <c r="A9" s="1" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
     </row>
     <row r="12" ht="61" customHeight="1" spans="1:2">
-      <c r="A12" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>91</v>
+      <c r="A12" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="1" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="2" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
     </row>
     <row r="24" ht="111" customHeight="1" spans="1:2">
       <c r="A24" t="s">
-        <v>78</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>82</v>
+        <v>84</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" s="2" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -1621,13 +1779,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A4:B22"/>
+  <dimension ref="A4:B24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A21" sqref="A21:B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
@@ -1638,50 +1796,181 @@
   <sheetData>
     <row r="4" spans="1:1">
       <c r="A4" s="1" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="2" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
     </row>
     <row r="8" spans="1:1">
-      <c r="A8" t="s">
-        <v>93</v>
+      <c r="A8" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>100</v>
+      </c>
+      <c r="B9" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="1" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" ht="23" customHeight="1" spans="1:1">
       <c r="A20" s="2" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
     </row>
     <row r="21" ht="30" customHeight="1" spans="1:1">
       <c r="A21" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" ht="135" customHeight="1" spans="1:2">
       <c r="A22" t="s">
-        <v>78</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>82</v>
+        <v>84</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>102</v>
+      </c>
+      <c r="B23" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="24" ht="31" customHeight="1" spans="1:2">
+      <c r="A24" t="s">
+        <v>4</v>
+      </c>
+      <c r="B24" t="s">
+        <v>104</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A6:B23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="43.375" customWidth="1"/>
+    <col min="2" max="2" width="70.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="6" spans="1:1">
+      <c r="A6" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" ht="40" customHeight="1" spans="1:1">
+      <c r="A7" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="8" ht="36" customHeight="1" spans="1:1">
+      <c r="A8" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="9" ht="57" customHeight="1" spans="1:2">
+      <c r="A9" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="10" ht="165" customHeight="1" spans="1:2">
+      <c r="A10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="11" ht="190" customHeight="1" spans="1:2">
+      <c r="A11" t="s">
+        <v>106</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="12" ht="45" customHeight="1" spans="1:1">
+      <c r="A12" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="13" ht="59" customHeight="1" spans="1:2">
+      <c r="A13" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" ht="54" customHeight="1" spans="1:1">
+      <c r="A20" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="21" ht="90" customHeight="1" spans="1:2">
+      <c r="A21" t="s">
+        <v>84</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="22" ht="61" customHeight="1" spans="1:2">
+      <c r="A22" t="s">
+        <v>102</v>
+      </c>
+      <c r="B22" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="23" ht="67" customHeight="1" spans="1:2">
+      <c r="A23" t="s">
+        <v>4</v>
+      </c>
+      <c r="B23" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -1693,10 +1982,89 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
+  <dimension ref="C8:D22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <cols>
+    <col min="3" max="3" width="23.875" customWidth="1"/>
+    <col min="4" max="4" width="81.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="8" ht="27" spans="3:3">
+      <c r="C8" s="11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="3:4">
+      <c r="C9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" ht="48" customHeight="1" spans="3:4">
+      <c r="C10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="3:4">
+      <c r="C11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" ht="24" spans="3:3">
+      <c r="C19" s="12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" ht="75" customHeight="1" spans="3:4">
+      <c r="C20" t="s">
+        <v>14</v>
+      </c>
+      <c r="D20" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" ht="91" customHeight="1" spans="3:4">
+      <c r="C21" t="s">
+        <v>16</v>
+      </c>
+      <c r="D21" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="3:4">
+      <c r="C22" t="s">
+        <v>18</v>
+      </c>
+      <c r="D22" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="B6:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -1706,26 +2074,26 @@
   </cols>
   <sheetData>
     <row r="6" ht="78" customHeight="1" spans="2:3">
-      <c r="B6" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>15</v>
+      <c r="B6" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="7" ht="81" customHeight="1" spans="3:3">
       <c r="C7" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" ht="77" customHeight="1" spans="3:3">
       <c r="C8" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" ht="135" customHeight="1" spans="3:3">
-      <c r="C9" s="3" t="s">
-        <v>18</v>
+      <c r="C9" s="4" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -1734,7 +2102,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A5:B20"/>
@@ -1751,12 +2119,12 @@
   <sheetData>
     <row r="5" spans="1:1">
       <c r="A5" s="1" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -1764,7 +2132,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -1772,7 +2140,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -1780,7 +2148,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -1788,32 +2156,32 @@
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="1" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -1823,7 +2191,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A5:B16"/>
@@ -1840,55 +2208,55 @@
   <sheetData>
     <row r="5" customFormat="1" spans="1:1">
       <c r="A5" s="1" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" customFormat="1" spans="1:1">
       <c r="A6" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="2" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="2" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" customFormat="1" spans="1:1">
       <c r="A11" s="1" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" customFormat="1" ht="76" customHeight="1" spans="1:2">
       <c r="A12" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="13" customFormat="1" spans="1:1">
       <c r="A13" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" customFormat="1" spans="1:1">
       <c r="A14" s="2" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="2" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="2" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -1898,7 +2266,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A7:B19"/>
@@ -1915,40 +2283,40 @@
   <sheetData>
     <row r="7" spans="1:1">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="2" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" ht="70" customHeight="1" spans="1:2">
       <c r="A9" t="s">
-        <v>30</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="2" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="1" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -1958,7 +2326,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A7:B26"/>
@@ -1975,49 +2343,49 @@
   <sheetData>
     <row r="7" spans="1:1">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" ht="63" customHeight="1" spans="1:2">
       <c r="A8" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>41</v>
+        <v>46</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="9" ht="136" customHeight="1" spans="1:2">
       <c r="A9" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>43</v>
+        <v>48</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" ht="126" customHeight="1" spans="1:2">
       <c r="A12" t="s">
-        <v>46</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>47</v>
+        <v>52</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="13" ht="71" customHeight="1" spans="1:2">
       <c r="A13" t="s">
-        <v>48</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>49</v>
+        <v>54</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:1">
@@ -2025,66 +2393,66 @@
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="1" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
     </row>
     <row r="24" ht="84" customHeight="1" spans="1:2">
       <c r="A24" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="B24" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
     </row>
     <row r="25" ht="55" customHeight="1" spans="1:2">
       <c r="A25" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="B25" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="B26" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -2093,7 +2461,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A9:B35"/>
@@ -2110,112 +2478,112 @@
   <sheetData>
     <row r="9" spans="1:1">
       <c r="A9" s="1" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" ht="117" customHeight="1" spans="1:2">
       <c r="A10" t="s">
-        <v>63</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>64</v>
+        <v>69</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="11" ht="67.5" spans="1:2">
-      <c r="A11" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>49</v>
+      <c r="A11" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
     </row>
     <row r="13" spans="1:1">
-      <c r="A13" s="8" t="s">
-        <v>56</v>
+      <c r="A13" s="9" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="2" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="B31" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="B32" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="B33" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -2224,7 +2592,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A8:B30"/>
@@ -2241,226 +2609,115 @@
   <sheetData>
     <row r="8" spans="1:1">
       <c r="A8" s="1" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" ht="36" customHeight="1" spans="1:1">
       <c r="A9" s="2" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
     </row>
     <row r="10" ht="103" customHeight="1" spans="1:2">
       <c r="A10" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>72</v>
+        <v>77</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="11" ht="38" customHeight="1" spans="1:1">
       <c r="A11" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="1" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
     </row>
     <row r="23" ht="38" customHeight="1" spans="1:2">
       <c r="A23" t="s">
-        <v>75</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>76</v>
+        <v>81</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="24" ht="54" customHeight="1" spans="1:2">
       <c r="A24" t="s">
-        <v>57</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>77</v>
+        <v>63</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="25" ht="26" customHeight="1" spans="1:2">
       <c r="A25" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="B25" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
     </row>
     <row r="26" ht="42" customHeight="1" spans="1:2">
       <c r="A26" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="B26" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
     </row>
     <row r="27" ht="27" spans="1:2">
       <c r="A27" t="s">
-        <v>78</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>79</v>
+        <v>84</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" t="s">
-        <v>81</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="B9:C30"/>
-  <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24:C31"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
-  <cols>
-    <col min="2" max="2" width="57.875" customWidth="1"/>
-    <col min="3" max="3" width="79" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="9" spans="2:2">
-      <c r="B9" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" ht="74" customHeight="1" spans="2:2">
-      <c r="B10" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="11" ht="91" customHeight="1" spans="2:2">
-      <c r="B11" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="19" spans="2:2">
-      <c r="B19" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="20" spans="2:2">
-      <c r="B20" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="21" spans="2:2">
-      <c r="B21" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="22" spans="2:2">
-      <c r="B22" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="23" ht="34" customHeight="1" spans="2:2">
-      <c r="B23" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="24" ht="49" customHeight="1" spans="2:3">
-      <c r="B24" t="s">
-        <v>75</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="25" ht="27" spans="2:3">
-      <c r="B25" t="s">
-        <v>57</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="26" spans="2:3">
-      <c r="B26" t="s">
-        <v>59</v>
-      </c>
-      <c r="C26" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="27" spans="2:3">
-      <c r="B27" t="s">
-        <v>61</v>
-      </c>
-      <c r="C27" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="28" ht="54" spans="2:3">
-      <c r="B28" t="s">
-        <v>78</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="29" spans="2:2">
-      <c r="B29" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="30" spans="2:2">
-      <c r="B30" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>

--- a/口袋猫猫/工作日志.xlsx
+++ b/口袋猫猫/工作日志.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28530" windowHeight="13920" activeTab="13"/>
+    <workbookView windowWidth="26640" windowHeight="13305"/>
   </bookViews>
   <sheets>
     <sheet name="系统模块" sheetId="14" r:id="rId1"/>
@@ -65,7 +65,8 @@
     <t>每日任务</t>
   </si>
   <si>
-    <t>每日登录 20G
+    <t>用一个数组存储每日完成的任务ID，每天早上4点在云开发中清空此数组
+每日登录 20G
 每日分享 30G
 使用1次道具 50G
 挑战1次无尽 50G
@@ -415,8 +416,17 @@
 每日登录 20G
 每日分享 30G
 使用1次道具 50G
-挑战1次无尽 50G
+挑战1次无尽 30G
 挑战1次关卡(要是打通关了就没办法完成了) 20G</t>
+  </si>
+  <si>
+    <t>体力倒计时恢复窗口</t>
+  </si>
+  <si>
+    <t>金币体力条加个+号按钮</t>
+  </si>
+  <si>
+    <t>点击后出2级弹窗，描述看广告可以获得多少体力</t>
   </si>
   <si>
     <t>主界面按钮调整</t>
@@ -429,15 +439,6 @@
 游戏圈按钮
 其他作品按钮
 </t>
-  </si>
-  <si>
-    <t>体力倒计时恢复窗口</t>
-  </si>
-  <si>
-    <t>金币体力条加个+号按钮</t>
-  </si>
-  <si>
-    <t>点击后出2级弹窗，描述看广告可以获得多少体力</t>
   </si>
 </sst>
 </file>
@@ -1438,8 +1439,8 @@
   <sheetPr/>
   <dimension ref="A3:B11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
@@ -1875,10 +1876,10 @@
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A6:B23"/>
+  <dimension ref="A4:B21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
@@ -1887,90 +1888,90 @@
     <col min="2" max="2" width="70.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="1:1">
-      <c r="A6" s="1" t="s">
+    <row r="4" spans="1:1">
+      <c r="A4" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="7" ht="40" customHeight="1" spans="1:1">
-      <c r="A7" t="s">
+    <row r="5" ht="40" customHeight="1" spans="1:1">
+      <c r="A5" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="8" ht="36" customHeight="1" spans="1:1">
+    <row r="6" ht="36" customHeight="1" spans="1:1">
+      <c r="A6" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="7" ht="57" customHeight="1" spans="1:2">
+      <c r="A7" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="8" ht="147" customHeight="1" spans="1:2">
       <c r="A8" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="9" ht="57" customHeight="1" spans="1:2">
+        <v>4</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="9" ht="45" customHeight="1" spans="1:1">
       <c r="A9" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="10" ht="165" customHeight="1" spans="1:2">
-      <c r="A10" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="10" ht="59" customHeight="1" spans="1:2">
+      <c r="A10" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" ht="54" customHeight="1" spans="1:1">
+      <c r="A17" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" ht="90" customHeight="1" spans="1:2">
+      <c r="A18" t="s">
+        <v>84</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="19" ht="61" customHeight="1" spans="1:2">
+      <c r="A19" t="s">
+        <v>102</v>
+      </c>
+      <c r="B19" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="20" ht="67" customHeight="1" spans="1:2">
+      <c r="A20" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="11" ht="190" customHeight="1" spans="1:2">
-      <c r="A11" t="s">
-        <v>106</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="12" ht="45" customHeight="1" spans="1:1">
-      <c r="A12" s="2" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="13" ht="59" customHeight="1" spans="1:2">
-      <c r="A13" s="2" t="s">
+      <c r="B20" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="21" ht="108" spans="1:2">
+      <c r="A21" t="s">
         <v>109</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B21" s="3" t="s">
         <v>110</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="20" ht="54" customHeight="1" spans="1:1">
-      <c r="A20" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="21" ht="90" customHeight="1" spans="1:2">
-      <c r="A21" t="s">
-        <v>84</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="22" ht="61" customHeight="1" spans="1:2">
-      <c r="A22" t="s">
-        <v>102</v>
-      </c>
-      <c r="B22" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="23" ht="67" customHeight="1" spans="1:2">
-      <c r="A23" t="s">
-        <v>4</v>
-      </c>
-      <c r="B23" t="s">
-        <v>104</v>
       </c>
     </row>
   </sheetData>

--- a/口袋猫猫/工作日志.xlsx
+++ b/口袋猫猫/工作日志.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26640" windowHeight="13305"/>
+    <workbookView windowWidth="26640" windowHeight="13305" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="系统模块" sheetId="14" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="112">
   <si>
     <t>关卡模式</t>
   </si>
@@ -420,6 +420,9 @@
 挑战1次关卡(要是打通关了就没办法完成了) 20G</t>
   </si>
   <si>
+    <t>红点系统</t>
+  </si>
+  <si>
     <t>体力倒计时恢复窗口</t>
   </si>
   <si>
@@ -437,7 +440,6 @@
 排行榜按钮
 邀请好友按钮
 游戏圈按钮
-其他作品按钮
 </t>
   </si>
 </sst>
@@ -630,7 +632,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -640,6 +642,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -962,7 +970,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -986,16 +994,16 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1004,89 +1012,89 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1099,22 +1107,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -1439,7 +1450,7 @@
   <sheetPr/>
   <dimension ref="A3:B11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
@@ -1451,7 +1462,7 @@
   </cols>
   <sheetData>
     <row r="3" ht="180" customHeight="1" spans="1:2">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="11" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -1459,7 +1470,7 @@
       </c>
     </row>
     <row r="7" ht="141" customHeight="1" spans="1:2">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="11" t="s">
         <v>2</v>
       </c>
       <c r="B7" s="3" t="s">
@@ -1467,7 +1478,7 @@
       </c>
     </row>
     <row r="11" ht="124" customHeight="1" spans="1:2">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="11" t="s">
         <v>4</v>
       </c>
       <c r="B11" s="3" t="s">
@@ -1539,7 +1550,7 @@
       <c r="B24" t="s">
         <v>81</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="C24" s="5" t="s">
         <v>82</v>
       </c>
     </row>
@@ -1547,7 +1558,7 @@
       <c r="B25" t="s">
         <v>63</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="C25" s="5" t="s">
         <v>83</v>
       </c>
     </row>
@@ -1571,7 +1582,7 @@
       <c r="B28" t="s">
         <v>84</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="C28" s="5" t="s">
         <v>88</v>
       </c>
     </row>
@@ -1615,15 +1626,15 @@
       <c r="B8" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="7" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="9" ht="110" customHeight="1" spans="2:3">
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="5" t="s">
         <v>92</v>
       </c>
     </row>
@@ -1651,7 +1662,7 @@
       <c r="B20" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C20" s="7" t="s">
         <v>82</v>
       </c>
     </row>
@@ -1659,7 +1670,7 @@
       <c r="B21" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="C21" s="7" t="s">
         <v>64</v>
       </c>
     </row>
@@ -1683,7 +1694,7 @@
       <c r="B24" t="s">
         <v>84</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="C24" s="5" t="s">
         <v>88</v>
       </c>
     </row>
@@ -1734,10 +1745,10 @@
       </c>
     </row>
     <row r="12" ht="61" customHeight="1" spans="1:2">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="6" t="s">
         <v>97</v>
       </c>
     </row>
@@ -1765,7 +1776,7 @@
       <c r="A24" t="s">
         <v>84</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B24" s="5" t="s">
         <v>88</v>
       </c>
     </row>
@@ -1847,7 +1858,7 @@
       <c r="A22" t="s">
         <v>84</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="5" t="s">
         <v>88</v>
       </c>
     </row>
@@ -1876,15 +1887,15 @@
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A4:B21"/>
+  <dimension ref="A4:B22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="43.375" customWidth="1"/>
+    <col min="1" max="1" width="34.875" customWidth="1"/>
     <col min="2" max="2" width="70.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1920,58 +1931,63 @@
       </c>
     </row>
     <row r="9" ht="45" customHeight="1" spans="1:1">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="4" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="10" ht="59" customHeight="1" spans="1:2">
+    <row r="10" ht="45" customHeight="1" spans="1:1">
       <c r="A10" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="B10" s="2" t="s">
+    </row>
+    <row r="11" ht="59" customHeight="1" spans="1:2">
+      <c r="A11" s="2" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="16" spans="1:1">
-      <c r="A16" s="1" t="s">
+      <c r="B11" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="17" ht="54" customHeight="1" spans="1:1">
-      <c r="A17" t="s">
+    <row r="18" ht="54" customHeight="1" spans="1:1">
+      <c r="A18" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="18" ht="90" customHeight="1" spans="1:2">
-      <c r="A18" t="s">
+    <row r="19" ht="90" customHeight="1" spans="1:2">
+      <c r="A19" t="s">
         <v>84</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B19" s="5" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="19" ht="61" customHeight="1" spans="1:2">
-      <c r="A19" t="s">
+    <row r="20" ht="61" customHeight="1" spans="1:2">
+      <c r="A20" t="s">
         <v>102</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B20" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="20" ht="67" customHeight="1" spans="1:2">
-      <c r="A20" t="s">
+    <row r="21" ht="67" customHeight="1" spans="1:2">
+      <c r="A21" t="s">
         <v>4</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B21" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="21" ht="108" spans="1:2">
-      <c r="A21" t="s">
-        <v>109</v>
-      </c>
-      <c r="B21" s="3" t="s">
+    <row r="22" ht="94.5" spans="1:2">
+      <c r="A22" t="s">
         <v>110</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -1996,7 +2012,7 @@
   </cols>
   <sheetData>
     <row r="8" ht="27" spans="3:3">
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="12" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2025,7 +2041,7 @@
       </c>
     </row>
     <row r="19" ht="24" spans="3:3">
-      <c r="C19" s="12" t="s">
+      <c r="C19" s="13" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2075,10 +2091,10 @@
   </cols>
   <sheetData>
     <row r="6" ht="78" customHeight="1" spans="2:3">
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="5" t="s">
         <v>21</v>
       </c>
     </row>
@@ -2093,7 +2109,7 @@
       </c>
     </row>
     <row r="9" ht="135" customHeight="1" spans="3:3">
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="5" t="s">
         <v>24</v>
       </c>
     </row>
@@ -2236,7 +2252,7 @@
       <c r="A12" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="7" t="s">
         <v>39</v>
       </c>
     </row>
@@ -2296,7 +2312,7 @@
       <c r="A9" t="s">
         <v>36</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="5" t="s">
         <v>43</v>
       </c>
     </row>
@@ -2351,7 +2367,7 @@
       <c r="A8" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="7" t="s">
         <v>47</v>
       </c>
     </row>
@@ -2359,7 +2375,7 @@
       <c r="A9" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="7" t="s">
         <v>49</v>
       </c>
     </row>
@@ -2377,7 +2393,7 @@
       <c r="A12" t="s">
         <v>52</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="5" t="s">
         <v>53</v>
       </c>
     </row>
@@ -2385,7 +2401,7 @@
       <c r="A13" t="s">
         <v>54</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="5" t="s">
         <v>55</v>
       </c>
     </row>
@@ -2486,15 +2502,15 @@
       <c r="A10" t="s">
         <v>69</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="5" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="11" ht="67.5" spans="1:2">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="9" t="s">
         <v>55</v>
       </c>
     </row>
@@ -2504,7 +2520,7 @@
       </c>
     </row>
     <row r="13" spans="1:1">
-      <c r="A13" s="9" t="s">
+      <c r="A13" s="10" t="s">
         <v>62</v>
       </c>
     </row>
@@ -2622,7 +2638,7 @@
       <c r="A10" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="7" t="s">
         <v>78</v>
       </c>
     </row>
@@ -2670,7 +2686,7 @@
       <c r="A23" t="s">
         <v>81</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="5" t="s">
         <v>82</v>
       </c>
     </row>
@@ -2678,7 +2694,7 @@
       <c r="A24" t="s">
         <v>63</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B24" s="5" t="s">
         <v>83</v>
       </c>
     </row>
@@ -2702,7 +2718,7 @@
       <c r="A27" t="s">
         <v>84</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="B27" s="5" t="s">
         <v>85</v>
       </c>
     </row>

--- a/口袋猫猫/工作日志.xlsx
+++ b/口袋猫猫/工作日志.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26640" windowHeight="13305" activeTab="13"/>
+    <workbookView windowWidth="26640" windowHeight="15120" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="系统模块" sheetId="14" r:id="rId1"/>
@@ -412,6 +412,7 @@
   </si>
   <si>
     <t>用一个数组存储每日完成的任务ID，每天早上4点在云开发中清空此数组
+任务红点
 任务列表：
 每日登录 20G
 每日分享 30G
@@ -420,9 +421,6 @@
 挑战1次关卡(要是打通关了就没办法完成了) 20G</t>
   </si>
   <si>
-    <t>红点系统</t>
-  </si>
-  <si>
     <t>体力倒计时恢复窗口</t>
   </si>
   <si>
@@ -430,6 +428,9 @@
   </si>
   <si>
     <t>点击后出2级弹窗，描述看广告可以获得多少体力</t>
+  </si>
+  <si>
+    <t>传送带以及对应箭头</t>
   </si>
   <si>
     <t>主界面按钮调整</t>
@@ -440,6 +441,7 @@
 排行榜按钮
 邀请好友按钮
 游戏圈按钮
+加号按钮
 </t>
   </si>
 </sst>
@@ -632,7 +634,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -642,12 +644,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -970,7 +966,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -994,16 +990,16 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1012,85 +1008,85 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1104,28 +1100,28 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -1448,10 +1444,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A3:B11"/>
+  <dimension ref="A2:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
@@ -1461,11 +1457,12 @@
     <col min="3" max="3" width="38" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="2" ht="87" customHeight="1"/>
     <row r="3" ht="180" customHeight="1" spans="1:2">
       <c r="A3" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="5" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1473,7 +1470,7 @@
       <c r="A7" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="5" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1481,7 +1478,7 @@
       <c r="A11" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="5" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1550,7 +1547,7 @@
       <c r="B24" t="s">
         <v>81</v>
       </c>
-      <c r="C24" s="5" t="s">
+      <c r="C24" s="4" t="s">
         <v>82</v>
       </c>
     </row>
@@ -1558,7 +1555,7 @@
       <c r="B25" t="s">
         <v>63</v>
       </c>
-      <c r="C25" s="5" t="s">
+      <c r="C25" s="4" t="s">
         <v>83</v>
       </c>
     </row>
@@ -1582,7 +1579,7 @@
       <c r="B28" t="s">
         <v>84</v>
       </c>
-      <c r="C28" s="5" t="s">
+      <c r="C28" s="4" t="s">
         <v>88</v>
       </c>
     </row>
@@ -1634,7 +1631,7 @@
       <c r="B9" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="4" t="s">
         <v>92</v>
       </c>
     </row>
@@ -1694,7 +1691,7 @@
       <c r="B24" t="s">
         <v>84</v>
       </c>
-      <c r="C24" s="5" t="s">
+      <c r="C24" s="4" t="s">
         <v>88</v>
       </c>
     </row>
@@ -1776,7 +1773,7 @@
       <c r="A24" t="s">
         <v>84</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="B24" s="4" t="s">
         <v>88</v>
       </c>
     </row>
@@ -1858,7 +1855,7 @@
       <c r="A22" t="s">
         <v>84</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="4" t="s">
         <v>88</v>
       </c>
     </row>
@@ -1889,8 +1886,8 @@
   <sheetPr/>
   <dimension ref="A4:B22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
@@ -1923,7 +1920,7 @@
       </c>
     </row>
     <row r="8" ht="147" customHeight="1" spans="1:2">
-      <c r="A8" t="s">
+      <c r="A8" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B8" s="3" t="s">
@@ -1931,38 +1928,39 @@
       </c>
     </row>
     <row r="9" ht="45" customHeight="1" spans="1:1">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="2" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="10" ht="45" customHeight="1" spans="1:1">
+    <row r="10" ht="59" customHeight="1" spans="1:2">
       <c r="A10" s="2" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="11" ht="59" customHeight="1" spans="1:2">
-      <c r="A11" s="2" t="s">
+      <c r="B10" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="B11" s="2" t="s">
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" ht="54" customHeight="1" spans="1:1">
+      <c r="A17" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" ht="61" customHeight="1" spans="1:2">
+      <c r="A18" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="18" ht="54" customHeight="1" spans="1:1">
-      <c r="A18" t="s">
-        <v>60</v>
-      </c>
+      <c r="B18" s="4"/>
     </row>
     <row r="19" ht="90" customHeight="1" spans="1:2">
       <c r="A19" t="s">
         <v>84</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="4" t="s">
         <v>88</v>
       </c>
     </row>
@@ -1982,11 +1980,11 @@
         <v>104</v>
       </c>
     </row>
-    <row r="22" ht="94.5" spans="1:2">
+    <row r="22" ht="108" spans="1:2">
       <c r="A22" t="s">
         <v>110</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="5" t="s">
         <v>111</v>
       </c>
     </row>
@@ -2094,7 +2092,7 @@
       <c r="B6" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="4" t="s">
         <v>21</v>
       </c>
     </row>
@@ -2109,7 +2107,7 @@
       </c>
     </row>
     <row r="9" ht="135" customHeight="1" spans="3:3">
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="4" t="s">
         <v>24</v>
       </c>
     </row>
@@ -2312,7 +2310,7 @@
       <c r="A9" t="s">
         <v>36</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="4" t="s">
         <v>43</v>
       </c>
     </row>
@@ -2393,7 +2391,7 @@
       <c r="A12" t="s">
         <v>52</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="4" t="s">
         <v>53</v>
       </c>
     </row>
@@ -2401,7 +2399,7 @@
       <c r="A13" t="s">
         <v>54</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="4" t="s">
         <v>55</v>
       </c>
     </row>
@@ -2502,7 +2500,7 @@
       <c r="A10" t="s">
         <v>69</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="4" t="s">
         <v>70</v>
       </c>
     </row>
@@ -2686,7 +2684,7 @@
       <c r="A23" t="s">
         <v>81</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B23" s="4" t="s">
         <v>82</v>
       </c>
     </row>
@@ -2694,7 +2692,7 @@
       <c r="A24" t="s">
         <v>63</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="B24" s="4" t="s">
         <v>83</v>
       </c>
     </row>
@@ -2718,7 +2716,7 @@
       <c r="A27" t="s">
         <v>84</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="B27" s="4" t="s">
         <v>85</v>
       </c>
     </row>

--- a/口袋猫猫/工作日志.xlsx
+++ b/口袋猫猫/工作日志.xlsx
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="116">
   <si>
     <t>关卡模式</t>
   </si>
@@ -56,10 +56,12 @@
     <t>每日挑战（原无尽模式）</t>
   </si>
   <si>
-    <t xml:space="preserve">解锁条件：通过第10关
+    <t>解锁条件：通过第10关
 分数每日凌晨4点清空
 每天的地图都不相同，根据星期几，在7张？地图间做循环？
-</t>
+尝试着把排行榜的竞争机制融入到游戏中，当玩家在游戏的过程中，可以实时的看到前面的玩家的分数，并且当玩家的排名提升的时候，游戏中会给出明确的提示，以此来强化竞争的体验。
+在游戏结束时，也是把排行榜按钮放在最重要的位置，方便玩家查看自己的排名。
+【排行榜】【再来一次】【返回主界面】</t>
   </si>
   <si>
     <t>每日任务</t>
@@ -85,13 +87,13 @@
     <t>彩色方块</t>
   </si>
   <si>
-    <t>给场上所有方块随机换个颜色</t>
+    <t>给场上所有方块随机换个颜色（怎么来？）</t>
   </si>
   <si>
     <t>引爆方块</t>
   </si>
   <si>
-    <t>引爆场上某个颜色的所有方块</t>
+    <t>引爆场上某个颜色的所有方块（怎么来？）</t>
   </si>
   <si>
     <t>玩法设计：</t>
@@ -131,6 +133,10 @@
     <t>场上生成好N个方块，玩家消除，看消到最后场上剩余多少方块，剩的越少越好，得分就是消除方块的数量。
 比如生成各色方块各4个，有可能同时消除了3个，则剩下的那个就没法被消除了。
 结束条件就是，场上没有相同颜色的方块了。</t>
+  </si>
+  <si>
+    <t>传送带主题
+结合暂停格子和转弯格子？</t>
   </si>
   <si>
     <t>程序策划：</t>
@@ -428,6 +434,15 @@
   </si>
   <si>
     <t>点击后出2级弹窗，描述看广告可以获得多少体力</t>
+  </si>
+  <si>
+    <t>增强引导</t>
+  </si>
+  <si>
+    <t>表情拓展</t>
+  </si>
+  <si>
+    <t>吹口哨之类的</t>
   </si>
   <si>
     <t>传送带以及对应箭头</t>
@@ -1447,7 +1462,7 @@
   <dimension ref="A2:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
@@ -1505,92 +1520,92 @@
   <sheetData>
     <row r="9" spans="2:2">
       <c r="B9" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" ht="74" customHeight="1" spans="2:2">
       <c r="B10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11" ht="91" customHeight="1" spans="2:2">
       <c r="B11" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="19" spans="2:2">
       <c r="B19" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="2:2">
       <c r="B20" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="21" spans="2:2">
       <c r="B21" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="22" spans="2:2">
       <c r="B22" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="23" ht="34" customHeight="1" spans="2:2">
       <c r="B23" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="24" ht="49" customHeight="1" spans="2:3">
       <c r="B24" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="25" ht="27" spans="2:3">
       <c r="B25" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="26" spans="2:3">
       <c r="B26" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C26" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="27" spans="2:3">
       <c r="B27" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C27" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="28" ht="54" spans="2:3">
       <c r="B28" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="29" spans="2:2">
       <c r="B29" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="30" spans="2:2">
       <c r="B30" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -1616,93 +1631,93 @@
   <sheetData>
     <row r="7" spans="2:2">
       <c r="B7" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" ht="91" customHeight="1" spans="2:3">
       <c r="B8" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9" ht="110" customHeight="1" spans="2:3">
       <c r="B9" s="8" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="10" spans="2:2">
       <c r="B10" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" spans="2:2">
       <c r="B18" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="19" ht="69" customHeight="1" spans="2:2">
       <c r="B19" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="20" ht="38" customHeight="1" spans="2:3">
       <c r="B20" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="21" ht="48" customHeight="1" spans="2:3">
       <c r="B21" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="22" ht="42" customHeight="1" spans="2:3">
       <c r="B22" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="23" ht="51" customHeight="1" spans="2:3">
       <c r="B23" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="24" ht="54" spans="2:3">
       <c r="B24" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="25" spans="2:2">
       <c r="B25" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="26" spans="2:2">
       <c r="B26" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -1728,58 +1743,58 @@
   <sheetData>
     <row r="9" spans="1:1">
       <c r="A9" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="12" ht="61" customHeight="1" spans="1:2">
       <c r="A12" s="6" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="24" ht="111" customHeight="1" spans="1:2">
       <c r="A24" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -1805,66 +1820,66 @@
   <sheetData>
     <row r="4" spans="1:1">
       <c r="A4" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B9" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" ht="23" customHeight="1" spans="1:1">
       <c r="A20" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="21" ht="30" customHeight="1" spans="1:1">
       <c r="A21" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="22" ht="135" customHeight="1" spans="1:2">
       <c r="A22" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B23" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="24" ht="31" customHeight="1" spans="1:2">
@@ -1872,7 +1887,7 @@
         <v>4</v>
       </c>
       <c r="B24" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -1884,9 +1899,9 @@
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A4:B22"/>
+  <dimension ref="A4:B23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
@@ -1898,25 +1913,25 @@
   <sheetData>
     <row r="4" spans="1:1">
       <c r="A4" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" ht="40" customHeight="1" spans="1:1">
       <c r="A5" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6" ht="36" customHeight="1" spans="1:1">
-      <c r="A6" t="s">
-        <v>95</v>
+      <c r="A6" s="2" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="7" ht="57" customHeight="1" spans="1:2">
       <c r="A7" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="8" ht="147" customHeight="1" spans="1:2">
@@ -1924,68 +1939,81 @@
         <v>4</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="9" ht="45" customHeight="1" spans="1:1">
       <c r="A9" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="10" ht="59" customHeight="1" spans="1:2">
       <c r="A10" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
+      </c>
+    </row>
+    <row r="11" ht="45" customHeight="1" spans="1:1">
+      <c r="A11" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="17" ht="54" customHeight="1" spans="1:1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" ht="36" customHeight="1" spans="1:1">
       <c r="A17" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="18" ht="61" customHeight="1" spans="1:2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="18" ht="45" customHeight="1" spans="1:2">
       <c r="A18" t="s">
-        <v>109</v>
-      </c>
-      <c r="B18" s="4"/>
-    </row>
-    <row r="19" ht="90" customHeight="1" spans="1:2">
+        <v>111</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="19" ht="45" customHeight="1" spans="1:2">
       <c r="A19" t="s">
-        <v>84</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="20" ht="61" customHeight="1" spans="1:2">
+        <v>113</v>
+      </c>
+      <c r="B19" s="4"/>
+    </row>
+    <row r="20" ht="90" customHeight="1" spans="1:2">
       <c r="A20" t="s">
-        <v>102</v>
-      </c>
-      <c r="B20" t="s">
+        <v>85</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="21" ht="61" customHeight="1" spans="1:2">
+      <c r="A21" t="s">
         <v>103</v>
-      </c>
-    </row>
-    <row r="21" ht="67" customHeight="1" spans="1:2">
-      <c r="A21" t="s">
-        <v>4</v>
       </c>
       <c r="B21" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="22" ht="108" spans="1:2">
+    <row r="22" ht="67" customHeight="1" spans="1:2">
       <c r="A22" t="s">
-        <v>110</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>111</v>
+        <v>4</v>
+      </c>
+      <c r="B22" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="23" ht="108" spans="1:2">
+      <c r="A23" t="s">
+        <v>114</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -2000,7 +2028,7 @@
   <dimension ref="C8:D22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -2014,7 +2042,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="3:4">
+    <row r="9" ht="33" customHeight="1" spans="3:4">
       <c r="C9" t="s">
         <v>7</v>
       </c>
@@ -2076,10 +2104,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B6:C9"/>
+  <dimension ref="B6:C10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -2109,6 +2137,11 @@
     <row r="9" ht="135" customHeight="1" spans="3:3">
       <c r="C9" s="4" t="s">
         <v>24</v>
+      </c>
+    </row>
+    <row r="10" ht="141" customHeight="1" spans="3:3">
+      <c r="C10" s="5" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -2134,12 +2167,12 @@
   <sheetData>
     <row r="5" spans="1:1">
       <c r="A5" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -2147,7 +2180,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -2155,7 +2188,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -2163,7 +2196,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -2171,32 +2204,32 @@
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -2223,40 +2256,40 @@
   <sheetData>
     <row r="5" customFormat="1" spans="1:1">
       <c r="A5" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" customFormat="1" spans="1:1">
       <c r="A6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" customFormat="1" spans="1:1">
       <c r="A11" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" customFormat="1" ht="76" customHeight="1" spans="1:2">
       <c r="A12" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" customFormat="1" spans="1:1">
       <c r="A13" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" customFormat="1" spans="1:1">
@@ -2266,12 +2299,12 @@
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -2298,40 +2331,40 @@
   <sheetData>
     <row r="7" spans="1:1">
       <c r="A7" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" ht="70" customHeight="1" spans="1:2">
       <c r="A9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -2358,49 +2391,49 @@
   <sheetData>
     <row r="7" spans="1:1">
       <c r="A7" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" ht="63" customHeight="1" spans="1:2">
       <c r="A8" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" ht="136" customHeight="1" spans="1:2">
       <c r="A9" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12" ht="126" customHeight="1" spans="1:2">
       <c r="A12" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="13" ht="71" customHeight="1" spans="1:2">
       <c r="A13" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:1">
@@ -2408,66 +2441,66 @@
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="24" ht="84" customHeight="1" spans="1:2">
       <c r="A24" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B24" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="25" ht="55" customHeight="1" spans="1:2">
       <c r="A25" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B25" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B26" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -2493,112 +2526,112 @@
   <sheetData>
     <row r="9" spans="1:1">
       <c r="A9" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" ht="117" customHeight="1" spans="1:2">
       <c r="A10" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11" ht="67.5" spans="1:2">
       <c r="A11" s="6" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="10" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B31" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B32" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B33" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -2624,115 +2657,115 @@
   <sheetData>
     <row r="8" spans="1:1">
       <c r="A8" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" ht="36" customHeight="1" spans="1:1">
       <c r="A9" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="10" ht="103" customHeight="1" spans="1:2">
       <c r="A10" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="11" ht="38" customHeight="1" spans="1:1">
       <c r="A11" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="23" ht="38" customHeight="1" spans="1:2">
       <c r="A23" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="24" ht="54" customHeight="1" spans="1:2">
       <c r="A24" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="25" ht="26" customHeight="1" spans="1:2">
       <c r="A25" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B25" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="26" ht="42" customHeight="1" spans="1:2">
       <c r="A26" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B26" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="27" ht="27" spans="1:2">
       <c r="A27" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>

--- a/口袋猫猫/工作日志.xlsx
+++ b/口袋猫猫/工作日志.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26640" windowHeight="15120" activeTab="13"/>
+    <workbookView windowWidth="26640" windowHeight="15120" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="系统模块" sheetId="14" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <sheet name="6.16" sheetId="11" r:id="rId12"/>
     <sheet name="6.17" sheetId="12" r:id="rId13"/>
     <sheet name="6.18" sheetId="13" r:id="rId14"/>
+    <sheet name="6.19" sheetId="15" r:id="rId15"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="141">
   <si>
     <t>关卡模式</t>
   </si>
@@ -53,6 +54,14 @@
 传送带：传送带上的物体每回合会朝着传送带的方向移动1格</t>
   </si>
   <si>
+    <t>连击消除</t>
+  </si>
+  <si>
+    <t>步数限制的关卡：连击消除可以带来步数奖励
+时间限制的关卡：连击消除可以带来时间奖励
+累积分数的关卡：连击消除可以带来额外分数奖励</t>
+  </si>
+  <si>
     <t>每日挑战（原无尽模式）</t>
   </si>
   <si>
@@ -96,6 +105,60 @@
     <t>引爆场上某个颜色的所有方块（怎么来？）</t>
   </si>
   <si>
+    <r>
+      <t>变色方块</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>：</t>
+    </r>
+  </si>
+  <si>
+    <t>这种方块每移动一次或每回合会改变颜色，增加了消除的难度和策略性。</t>
+  </si>
+  <si>
+    <r>
+      <t>锁链方块</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>：</t>
+    </r>
+  </si>
+  <si>
+    <t>被锁链连接的方块只能同时移动，且移动时需满足所有锁链方块的移动条件。玩家需要规划如何解开锁链。</t>
+  </si>
+  <si>
+    <r>
+      <t>传染方块</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>：</t>
+    </r>
+  </si>
+  <si>
+    <t>传染方块在消除时会传染相邻的同色方块，使其变成另一种颜色。这个机制可以用来打破颜色僵局。</t>
+  </si>
+  <si>
     <t>玩法设计：</t>
   </si>
   <si>
@@ -115,6 +178,108 @@
   </si>
   <si>
     <t>前进时遇到此格子则转弯</t>
+  </si>
+  <si>
+    <r>
+      <t>冰块</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>：</t>
+    </r>
+  </si>
+  <si>
+    <t>冰块会冻结在其上移动的方块，使其在一定回合内无法移动。冻结状态消失后，冰块也会消失。</t>
+  </si>
+  <si>
+    <r>
+      <t>火焰</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>：</t>
+    </r>
+  </si>
+  <si>
+    <t>火焰会在每回合扩散到相邻的一个格子，燃烧并消除上面的方块。被火焰烧过的格子在一定回合内不能生成新的方块。</t>
+  </si>
+  <si>
+    <t>镜子：</t>
+  </si>
+  <si>
+    <t>方块碰到镜子会反射回去，改变移动方向。镜子的角度和位置可以变化，增加游戏的策略性。</t>
+  </si>
+  <si>
+    <t>定时炸弹：</t>
+  </si>
+  <si>
+    <t>一定回合后爆炸，消除周围一定范围内的方块。玩家需要在炸弹爆炸前完成特定任务，或利用炸弹进行战略消除。</t>
+  </si>
+  <si>
+    <r>
+      <t>磁铁</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>：</t>
+    </r>
+  </si>
+  <si>
+    <t>磁铁会吸引或排斥一定范围内的方块，改变它们的移动方向。可以设计不同极性的磁铁，吸引或排斥不同颜色的方块。</t>
+  </si>
+  <si>
+    <r>
+      <t>镜像移动</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>：</t>
+    </r>
+  </si>
+  <si>
+    <t>某些方块的移动会在另一位置产生镜像移动，玩家需要同时考虑两处移动的影响。</t>
+  </si>
+  <si>
+    <r>
+      <t>激光</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>：</t>
+    </r>
+  </si>
+  <si>
+    <t>激光可以在直线上消除所有方块。玩家可以通过激活某些触发器来发射激光，进行大范围消除。</t>
   </si>
   <si>
     <t>无尽模式</t>
@@ -137,6 +302,10 @@
   <si>
     <t>传送带主题
 结合暂停格子和转弯格子？</t>
+  </si>
+  <si>
+    <t>限时模式 目标：在规定时间内完成任务，例如消除尽可能多的方块或达到最高分。
+时间奖励：每次达成一定条件（如连击消除），可以获得额外时间。</t>
   </si>
   <si>
     <t>程序策划：</t>
@@ -458,6 +627,12 @@
 游戏圈按钮
 加号按钮
 </t>
+  </si>
+  <si>
+    <t>拓展关卡</t>
+  </si>
+  <si>
+    <t>游戏圈逻辑</t>
   </si>
 </sst>
 </file>
@@ -470,7 +645,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -491,6 +666,14 @@
       <color theme="1"/>
       <name val="方正粗黑宋简体"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14.05"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="20"/>
@@ -975,137 +1158,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1114,39 +1297,45 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1462,7 +1651,7 @@
   <dimension ref="A2:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
@@ -1474,27 +1663,39 @@
   <sheetData>
     <row r="2" ht="87" customHeight="1"/>
     <row r="3" ht="180" customHeight="1" spans="1:2">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
     </row>
+    <row r="4" ht="40.5" spans="1:2">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" ht="141" customHeight="1" spans="1:2">
+      <c r="A6" s="9"/>
+      <c r="B6" s="3"/>
+    </row>
     <row r="7" ht="141" customHeight="1" spans="1:2">
-      <c r="A7" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>3</v>
+      <c r="A7" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="11" ht="124" customHeight="1" spans="1:2">
-      <c r="A11" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>5</v>
+      <c r="A11" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -1520,92 +1721,92 @@
   <sheetData>
     <row r="9" spans="2:2">
       <c r="B9" s="1" t="s">
-        <v>26</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" ht="74" customHeight="1" spans="2:2">
       <c r="B10" t="s">
-        <v>80</v>
+        <v>103</v>
       </c>
     </row>
     <row r="11" ht="91" customHeight="1" spans="2:2">
       <c r="B11" s="2" t="s">
-        <v>81</v>
+        <v>104</v>
       </c>
     </row>
     <row r="19" spans="2:2">
       <c r="B19" s="1" t="s">
-        <v>32</v>
+        <v>55</v>
       </c>
     </row>
     <row r="20" spans="2:2">
       <c r="B20" s="2" t="s">
-        <v>58</v>
+        <v>81</v>
       </c>
     </row>
     <row r="21" spans="2:2">
       <c r="B21" t="s">
-        <v>76</v>
+        <v>99</v>
       </c>
     </row>
     <row r="22" spans="2:2">
       <c r="B22" t="s">
-        <v>61</v>
+        <v>84</v>
       </c>
     </row>
     <row r="23" ht="34" customHeight="1" spans="2:2">
       <c r="B23" s="2" t="s">
-        <v>62</v>
+        <v>85</v>
       </c>
     </row>
     <row r="24" ht="49" customHeight="1" spans="2:3">
       <c r="B24" t="s">
-        <v>82</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>83</v>
+        <v>105</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="25" ht="27" spans="2:3">
       <c r="B25" t="s">
-        <v>64</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>84</v>
+        <v>87</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="26" spans="2:3">
       <c r="B26" t="s">
-        <v>66</v>
+        <v>89</v>
       </c>
       <c r="C26" t="s">
-        <v>67</v>
+        <v>90</v>
       </c>
     </row>
     <row r="27" spans="2:3">
       <c r="B27" t="s">
-        <v>68</v>
+        <v>91</v>
       </c>
       <c r="C27" t="s">
-        <v>69</v>
+        <v>92</v>
       </c>
     </row>
     <row r="28" ht="54" spans="2:3">
       <c r="B28" t="s">
-        <v>85</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>89</v>
+        <v>108</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="29" spans="2:2">
       <c r="B29" t="s">
-        <v>63</v>
+        <v>86</v>
       </c>
     </row>
     <row r="30" spans="2:2">
       <c r="B30" t="s">
-        <v>87</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -1631,93 +1832,93 @@
   <sheetData>
     <row r="7" spans="2:2">
       <c r="B7" s="1" t="s">
-        <v>26</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" ht="91" customHeight="1" spans="2:3">
       <c r="B8" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>91</v>
+        <v>113</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="9" ht="110" customHeight="1" spans="2:3">
-      <c r="B9" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>93</v>
+      <c r="B9" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="10" spans="2:2">
       <c r="B10" t="s">
-        <v>94</v>
+        <v>117</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" s="1" t="s">
-        <v>32</v>
+        <v>55</v>
       </c>
     </row>
     <row r="18" spans="2:2">
       <c r="B18" t="s">
-        <v>76</v>
+        <v>99</v>
       </c>
     </row>
     <row r="19" ht="69" customHeight="1" spans="2:2">
       <c r="B19" t="s">
-        <v>61</v>
+        <v>84</v>
       </c>
     </row>
     <row r="20" ht="38" customHeight="1" spans="2:3">
       <c r="B20" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>83</v>
+        <v>105</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="21" ht="48" customHeight="1" spans="2:3">
       <c r="B21" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>65</v>
+        <v>87</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="22" ht="42" customHeight="1" spans="2:3">
       <c r="B22" s="2" t="s">
-        <v>66</v>
+        <v>89</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>95</v>
+        <v>118</v>
       </c>
     </row>
     <row r="23" ht="51" customHeight="1" spans="2:3">
       <c r="B23" s="2" t="s">
-        <v>68</v>
+        <v>91</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>69</v>
+        <v>92</v>
       </c>
     </row>
     <row r="24" ht="54" spans="2:3">
       <c r="B24" t="s">
-        <v>85</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>89</v>
+        <v>108</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="25" spans="2:2">
       <c r="B25" t="s">
-        <v>63</v>
+        <v>86</v>
       </c>
     </row>
     <row r="26" spans="2:2">
       <c r="B26" t="s">
-        <v>87</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -1743,58 +1944,58 @@
   <sheetData>
     <row r="9" spans="1:1">
       <c r="A9" s="1" t="s">
-        <v>26</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>94</v>
+        <v>117</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>96</v>
+        <v>119</v>
       </c>
     </row>
     <row r="12" ht="61" customHeight="1" spans="1:2">
-      <c r="A12" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>98</v>
+      <c r="A12" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="1" t="s">
-        <v>32</v>
+        <v>55</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="2" t="s">
-        <v>76</v>
+        <v>99</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>87</v>
+        <v>110</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" t="s">
-        <v>61</v>
+        <v>84</v>
       </c>
     </row>
     <row r="24" ht="111" customHeight="1" spans="1:2">
       <c r="A24" t="s">
-        <v>85</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>89</v>
+        <v>108</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" s="2" t="s">
-        <v>63</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -1820,74 +2021,74 @@
   <sheetData>
     <row r="4" spans="1:1">
       <c r="A4" s="1" t="s">
-        <v>26</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>94</v>
+        <v>117</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>96</v>
+        <v>119</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="2" t="s">
-        <v>99</v>
+        <v>122</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="2" t="s">
-        <v>100</v>
+        <v>123</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>101</v>
+        <v>124</v>
       </c>
       <c r="B9" t="s">
-        <v>102</v>
+        <v>125</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="1" t="s">
-        <v>32</v>
+        <v>55</v>
       </c>
     </row>
     <row r="20" ht="23" customHeight="1" spans="1:1">
       <c r="A20" s="2" t="s">
-        <v>87</v>
+        <v>110</v>
       </c>
     </row>
     <row r="21" ht="30" customHeight="1" spans="1:1">
       <c r="A21" t="s">
-        <v>61</v>
+        <v>84</v>
       </c>
     </row>
     <row r="22" ht="135" customHeight="1" spans="1:2">
       <c r="A22" t="s">
-        <v>85</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>89</v>
+        <v>108</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>103</v>
+        <v>126</v>
       </c>
       <c r="B23" t="s">
-        <v>104</v>
+        <v>127</v>
       </c>
     </row>
     <row r="24" ht="31" customHeight="1" spans="1:2">
       <c r="A24" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B24" t="s">
-        <v>105</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -1901,8 +2102,8 @@
   <sheetPr/>
   <dimension ref="A4:B23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16:B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
@@ -1913,107 +2114,204 @@
   <sheetData>
     <row r="4" spans="1:1">
       <c r="A4" s="1" t="s">
-        <v>26</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" ht="40" customHeight="1" spans="1:1">
       <c r="A5" t="s">
-        <v>94</v>
+        <v>117</v>
       </c>
     </row>
     <row r="6" ht="36" customHeight="1" spans="1:1">
       <c r="A6" s="2" t="s">
-        <v>96</v>
+        <v>119</v>
       </c>
     </row>
     <row r="7" ht="57" customHeight="1" spans="1:2">
       <c r="A7" s="2" t="s">
-        <v>101</v>
+        <v>124</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>102</v>
+        <v>125</v>
       </c>
     </row>
     <row r="8" ht="147" customHeight="1" spans="1:2">
       <c r="A8" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>106</v>
+        <v>6</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="9" ht="45" customHeight="1" spans="1:1">
       <c r="A9" s="2" t="s">
-        <v>107</v>
+        <v>130</v>
       </c>
     </row>
     <row r="10" ht="59" customHeight="1" spans="1:2">
       <c r="A10" s="2" t="s">
-        <v>108</v>
+        <v>131</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>109</v>
+        <v>132</v>
       </c>
     </row>
     <row r="11" ht="45" customHeight="1" spans="1:1">
-      <c r="A11" t="s">
-        <v>110</v>
+      <c r="A11" s="2" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="1" t="s">
-        <v>32</v>
+        <v>55</v>
       </c>
     </row>
     <row r="17" ht="36" customHeight="1" spans="1:1">
       <c r="A17" t="s">
-        <v>61</v>
+        <v>84</v>
       </c>
     </row>
     <row r="18" ht="45" customHeight="1" spans="1:2">
       <c r="A18" t="s">
-        <v>111</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>112</v>
+        <v>134</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="19" ht="45" customHeight="1" spans="1:2">
       <c r="A19" t="s">
-        <v>113</v>
-      </c>
-      <c r="B19" s="4"/>
+        <v>136</v>
+      </c>
+      <c r="B19" s="3"/>
     </row>
     <row r="20" ht="90" customHeight="1" spans="1:2">
       <c r="A20" t="s">
-        <v>85</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>89</v>
+        <v>108</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="21" ht="61" customHeight="1" spans="1:2">
       <c r="A21" t="s">
-        <v>103</v>
+        <v>126</v>
       </c>
       <c r="B21" t="s">
-        <v>104</v>
+        <v>127</v>
       </c>
     </row>
     <row r="22" ht="67" customHeight="1" spans="1:2">
       <c r="A22" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B22" t="s">
-        <v>105</v>
+        <v>128</v>
       </c>
     </row>
     <row r="23" ht="108" spans="1:2">
       <c r="A23" t="s">
-        <v>114</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>115</v>
+        <v>137</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>138</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A5:B21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="41.75" customWidth="1"/>
+    <col min="2" max="2" width="52.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" ht="49" customHeight="1" spans="1:1">
+      <c r="A5" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" ht="65" customHeight="1" spans="1:1">
+      <c r="A6" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="7" ht="48" customHeight="1" spans="1:1">
+      <c r="A7" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>134</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>136</v>
+      </c>
+      <c r="B17" s="3"/>
+    </row>
+    <row r="18" ht="54" spans="1:2">
+      <c r="A18" t="s">
+        <v>108</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>126</v>
+      </c>
+      <c r="B19" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>6</v>
+      </c>
+      <c r="B20" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="21" ht="108" spans="1:2">
+      <c r="A21" t="s">
+        <v>137</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>138</v>
       </c>
     </row>
   </sheetData>
@@ -2025,10 +2323,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C8:D22"/>
+  <dimension ref="C8:D30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -2038,61 +2336,141 @@
   </cols>
   <sheetData>
     <row r="8" ht="27" spans="3:3">
-      <c r="C8" s="12" t="s">
-        <v>6</v>
+      <c r="C8" s="11" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="9" ht="33" customHeight="1" spans="3:4">
       <c r="C9" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" ht="48" customHeight="1" spans="3:4">
       <c r="C10" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="3:4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" ht="33" customHeight="1" spans="3:4">
       <c r="C11" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D11" t="s">
-        <v>12</v>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" ht="36" customHeight="1" spans="3:4">
+      <c r="C12" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" ht="61" customHeight="1" spans="3:4">
+      <c r="C13" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" ht="45" customHeight="1" spans="3:4">
+      <c r="C14" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="19" ht="24" spans="3:3">
       <c r="C19" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="20" ht="75" customHeight="1" spans="3:4">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" ht="49" customHeight="1" spans="3:4">
       <c r="C20" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="D20" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="21" ht="91" customHeight="1" spans="3:4">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" ht="56" customHeight="1" spans="3:4">
       <c r="C21" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="D21" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22" spans="3:4">
       <c r="C22" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="D22" t="s">
-        <v>19</v>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" ht="32" customHeight="1" spans="3:4">
+      <c r="C24" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D24" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="25" ht="54" customHeight="1" spans="3:4">
+      <c r="C25" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D25" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="26" ht="27" customHeight="1" spans="3:4">
+      <c r="C26" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="D26" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="27" ht="34" customHeight="1" spans="3:4">
+      <c r="C27" t="s">
+        <v>34</v>
+      </c>
+      <c r="D27" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" ht="39" customHeight="1" spans="3:4">
+      <c r="C28" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D28" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="29" ht="32" customHeight="1" spans="3:4">
+      <c r="C29" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="D29" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="30" ht="45" customHeight="1" spans="3:4">
+      <c r="C30" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="D30" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -2104,10 +2482,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B6:C10"/>
+  <dimension ref="B6:C11"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -2117,31 +2495,36 @@
   </cols>
   <sheetData>
     <row r="6" ht="78" customHeight="1" spans="2:3">
-      <c r="B6" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>21</v>
+      <c r="B6" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="7" ht="81" customHeight="1" spans="3:3">
       <c r="C7" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" ht="77" customHeight="1" spans="3:3">
       <c r="C8" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" ht="135" customHeight="1" spans="3:3">
-      <c r="C9" s="4" t="s">
-        <v>24</v>
+      <c r="C9" s="3" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="10" ht="141" customHeight="1" spans="3:3">
-      <c r="C10" s="5" t="s">
-        <v>25</v>
+      <c r="C10" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" ht="186" customHeight="1" spans="3:3">
+      <c r="C11" s="10" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -2167,12 +2550,12 @@
   <sheetData>
     <row r="5" spans="1:1">
       <c r="A5" s="1" t="s">
-        <v>26</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -2180,7 +2563,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>28</v>
+        <v>51</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -2188,7 +2571,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -2196,7 +2579,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -2204,32 +2587,32 @@
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="1" t="s">
-        <v>32</v>
+        <v>55</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>33</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>34</v>
+        <v>57</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>35</v>
+        <v>58</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -2256,55 +2639,55 @@
   <sheetData>
     <row r="5" customFormat="1" spans="1:1">
       <c r="A5" s="1" t="s">
-        <v>26</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" customFormat="1" spans="1:1">
       <c r="A6" t="s">
-        <v>37</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="2" t="s">
-        <v>38</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="2" t="s">
-        <v>39</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11" customFormat="1" spans="1:1">
       <c r="A11" s="1" t="s">
-        <v>32</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12" customFormat="1" ht="76" customHeight="1" spans="1:2">
       <c r="A12" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>40</v>
+        <v>56</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="13" customFormat="1" spans="1:1">
       <c r="A13" t="s">
-        <v>34</v>
+        <v>57</v>
       </c>
     </row>
     <row r="14" customFormat="1" spans="1:1">
       <c r="A14" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="2" t="s">
-        <v>41</v>
+        <v>64</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="2" t="s">
-        <v>42</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -2331,40 +2714,40 @@
   <sheetData>
     <row r="7" spans="1:1">
       <c r="A7" s="1" t="s">
-        <v>26</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="2" t="s">
-        <v>43</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" ht="70" customHeight="1" spans="1:2">
       <c r="A9" t="s">
-        <v>37</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>44</v>
+        <v>60</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="2" t="s">
-        <v>45</v>
+        <v>68</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="1" t="s">
-        <v>32</v>
+        <v>55</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>34</v>
+        <v>57</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>46</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -2391,49 +2774,49 @@
   <sheetData>
     <row r="7" spans="1:1">
       <c r="A7" s="1" t="s">
-        <v>26</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" ht="63" customHeight="1" spans="1:2">
       <c r="A8" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>48</v>
+        <v>70</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="9" ht="136" customHeight="1" spans="1:2">
       <c r="A9" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>50</v>
+        <v>72</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>51</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>52</v>
+        <v>75</v>
       </c>
     </row>
     <row r="12" ht="126" customHeight="1" spans="1:2">
       <c r="A12" t="s">
-        <v>53</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>54</v>
+        <v>76</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="13" ht="71" customHeight="1" spans="1:2">
       <c r="A13" t="s">
-        <v>55</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>56</v>
+        <v>78</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="14" spans="1:1">
@@ -2441,66 +2824,66 @@
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="1" t="s">
-        <v>32</v>
+        <v>55</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>57</v>
+        <v>80</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>58</v>
+        <v>81</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>59</v>
+        <v>82</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>60</v>
+        <v>83</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>61</v>
+        <v>84</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>62</v>
+        <v>85</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>63</v>
+        <v>86</v>
       </c>
     </row>
     <row r="24" ht="84" customHeight="1" spans="1:2">
       <c r="A24" t="s">
-        <v>64</v>
+        <v>87</v>
       </c>
       <c r="B24" t="s">
-        <v>65</v>
+        <v>88</v>
       </c>
     </row>
     <row r="25" ht="55" customHeight="1" spans="1:2">
       <c r="A25" t="s">
-        <v>66</v>
+        <v>89</v>
       </c>
       <c r="B25" t="s">
-        <v>67</v>
+        <v>90</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>68</v>
+        <v>91</v>
       </c>
       <c r="B26" t="s">
-        <v>69</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -2526,112 +2909,112 @@
   <sheetData>
     <row r="9" spans="1:1">
       <c r="A9" s="1" t="s">
-        <v>26</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" ht="117" customHeight="1" spans="1:2">
       <c r="A10" t="s">
-        <v>70</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>71</v>
+        <v>93</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="11" ht="67.5" spans="1:2">
-      <c r="A11" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>56</v>
+      <c r="A11" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="2" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
     </row>
     <row r="13" spans="1:1">
-      <c r="A13" s="10" t="s">
-        <v>63</v>
+      <c r="A13" s="8" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="2" t="s">
-        <v>74</v>
+        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>75</v>
+        <v>98</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" s="1" t="s">
-        <v>32</v>
+        <v>55</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" t="s">
-        <v>61</v>
+        <v>84</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" t="s">
-        <v>57</v>
+        <v>80</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" t="s">
-        <v>58</v>
+        <v>81</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" t="s">
-        <v>63</v>
+        <v>86</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" t="s">
-        <v>59</v>
+        <v>82</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" t="s">
-        <v>76</v>
+        <v>99</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>64</v>
+        <v>87</v>
       </c>
       <c r="B31" t="s">
-        <v>65</v>
+        <v>88</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>66</v>
+        <v>89</v>
       </c>
       <c r="B32" t="s">
-        <v>67</v>
+        <v>90</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>68</v>
+        <v>91</v>
       </c>
       <c r="B33" t="s">
-        <v>69</v>
+        <v>92</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" t="s">
-        <v>62</v>
+        <v>85</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" t="s">
-        <v>77</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -2657,115 +3040,115 @@
   <sheetData>
     <row r="8" spans="1:1">
       <c r="A8" s="1" t="s">
-        <v>26</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" ht="36" customHeight="1" spans="1:1">
       <c r="A9" s="2" t="s">
-        <v>75</v>
+        <v>98</v>
       </c>
     </row>
     <row r="10" ht="103" customHeight="1" spans="1:2">
       <c r="A10" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>79</v>
+        <v>101</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="11" ht="38" customHeight="1" spans="1:1">
       <c r="A11" t="s">
-        <v>80</v>
+        <v>103</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>81</v>
+        <v>104</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="1" t="s">
-        <v>32</v>
+        <v>55</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>57</v>
+        <v>80</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>58</v>
+        <v>81</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>76</v>
+        <v>99</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>61</v>
+        <v>84</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>62</v>
+        <v>85</v>
       </c>
     </row>
     <row r="23" ht="38" customHeight="1" spans="1:2">
       <c r="A23" t="s">
-        <v>82</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>83</v>
+        <v>105</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="24" ht="54" customHeight="1" spans="1:2">
       <c r="A24" t="s">
-        <v>64</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>84</v>
+        <v>87</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="25" ht="26" customHeight="1" spans="1:2">
       <c r="A25" t="s">
-        <v>66</v>
+        <v>89</v>
       </c>
       <c r="B25" t="s">
-        <v>67</v>
+        <v>90</v>
       </c>
     </row>
     <row r="26" ht="42" customHeight="1" spans="1:2">
       <c r="A26" t="s">
-        <v>68</v>
+        <v>91</v>
       </c>
       <c r="B26" t="s">
-        <v>69</v>
+        <v>92</v>
       </c>
     </row>
     <row r="27" ht="27" spans="1:2">
       <c r="A27" t="s">
-        <v>85</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>86</v>
+        <v>108</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" t="s">
-        <v>63</v>
+        <v>86</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" t="s">
-        <v>87</v>
+        <v>110</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" t="s">
-        <v>88</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>

--- a/口袋猫猫/工作日志.xlsx
+++ b/口袋猫猫/工作日志.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26640" windowHeight="15120" activeTab="1"/>
+    <workbookView windowHeight="14940"/>
   </bookViews>
   <sheets>
     <sheet name="系统模块" sheetId="14" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="143">
   <si>
     <t>关卡模式</t>
   </si>
@@ -156,7 +156,9 @@
     </r>
   </si>
   <si>
-    <t>传染方块在消除时会传染相邻的同色方块，使其变成另一种颜色。这个机制可以用来打破颜色僵局。</t>
+    <t>传染方块在消除时会传染相邻的同色方块，使其变成另一种颜色。这个机制可以用来打破颜色僵局。
+传染方块可以互相传染。被传染的方块也会变成传染方块。
+关卡1：场中央出现两个个绿色传染方块。本关卡要求消除30个绿色方块。</t>
   </si>
   <si>
     <t>玩法设计：</t>
@@ -633,6 +635,12 @@
   </si>
   <si>
     <t>游戏圈逻辑</t>
+  </si>
+  <si>
+    <t>方块状态icon</t>
+  </si>
+  <si>
+    <t>传染、</t>
   </si>
 </sst>
 </file>
@@ -1328,14 +1336,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1650,8 +1658,8 @@
   <sheetPr/>
   <dimension ref="A2:B11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
@@ -1674,7 +1682,7 @@
       <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="13" t="s">
         <v>3</v>
       </c>
     </row>
@@ -2226,10 +2234,10 @@
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A5:B21"/>
+  <dimension ref="A5:B22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
@@ -2270,47 +2278,55 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
+        <v>134</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
         <v>136</v>
       </c>
-      <c r="B17" s="3"/>
-    </row>
-    <row r="18" ht="54" spans="1:2">
-      <c r="A18" t="s">
+      <c r="B18" s="3"/>
+    </row>
+    <row r="19" ht="54" spans="1:2">
+      <c r="A19" t="s">
         <v>108</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B19" s="3" t="s">
         <v>112</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" t="s">
-        <v>126</v>
-      </c>
-      <c r="B19" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
+        <v>126</v>
+      </c>
+      <c r="B20" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
         <v>6</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B21" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="21" ht="108" spans="1:2">
-      <c r="A21" t="s">
+    <row r="22" ht="108" spans="1:2">
+      <c r="A22" t="s">
         <v>137</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B22" s="3" t="s">
         <v>138</v>
       </c>
     </row>
@@ -2325,14 +2341,14 @@
   <sheetPr/>
   <dimension ref="C8:D30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
     <col min="3" max="3" width="23.875" customWidth="1"/>
-    <col min="4" max="4" width="81.625" customWidth="1"/>
+    <col min="4" max="4" width="114.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="8" ht="27" spans="3:3">
@@ -2380,16 +2396,16 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" ht="45" customHeight="1" spans="3:4">
+    <row r="14" ht="273" customHeight="1" spans="3:4">
       <c r="C14" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="13" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="19" ht="24" spans="3:3">
-      <c r="C19" s="13" t="s">
+      <c r="C19" s="14" t="s">
         <v>21</v>
       </c>
     </row>
@@ -2434,7 +2450,7 @@
       </c>
     </row>
     <row r="26" ht="27" customHeight="1" spans="3:4">
-      <c r="C26" s="14" t="s">
+      <c r="C26" s="15" t="s">
         <v>32</v>
       </c>
       <c r="D26" t="s">

--- a/口袋猫猫/工作日志.xlsx
+++ b/口袋猫猫/工作日志.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="14940"/>
+    <workbookView windowHeight="14940" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="系统模块" sheetId="14" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="141">
   <si>
     <t>关卡模式</t>
   </si>
@@ -103,24 +103,6 @@
   </si>
   <si>
     <t>引爆场上某个颜色的所有方块（怎么来？）</t>
-  </si>
-  <si>
-    <r>
-      <t>变色方块</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>：</t>
-    </r>
-  </si>
-  <si>
-    <t>这种方块每移动一次或每回合会改变颜色，增加了消除的难度和策略性。</t>
   </si>
   <si>
     <r>
@@ -1658,7 +1640,7 @@
   <sheetPr/>
   <dimension ref="A2:B11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -1729,92 +1711,92 @@
   <sheetData>
     <row r="9" spans="2:2">
       <c r="B9" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" ht="74" customHeight="1" spans="2:2">
       <c r="B10" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="11" ht="91" customHeight="1" spans="2:2">
       <c r="B11" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="19" spans="2:2">
       <c r="B19" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="20" spans="2:2">
       <c r="B20" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="21" spans="2:2">
       <c r="B21" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="22" spans="2:2">
       <c r="B22" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="23" ht="34" customHeight="1" spans="2:2">
       <c r="B23" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="24" ht="49" customHeight="1" spans="2:3">
       <c r="B24" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="25" ht="27" spans="2:3">
       <c r="B25" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="26" spans="2:3">
       <c r="B26" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C26" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="27" spans="2:3">
       <c r="B27" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C27" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="28" ht="54" spans="2:3">
       <c r="B28" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="29" spans="2:2">
       <c r="B29" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="30" spans="2:2">
       <c r="B30" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -1840,93 +1822,93 @@
   <sheetData>
     <row r="7" spans="2:2">
       <c r="B7" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" ht="91" customHeight="1" spans="2:3">
       <c r="B8" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="9" ht="110" customHeight="1" spans="2:3">
       <c r="B9" s="6" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="10" spans="2:2">
       <c r="B10" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="18" spans="2:2">
       <c r="B18" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="19" ht="69" customHeight="1" spans="2:2">
       <c r="B19" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="20" ht="38" customHeight="1" spans="2:3">
       <c r="B20" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="21" ht="48" customHeight="1" spans="2:3">
       <c r="B21" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="22" ht="42" customHeight="1" spans="2:3">
       <c r="B22" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="23" ht="51" customHeight="1" spans="2:3">
       <c r="B23" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="24" ht="54" spans="2:3">
       <c r="B24" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="25" spans="2:2">
       <c r="B25" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="26" spans="2:2">
       <c r="B26" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -1952,58 +1934,58 @@
   <sheetData>
     <row r="9" spans="1:1">
       <c r="A9" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="12" ht="61" customHeight="1" spans="1:2">
       <c r="A12" s="5" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="24" ht="111" customHeight="1" spans="1:2">
       <c r="A24" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -2029,66 +2011,66 @@
   <sheetData>
     <row r="4" spans="1:1">
       <c r="A4" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B9" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="20" ht="23" customHeight="1" spans="1:1">
       <c r="A20" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="21" ht="30" customHeight="1" spans="1:1">
       <c r="A21" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="22" ht="135" customHeight="1" spans="1:2">
       <c r="A22" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B23" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="24" ht="31" customHeight="1" spans="1:2">
@@ -2096,7 +2078,7 @@
         <v>6</v>
       </c>
       <c r="B24" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -2122,25 +2104,25 @@
   <sheetData>
     <row r="4" spans="1:1">
       <c r="A4" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" ht="40" customHeight="1" spans="1:1">
       <c r="A5" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="6" ht="36" customHeight="1" spans="1:1">
       <c r="A6" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="7" ht="57" customHeight="1" spans="1:2">
       <c r="A7" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="8" ht="147" customHeight="1" spans="1:2">
@@ -2148,65 +2130,65 @@
         <v>6</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="9" ht="45" customHeight="1" spans="1:1">
       <c r="A9" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="10" ht="59" customHeight="1" spans="1:2">
       <c r="A10" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="11" ht="45" customHeight="1" spans="1:1">
       <c r="A11" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="17" ht="36" customHeight="1" spans="1:1">
       <c r="A17" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="18" ht="45" customHeight="1" spans="1:2">
       <c r="A18" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="19" ht="45" customHeight="1" spans="1:2">
       <c r="A19" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B19" s="3"/>
     </row>
     <row r="20" ht="90" customHeight="1" spans="1:2">
       <c r="A20" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="21" ht="61" customHeight="1" spans="1:2">
       <c r="A21" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B21" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="22" ht="67" customHeight="1" spans="1:2">
@@ -2214,15 +2196,15 @@
         <v>6</v>
       </c>
       <c r="B22" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="23" ht="108" spans="1:2">
       <c r="A23" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -2236,8 +2218,8 @@
   <sheetPr/>
   <dimension ref="A5:B22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
@@ -2248,86 +2230,86 @@
   <sheetData>
     <row r="5" ht="49" customHeight="1" spans="1:1">
       <c r="A5" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" ht="65" customHeight="1" spans="1:1">
       <c r="A6" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="7" ht="48" customHeight="1" spans="1:1">
       <c r="A7" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="15" spans="1:1">
-      <c r="A15" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+      <c r="A15" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="16" ht="21" customHeight="1" spans="1:2">
       <c r="A16" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="17" ht="30" customHeight="1" spans="1:2">
       <c r="A17" t="s">
+        <v>132</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="18" ht="39" customHeight="1" spans="1:2">
+      <c r="A18" t="s">
         <v>134</v>
       </c>
-      <c r="B17" s="3" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" t="s">
-        <v>136</v>
-      </c>
       <c r="B18" s="3"/>
     </row>
     <row r="19" ht="54" spans="1:2">
-      <c r="A19" t="s">
-        <v>108</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="A19" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="20" ht="53" customHeight="1" spans="1:2">
       <c r="A20" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B20" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="21" ht="42" customHeight="1" spans="1:2">
       <c r="A21" t="s">
         <v>6</v>
       </c>
       <c r="B21" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="22" ht="108" spans="1:2">
       <c r="A22" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -2339,10 +2321,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C8:D30"/>
+  <dimension ref="C8:D29"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -2380,7 +2362,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" ht="36" customHeight="1" spans="3:4">
+    <row r="12" ht="61" customHeight="1" spans="3:4">
       <c r="C12" s="12" t="s">
         <v>15</v>
       </c>
@@ -2388,28 +2370,28 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" ht="61" customHeight="1" spans="3:4">
+    <row r="13" ht="273" customHeight="1" spans="3:4">
       <c r="C13" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="13" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="14" ht="273" customHeight="1" spans="3:4">
-      <c r="C14" s="12" t="s">
+    <row r="18" ht="24" spans="3:3">
+      <c r="C18" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="D14" s="13" t="s">
+    </row>
+    <row r="19" ht="49" customHeight="1" spans="3:4">
+      <c r="C19" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="19" ht="24" spans="3:3">
-      <c r="C19" s="14" t="s">
+      <c r="D19" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="20" ht="49" customHeight="1" spans="3:4">
+    <row r="20" ht="56" customHeight="1" spans="3:4">
       <c r="C20" t="s">
         <v>22</v>
       </c>
@@ -2417,7 +2399,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="21" ht="56" customHeight="1" spans="3:4">
+    <row r="21" spans="3:4">
       <c r="C21" t="s">
         <v>24</v>
       </c>
@@ -2425,15 +2407,15 @@
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="3:4">
-      <c r="C22" t="s">
+    <row r="23" ht="32" customHeight="1" spans="3:4">
+      <c r="C23" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D23" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="24" ht="32" customHeight="1" spans="3:4">
+    <row r="24" ht="54" customHeight="1" spans="3:4">
       <c r="C24" s="12" t="s">
         <v>28</v>
       </c>
@@ -2441,31 +2423,31 @@
         <v>29</v>
       </c>
     </row>
-    <row r="25" ht="54" customHeight="1" spans="3:4">
-      <c r="C25" s="12" t="s">
+    <row r="25" ht="27" customHeight="1" spans="3:4">
+      <c r="C25" s="15" t="s">
         <v>30</v>
       </c>
       <c r="D25" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="26" ht="27" customHeight="1" spans="3:4">
-      <c r="C26" s="15" t="s">
+    <row r="26" ht="34" customHeight="1" spans="3:4">
+      <c r="C26" t="s">
         <v>32</v>
       </c>
       <c r="D26" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="27" ht="34" customHeight="1" spans="3:4">
-      <c r="C27" t="s">
+    <row r="27" ht="39" customHeight="1" spans="3:4">
+      <c r="C27" s="12" t="s">
         <v>34</v>
       </c>
       <c r="D27" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="28" ht="39" customHeight="1" spans="3:4">
+    <row r="28" ht="32" customHeight="1" spans="3:4">
       <c r="C28" s="12" t="s">
         <v>36</v>
       </c>
@@ -2473,20 +2455,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="29" ht="32" customHeight="1" spans="3:4">
+    <row r="29" ht="45" customHeight="1" spans="3:4">
       <c r="C29" s="12" t="s">
         <v>38</v>
       </c>
       <c r="D29" t="s">
         <v>39</v>
-      </c>
-    </row>
-    <row r="30" ht="45" customHeight="1" spans="3:4">
-      <c r="C30" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="D30" t="s">
-        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -2512,35 +2486,35 @@
   <sheetData>
     <row r="6" ht="78" customHeight="1" spans="2:3">
       <c r="B6" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" ht="81" customHeight="1" spans="3:3">
       <c r="C7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" ht="77" customHeight="1" spans="3:3">
       <c r="C8" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" ht="135" customHeight="1" spans="3:3">
       <c r="C9" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" ht="141" customHeight="1" spans="3:3">
       <c r="C10" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" ht="186" customHeight="1" spans="3:3">
       <c r="C11" s="10" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -2566,12 +2540,12 @@
   <sheetData>
     <row r="5" spans="1:1">
       <c r="A5" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -2579,7 +2553,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -2587,7 +2561,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -2595,7 +2569,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -2603,32 +2577,32 @@
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -2655,40 +2629,40 @@
   <sheetData>
     <row r="5" customFormat="1" spans="1:1">
       <c r="A5" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" customFormat="1" spans="1:1">
       <c r="A6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" customFormat="1" spans="1:1">
       <c r="A11" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="12" customFormat="1" ht="76" customHeight="1" spans="1:2">
       <c r="A12" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="13" customFormat="1" spans="1:1">
       <c r="A13" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14" customFormat="1" spans="1:1">
@@ -2698,12 +2672,12 @@
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -2730,40 +2704,40 @@
   <sheetData>
     <row r="7" spans="1:1">
       <c r="A7" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" ht="70" customHeight="1" spans="1:2">
       <c r="A9" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -2790,49 +2764,49 @@
   <sheetData>
     <row r="7" spans="1:1">
       <c r="A7" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" ht="63" customHeight="1" spans="1:2">
       <c r="A8" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9" ht="136" customHeight="1" spans="1:2">
       <c r="A9" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="12" ht="126" customHeight="1" spans="1:2">
       <c r="A12" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="13" ht="71" customHeight="1" spans="1:2">
       <c r="A13" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:1">
@@ -2840,66 +2814,66 @@
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="24" ht="84" customHeight="1" spans="1:2">
       <c r="A24" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B24" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="25" ht="55" customHeight="1" spans="1:2">
       <c r="A25" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B25" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B26" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -2925,112 +2899,112 @@
   <sheetData>
     <row r="9" spans="1:1">
       <c r="A9" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" ht="117" customHeight="1" spans="1:2">
       <c r="A10" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="11" ht="67.5" spans="1:2">
       <c r="A11" s="5" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B31" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B32" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B33" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -3056,115 +3030,115 @@
   <sheetData>
     <row r="8" spans="1:1">
       <c r="A8" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" ht="36" customHeight="1" spans="1:1">
       <c r="A9" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="10" ht="103" customHeight="1" spans="1:2">
       <c r="A10" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11" ht="38" customHeight="1" spans="1:1">
       <c r="A11" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="23" ht="38" customHeight="1" spans="1:2">
       <c r="A23" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="24" ht="54" customHeight="1" spans="1:2">
       <c r="A24" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="25" ht="26" customHeight="1" spans="1:2">
       <c r="A25" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B25" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="26" ht="42" customHeight="1" spans="1:2">
       <c r="A26" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B26" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="27" ht="27" spans="1:2">
       <c r="A27" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>

--- a/口袋猫猫/工作日志.xlsx
+++ b/口袋猫猫/工作日志.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="14940" activeTab="14"/>
+    <workbookView windowHeight="14940" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="系统模块" sheetId="14" r:id="rId1"/>
@@ -22,6 +22,7 @@
     <sheet name="6.17" sheetId="12" r:id="rId13"/>
     <sheet name="6.18" sheetId="13" r:id="rId14"/>
     <sheet name="6.19" sheetId="15" r:id="rId15"/>
+    <sheet name="6.20" sheetId="16" r:id="rId16"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="141">
   <si>
     <t>关卡模式</t>
   </si>
@@ -106,6 +107,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>锁链方块</t>
     </r>
     <r>
@@ -124,6 +133,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>传染方块</t>
     </r>
     <r>
@@ -165,6 +182,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>冰块</t>
     </r>
     <r>
@@ -183,6 +208,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>火焰</t>
     </r>
     <r>
@@ -213,6 +246,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>磁铁</t>
     </r>
     <r>
@@ -231,6 +272,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>镜像移动</t>
     </r>
     <r>
@@ -249,6 +298,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>激光</t>
     </r>
     <r>
@@ -1278,19 +1335,19 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1314,12 +1371,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
@@ -1656,7 +1707,7 @@
       <c r="A3" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1664,19 +1715,19 @@
       <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="6" ht="141" customHeight="1" spans="1:2">
       <c r="A6" s="9"/>
-      <c r="B6" s="3"/>
+      <c r="B6" s="2"/>
     </row>
     <row r="7" ht="141" customHeight="1" spans="1:2">
       <c r="A7" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="2" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1684,7 +1735,7 @@
       <c r="A11" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="2" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1720,7 +1771,7 @@
       </c>
     </row>
     <row r="11" ht="91" customHeight="1" spans="2:2">
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="3" t="s">
         <v>102</v>
       </c>
     </row>
@@ -1730,7 +1781,7 @@
       </c>
     </row>
     <row r="20" spans="2:2">
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="3" t="s">
         <v>79</v>
       </c>
     </row>
@@ -1745,7 +1796,7 @@
       </c>
     </row>
     <row r="23" ht="34" customHeight="1" spans="2:2">
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="3" t="s">
         <v>83</v>
       </c>
     </row>
@@ -1753,7 +1804,7 @@
       <c r="B24" t="s">
         <v>103</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C24" s="2" t="s">
         <v>104</v>
       </c>
     </row>
@@ -1761,7 +1812,7 @@
       <c r="B25" t="s">
         <v>85</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C25" s="2" t="s">
         <v>105</v>
       </c>
     </row>
@@ -1785,7 +1836,7 @@
       <c r="B28" t="s">
         <v>106</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="C28" s="2" t="s">
         <v>110</v>
       </c>
     </row>
@@ -1826,7 +1877,7 @@
       </c>
     </row>
     <row r="8" ht="91" customHeight="1" spans="2:3">
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="3" t="s">
         <v>111</v>
       </c>
       <c r="C8" s="4" t="s">
@@ -1837,7 +1888,7 @@
       <c r="B9" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="2" t="s">
         <v>114</v>
       </c>
     </row>
@@ -1862,7 +1913,7 @@
       </c>
     </row>
     <row r="20" ht="38" customHeight="1" spans="2:3">
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="3" t="s">
         <v>103</v>
       </c>
       <c r="C20" s="4" t="s">
@@ -1870,7 +1921,7 @@
       </c>
     </row>
     <row r="21" ht="48" customHeight="1" spans="2:3">
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="3" t="s">
         <v>85</v>
       </c>
       <c r="C21" s="4" t="s">
@@ -1878,18 +1929,18 @@
       </c>
     </row>
     <row r="22" ht="42" customHeight="1" spans="2:3">
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C22" s="3" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="23" ht="51" customHeight="1" spans="2:3">
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C23" s="3" t="s">
         <v>90</v>
       </c>
     </row>
@@ -1897,7 +1948,7 @@
       <c r="B24" t="s">
         <v>106</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C24" s="2" t="s">
         <v>110</v>
       </c>
     </row>
@@ -1961,7 +2012,7 @@
       </c>
     </row>
     <row r="21" spans="1:1">
-      <c r="A21" s="2" t="s">
+      <c r="A21" s="3" t="s">
         <v>97</v>
       </c>
     </row>
@@ -1979,12 +2030,12 @@
       <c r="A24" t="s">
         <v>106</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="2" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="25" spans="1:1">
-      <c r="A25" s="2" t="s">
+      <c r="A25" s="3" t="s">
         <v>84</v>
       </c>
     </row>
@@ -2025,12 +2076,12 @@
       </c>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="3" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="8" spans="1:1">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="3" t="s">
         <v>121</v>
       </c>
     </row>
@@ -2048,7 +2099,7 @@
       </c>
     </row>
     <row r="20" ht="23" customHeight="1" spans="1:1">
-      <c r="A20" s="2" t="s">
+      <c r="A20" s="3" t="s">
         <v>108</v>
       </c>
     </row>
@@ -2061,7 +2112,7 @@
       <c r="A22" t="s">
         <v>106</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="2" t="s">
         <v>110</v>
       </c>
     </row>
@@ -2113,20 +2164,20 @@
       </c>
     </row>
     <row r="6" ht="36" customHeight="1" spans="1:1">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="3" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="7" ht="57" customHeight="1" spans="1:2">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="3" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="8" ht="147" customHeight="1" spans="1:2">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="4" t="s">
@@ -2134,20 +2185,20 @@
       </c>
     </row>
     <row r="9" ht="45" customHeight="1" spans="1:1">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="3" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="10" ht="59" customHeight="1" spans="1:2">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="3" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="11" ht="45" customHeight="1" spans="1:1">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="3" t="s">
         <v>131</v>
       </c>
     </row>
@@ -2165,7 +2216,7 @@
       <c r="A18" t="s">
         <v>132</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="2" t="s">
         <v>133</v>
       </c>
     </row>
@@ -2173,13 +2224,13 @@
       <c r="A19" t="s">
         <v>134</v>
       </c>
-      <c r="B19" s="3"/>
+      <c r="B19" s="2"/>
     </row>
     <row r="20" ht="90" customHeight="1" spans="1:2">
       <c r="A20" t="s">
         <v>106</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="2" t="s">
         <v>110</v>
       </c>
     </row>
@@ -2203,7 +2254,7 @@
       <c r="A23" t="s">
         <v>135</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="2" t="s">
         <v>136</v>
       </c>
     </row>
@@ -2218,8 +2269,8 @@
   <sheetPr/>
   <dimension ref="A5:B22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20:B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
@@ -2244,7 +2295,7 @@
       </c>
     </row>
     <row r="8" spans="1:1">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="3" t="s">
         <v>138</v>
       </c>
     </row>
@@ -2254,7 +2305,7 @@
       </c>
     </row>
     <row r="15" spans="1:1">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="3" t="s">
         <v>82</v>
       </c>
     </row>
@@ -2262,7 +2313,7 @@
       <c r="A16" t="s">
         <v>139</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="2" t="s">
         <v>140</v>
       </c>
     </row>
@@ -2270,18 +2321,18 @@
       <c r="A17" t="s">
         <v>132</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="2" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="18" ht="39" customHeight="1" spans="1:2">
-      <c r="A18" t="s">
+    <row r="18" ht="84" customHeight="1" spans="1:2">
+      <c r="A18" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="B18" s="3"/>
+      <c r="B18" s="4"/>
     </row>
     <row r="19" ht="54" spans="1:2">
-      <c r="A19" s="2" t="s">
+      <c r="A19" s="3" t="s">
         <v>106</v>
       </c>
       <c r="B19" s="4" t="s">
@@ -2308,7 +2359,88 @@
       <c r="A22" t="s">
         <v>135</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A5:B20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="46.75" customWidth="1"/>
+    <col min="2" max="2" width="58.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" ht="63" customHeight="1" spans="1:1">
+      <c r="A5" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" ht="49" customHeight="1" spans="1:1">
+      <c r="A6" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="7" ht="64" customHeight="1" spans="1:1">
+      <c r="A7" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>139</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>132</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>124</v>
+      </c>
+      <c r="B18" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="20" ht="108" spans="1:2">
+      <c r="A20" t="s">
+        <v>135</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>136</v>
       </c>
     </row>
@@ -2363,7 +2495,7 @@
       </c>
     </row>
     <row r="12" ht="61" customHeight="1" spans="3:4">
-      <c r="C12" s="12" t="s">
+      <c r="C12" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D12" t="s">
@@ -2371,15 +2503,15 @@
       </c>
     </row>
     <row r="13" ht="273" customHeight="1" spans="3:4">
-      <c r="C13" s="12" t="s">
+      <c r="C13" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D13" s="13" t="s">
+      <c r="D13" s="2" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="18" ht="24" spans="3:3">
-      <c r="C18" s="14" t="s">
+      <c r="C18" s="12" t="s">
         <v>19</v>
       </c>
     </row>
@@ -2408,7 +2540,7 @@
       </c>
     </row>
     <row r="23" ht="32" customHeight="1" spans="3:4">
-      <c r="C23" s="12" t="s">
+      <c r="C23" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D23" t="s">
@@ -2416,7 +2548,7 @@
       </c>
     </row>
     <row r="24" ht="54" customHeight="1" spans="3:4">
-      <c r="C24" s="12" t="s">
+      <c r="C24" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D24" t="s">
@@ -2424,7 +2556,7 @@
       </c>
     </row>
     <row r="25" ht="27" customHeight="1" spans="3:4">
-      <c r="C25" s="15" t="s">
+      <c r="C25" s="13" t="s">
         <v>30</v>
       </c>
       <c r="D25" t="s">
@@ -2440,7 +2572,7 @@
       </c>
     </row>
     <row r="27" ht="39" customHeight="1" spans="3:4">
-      <c r="C27" s="12" t="s">
+      <c r="C27" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D27" t="s">
@@ -2448,7 +2580,7 @@
       </c>
     </row>
     <row r="28" ht="32" customHeight="1" spans="3:4">
-      <c r="C28" s="12" t="s">
+      <c r="C28" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D28" t="s">
@@ -2456,7 +2588,7 @@
       </c>
     </row>
     <row r="29" ht="45" customHeight="1" spans="3:4">
-      <c r="C29" s="12" t="s">
+      <c r="C29" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D29" t="s">
@@ -2488,7 +2620,7 @@
       <c r="B6" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="2" t="s">
         <v>41</v>
       </c>
     </row>
@@ -2503,12 +2635,12 @@
       </c>
     </row>
     <row r="9" ht="135" customHeight="1" spans="3:3">
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="2" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="10" ht="141" customHeight="1" spans="3:3">
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="2" t="s">
         <v>45</v>
       </c>
     </row>
@@ -2638,12 +2770,12 @@
       </c>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="3" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:1">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="3" t="s">
         <v>60</v>
       </c>
     </row>
@@ -2653,7 +2785,7 @@
       </c>
     </row>
     <row r="12" customFormat="1" ht="76" customHeight="1" spans="1:2">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="3" t="s">
         <v>54</v>
       </c>
       <c r="B12" s="4" t="s">
@@ -2666,17 +2798,17 @@
       </c>
     </row>
     <row r="14" customFormat="1" spans="1:1">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:1">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="3" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="16" spans="1:1">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="3" t="s">
         <v>63</v>
       </c>
     </row>
@@ -2708,7 +2840,7 @@
       </c>
     </row>
     <row r="8" spans="1:1">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="3" t="s">
         <v>64</v>
       </c>
     </row>
@@ -2716,12 +2848,12 @@
       <c r="A9" t="s">
         <v>58</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="2" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:1">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="3" t="s">
         <v>66</v>
       </c>
     </row>
@@ -2768,7 +2900,7 @@
       </c>
     </row>
     <row r="8" ht="63" customHeight="1" spans="1:2">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="3" t="s">
         <v>68</v>
       </c>
       <c r="B8" s="4" t="s">
@@ -2776,7 +2908,7 @@
       </c>
     </row>
     <row r="9" ht="136" customHeight="1" spans="1:2">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="3" t="s">
         <v>70</v>
       </c>
       <c r="B9" s="4" t="s">
@@ -2797,7 +2929,7 @@
       <c r="A12" t="s">
         <v>74</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="2" t="s">
         <v>75</v>
       </c>
     </row>
@@ -2805,7 +2937,7 @@
       <c r="A13" t="s">
         <v>76</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="2" t="s">
         <v>77</v>
       </c>
     </row>
@@ -2906,7 +3038,7 @@
       <c r="A10" t="s">
         <v>91</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="2" t="s">
         <v>92</v>
       </c>
     </row>
@@ -2919,7 +3051,7 @@
       </c>
     </row>
     <row r="12" spans="1:1">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="3" t="s">
         <v>94</v>
       </c>
     </row>
@@ -2929,7 +3061,7 @@
       </c>
     </row>
     <row r="14" spans="1:1">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="3" t="s">
         <v>95</v>
       </c>
     </row>
@@ -3034,12 +3166,12 @@
       </c>
     </row>
     <row r="9" ht="36" customHeight="1" spans="1:1">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="3" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="10" ht="103" customHeight="1" spans="1:2">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="3" t="s">
         <v>99</v>
       </c>
       <c r="B10" s="4" t="s">
@@ -3090,7 +3222,7 @@
       <c r="A23" t="s">
         <v>103</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="2" t="s">
         <v>104</v>
       </c>
     </row>
@@ -3098,7 +3230,7 @@
       <c r="A24" t="s">
         <v>85</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="2" t="s">
         <v>105</v>
       </c>
     </row>
@@ -3122,7 +3254,7 @@
       <c r="A27" t="s">
         <v>106</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B27" s="2" t="s">
         <v>107</v>
       </c>
     </row>
